--- a/Database/Akrual.xlsx
+++ b/Database/Akrual.xlsx
@@ -604,7 +604,7 @@
       <c r="A3" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Periode Mei 2025</t>
+            <t xml:space="preserve">Periode Juli 2025</t>
           </r>
         </is>
       </c>
@@ -982,22 +982,22 @@
       <c r="U9" s="10" t="inlineStr"/>
       <c r="V9" s="10" t="inlineStr"/>
       <c r="W9" s="11" t="n">
-        <v>3.5327440523E10</v>
+        <v>5.4924374881E10</v>
       </c>
       <c r="X9" s="11" t="n">
-        <v>1.2306491962E10</v>
+        <v>6.595922484E9</v>
       </c>
       <c r="Y9" s="10" t="n">
-        <v>4.7633932485E10</v>
+        <v>6.1520297365E10</v>
       </c>
       <c r="Z9" s="10" t="inlineStr"/>
       <c r="AA9" s="10" t="inlineStr"/>
       <c r="AB9" s="10" t="inlineStr"/>
       <c r="AC9" s="12" t="n">
-        <v>0.5603280110880029</v>
+        <v>0.7236762548405614</v>
       </c>
       <c r="AD9" s="10" t="n">
-        <v>3.7376867515E10</v>
+        <v>2.3490502635E10</v>
       </c>
       <c r="AE9" s="10" t="inlineStr"/>
       <c r="AF9" s="10" t="inlineStr"/>
@@ -1045,23 +1045,23 @@
       <c r="U10" s="14" t="inlineStr"/>
       <c r="V10" s="14" t="inlineStr"/>
       <c r="W10" s="14" t="n">
-        <v>2.509E9</v>
+        <v>3.52885832E9</v>
       </c>
       <c r="X10" s="14" t="n">
-        <v>5.018E8</v>
+        <v>5.0450972E8</v>
       </c>
       <c r="Y10" s="14" t="inlineStr"/>
       <c r="Z10" s="14" t="n">
-        <v>3.0108E9</v>
+        <v>4.03336804E9</v>
       </c>
       <c r="AA10" s="14" t="inlineStr"/>
       <c r="AB10" s="14" t="inlineStr"/>
       <c r="AC10" s="15" t="n">
-        <v>0.5966781980587943</v>
+        <v>0.7993300033928294</v>
       </c>
       <c r="AD10" s="15" t="inlineStr"/>
       <c r="AE10" s="14" t="n">
-        <v>2.035136E9</v>
+        <v>1.01256796E9</v>
       </c>
       <c r="AF10" s="14" t="inlineStr"/>
       <c r="AG10" s="14" t="inlineStr"/>
@@ -1108,23 +1108,23 @@
       <c r="U11" s="14" t="inlineStr"/>
       <c r="V11" s="14" t="inlineStr"/>
       <c r="W11" s="14" t="n">
-        <v>2.509E9</v>
+        <v>3.52885832E9</v>
       </c>
       <c r="X11" s="14" t="n">
-        <v>5.018E8</v>
+        <v>5.0450972E8</v>
       </c>
       <c r="Y11" s="14" t="inlineStr"/>
       <c r="Z11" s="14" t="n">
-        <v>3.0108E9</v>
+        <v>4.03336804E9</v>
       </c>
       <c r="AA11" s="14" t="inlineStr"/>
       <c r="AB11" s="14" t="inlineStr"/>
       <c r="AC11" s="15" t="n">
-        <v>0.5966781980587943</v>
+        <v>0.7993300033928294</v>
       </c>
       <c r="AD11" s="15" t="inlineStr"/>
       <c r="AE11" s="14" t="n">
-        <v>2.035136E9</v>
+        <v>1.01256796E9</v>
       </c>
       <c r="AF11" s="14" t="inlineStr"/>
       <c r="AG11" s="14" t="inlineStr"/>
@@ -1171,23 +1171,23 @@
       <c r="U12" s="17" t="inlineStr"/>
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="17" t="n">
-        <v>2.509E9</v>
+        <v>3.52885832E9</v>
       </c>
       <c r="X12" s="17" t="n">
-        <v>5.018E8</v>
+        <v>5.0450972E8</v>
       </c>
       <c r="Y12" s="17" t="inlineStr"/>
       <c r="Z12" s="17" t="n">
-        <v>3.0108E9</v>
+        <v>4.03336804E9</v>
       </c>
       <c r="AA12" s="17" t="inlineStr"/>
       <c r="AB12" s="17" t="inlineStr"/>
       <c r="AC12" s="18" t="n">
-        <v>0.5966781980587943</v>
+        <v>0.7993300033928294</v>
       </c>
       <c r="AD12" s="18" t="inlineStr"/>
       <c r="AE12" s="17" t="n">
-        <v>2.035136E9</v>
+        <v>1.01256796E9</v>
       </c>
       <c r="AF12" s="17" t="inlineStr"/>
       <c r="AG12" s="17" t="inlineStr"/>
@@ -1234,23 +1234,23 @@
       <c r="U13" s="21" t="inlineStr"/>
       <c r="V13" s="21" t="inlineStr"/>
       <c r="W13" s="22" t="n">
-        <v>2.509E9</v>
+        <v>3.52885832E9</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>5.018E8</v>
+        <v>5.0450972E8</v>
       </c>
       <c r="Y13" s="22" t="inlineStr"/>
       <c r="Z13" s="21" t="n">
-        <v>3.0108E9</v>
+        <v>4.03336804E9</v>
       </c>
       <c r="AA13" s="21" t="inlineStr"/>
       <c r="AB13" s="21" t="inlineStr"/>
       <c r="AC13" s="23" t="n">
-        <v>0.5966781980587943</v>
+        <v>0.7993300033928294</v>
       </c>
       <c r="AD13" s="23" t="inlineStr"/>
       <c r="AE13" s="21" t="n">
-        <v>2.035136E9</v>
+        <v>1.01256796E9</v>
       </c>
       <c r="AF13" s="21" t="inlineStr"/>
       <c r="AG13" s="21" t="inlineStr"/>
@@ -1297,23 +1297,23 @@
       <c r="U14" s="25" t="inlineStr"/>
       <c r="V14" s="25" t="inlineStr"/>
       <c r="W14" s="25" t="n">
-        <v>2.509E9</v>
+        <v>3.52885832E9</v>
       </c>
       <c r="X14" s="25" t="n">
-        <v>5.018E8</v>
+        <v>5.0450972E8</v>
       </c>
       <c r="Y14" s="25" t="inlineStr"/>
       <c r="Z14" s="25" t="n">
-        <v>3.0108E9</v>
+        <v>4.03336804E9</v>
       </c>
       <c r="AA14" s="25" t="inlineStr"/>
       <c r="AB14" s="25" t="inlineStr"/>
       <c r="AC14" s="26" t="n">
-        <v>0.5966781980587943</v>
+        <v>0.7993300033928294</v>
       </c>
       <c r="AD14" s="26" t="inlineStr"/>
       <c r="AE14" s="25" t="n">
-        <v>2.035136E9</v>
+        <v>1.01256796E9</v>
       </c>
       <c r="AF14" s="25" t="inlineStr"/>
       <c r="AG14" s="25" t="inlineStr"/>
@@ -1360,23 +1360,23 @@
       <c r="U15" s="14" t="inlineStr"/>
       <c r="V15" s="14" t="inlineStr"/>
       <c r="W15" s="14" t="n">
-        <v>2.509E9</v>
+        <v>3.52885832E9</v>
       </c>
       <c r="X15" s="14" t="n">
-        <v>5.018E8</v>
+        <v>5.0450972E8</v>
       </c>
       <c r="Y15" s="14" t="inlineStr"/>
       <c r="Z15" s="14" t="n">
-        <v>3.0108E9</v>
+        <v>4.03336804E9</v>
       </c>
       <c r="AA15" s="14" t="inlineStr"/>
       <c r="AB15" s="14" t="inlineStr"/>
       <c r="AC15" s="15" t="n">
-        <v>0.5966781980587943</v>
+        <v>0.7993300033928294</v>
       </c>
       <c r="AD15" s="15" t="inlineStr"/>
       <c r="AE15" s="14" t="n">
-        <v>2.035136E9</v>
+        <v>1.01256796E9</v>
       </c>
       <c r="AF15" s="14" t="inlineStr"/>
       <c r="AG15" s="14" t="inlineStr"/>
@@ -1423,23 +1423,23 @@
       <c r="U16" s="14" t="inlineStr"/>
       <c r="V16" s="14" t="inlineStr"/>
       <c r="W16" s="14" t="n">
-        <v>2.509E9</v>
+        <v>3.52885832E9</v>
       </c>
       <c r="X16" s="14" t="n">
-        <v>5.018E8</v>
+        <v>5.0450972E8</v>
       </c>
       <c r="Y16" s="14" t="inlineStr"/>
       <c r="Z16" s="14" t="n">
-        <v>3.0108E9</v>
+        <v>4.03336804E9</v>
       </c>
       <c r="AA16" s="14" t="inlineStr"/>
       <c r="AB16" s="14" t="inlineStr"/>
       <c r="AC16" s="15" t="n">
-        <v>0.5966781980587943</v>
+        <v>0.7993300033928294</v>
       </c>
       <c r="AD16" s="15" t="inlineStr"/>
       <c r="AE16" s="14" t="n">
-        <v>2.035136E9</v>
+        <v>1.01256796E9</v>
       </c>
       <c r="AF16" s="14" t="inlineStr"/>
       <c r="AG16" s="14" t="inlineStr"/>
@@ -1480,23 +1480,23 @@
       <c r="U17" s="14" t="inlineStr"/>
       <c r="V17" s="14" t="inlineStr"/>
       <c r="W17" s="14" t="n">
-        <v>2.16E8</v>
+        <v>3.024E8</v>
       </c>
       <c r="X17" s="14" t="n">
         <v>4.32E7</v>
       </c>
       <c r="Y17" s="14" t="inlineStr"/>
       <c r="Z17" s="14" t="n">
-        <v>2.592E8</v>
+        <v>3.456E8</v>
       </c>
       <c r="AA17" s="14" t="inlineStr"/>
       <c r="AB17" s="14" t="inlineStr"/>
       <c r="AC17" s="15" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD17" s="15" t="inlineStr"/>
       <c r="AE17" s="14" t="n">
-        <v>1.728E8</v>
+        <v>8.64E7</v>
       </c>
       <c r="AF17" s="14" t="inlineStr"/>
       <c r="AG17" s="14" t="inlineStr"/>
@@ -1537,23 +1537,23 @@
       <c r="U18" s="14" t="inlineStr"/>
       <c r="V18" s="14" t="inlineStr"/>
       <c r="W18" s="14" t="n">
-        <v>2.223E9</v>
+        <v>3.1122E9</v>
       </c>
       <c r="X18" s="14" t="n">
         <v>4.446E8</v>
       </c>
       <c r="Y18" s="14" t="inlineStr"/>
       <c r="Z18" s="14" t="n">
-        <v>2.6676E9</v>
+        <v>3.5568E9</v>
       </c>
       <c r="AA18" s="14" t="inlineStr"/>
       <c r="AB18" s="14" t="inlineStr"/>
       <c r="AC18" s="15" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD18" s="15" t="inlineStr"/>
       <c r="AE18" s="14" t="n">
-        <v>1.7784E9</v>
+        <v>8.892E8</v>
       </c>
       <c r="AF18" s="14" t="inlineStr"/>
       <c r="AG18" s="14" t="inlineStr"/>
@@ -1594,23 +1594,23 @@
       <c r="U19" s="14" t="inlineStr"/>
       <c r="V19" s="14" t="inlineStr"/>
       <c r="W19" s="14" t="n">
-        <v>7.0E7</v>
+        <v>9.8E7</v>
       </c>
       <c r="X19" s="14" t="n">
         <v>1.4E7</v>
       </c>
       <c r="Y19" s="14" t="inlineStr"/>
       <c r="Z19" s="14" t="n">
-        <v>8.4E7</v>
+        <v>1.12E8</v>
       </c>
       <c r="AA19" s="14" t="inlineStr"/>
       <c r="AB19" s="14" t="inlineStr"/>
       <c r="AC19" s="15" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD19" s="15" t="inlineStr"/>
       <c r="AE19" s="14" t="n">
-        <v>5.6E7</v>
+        <v>2.8E7</v>
       </c>
       <c r="AF19" s="14" t="inlineStr"/>
       <c r="AG19" s="14" t="inlineStr"/>
@@ -1651,23 +1651,23 @@
       <c r="U20" s="14" t="inlineStr"/>
       <c r="V20" s="14" t="inlineStr"/>
       <c r="W20" s="14" t="n">
-        <v>0.0</v>
+        <v>1.625832E7</v>
       </c>
       <c r="X20" s="14" t="n">
-        <v>0.0</v>
+        <v>2709720.0</v>
       </c>
       <c r="Y20" s="14" t="inlineStr"/>
       <c r="Z20" s="14" t="n">
-        <v>0.0</v>
+        <v>1.896804E7</v>
       </c>
       <c r="AA20" s="14" t="inlineStr"/>
       <c r="AB20" s="14" t="inlineStr"/>
       <c r="AC20" s="15" t="n">
-        <v>0.0</v>
+        <v>0.6789819587628866</v>
       </c>
       <c r="AD20" s="15" t="inlineStr"/>
       <c r="AE20" s="14" t="n">
-        <v>2.7936E7</v>
+        <v>8967960.0</v>
       </c>
       <c r="AF20" s="14" t="inlineStr"/>
       <c r="AG20" s="14" t="inlineStr"/>
@@ -1714,23 +1714,23 @@
       <c r="U21" s="14" t="inlineStr"/>
       <c r="V21" s="14" t="inlineStr"/>
       <c r="W21" s="14" t="n">
-        <v>3.2818440523E10</v>
+        <v>5.1395516561E10</v>
       </c>
       <c r="X21" s="14" t="n">
-        <v>1.1804691962E10</v>
+        <v>6.091412764E9</v>
       </c>
       <c r="Y21" s="14" t="inlineStr"/>
       <c r="Z21" s="14" t="n">
-        <v>4.4623132485E10</v>
+        <v>5.7486929325E10</v>
       </c>
       <c r="AA21" s="14" t="inlineStr"/>
       <c r="AB21" s="14" t="inlineStr"/>
       <c r="AC21" s="15" t="n">
-        <v>0.5580342447027734</v>
+        <v>0.7189023584783437</v>
       </c>
       <c r="AD21" s="15" t="inlineStr"/>
       <c r="AE21" s="14" t="n">
-        <v>3.5341731515E10</v>
+        <v>2.2477934675E10</v>
       </c>
       <c r="AF21" s="14" t="inlineStr"/>
       <c r="AG21" s="14" t="inlineStr"/>
@@ -1777,23 +1777,23 @@
       <c r="U22" s="14" t="inlineStr"/>
       <c r="V22" s="14" t="inlineStr"/>
       <c r="W22" s="14" t="n">
-        <v>3.2818440523E10</v>
+        <v>5.1395516561E10</v>
       </c>
       <c r="X22" s="14" t="n">
-        <v>1.1804691962E10</v>
+        <v>6.091412764E9</v>
       </c>
       <c r="Y22" s="14" t="inlineStr"/>
       <c r="Z22" s="14" t="n">
-        <v>4.4623132485E10</v>
+        <v>5.7486929325E10</v>
       </c>
       <c r="AA22" s="14" t="inlineStr"/>
       <c r="AB22" s="14" t="inlineStr"/>
       <c r="AC22" s="15" t="n">
-        <v>0.5580342447027734</v>
+        <v>0.7189023584783437</v>
       </c>
       <c r="AD22" s="15" t="inlineStr"/>
       <c r="AE22" s="14" t="n">
-        <v>3.5341731515E10</v>
+        <v>2.2477934675E10</v>
       </c>
       <c r="AF22" s="14" t="inlineStr"/>
       <c r="AG22" s="14" t="inlineStr"/>
@@ -1840,23 +1840,23 @@
       <c r="U23" s="17" t="inlineStr"/>
       <c r="V23" s="17" t="inlineStr"/>
       <c r="W23" s="17" t="n">
-        <v>3.2817840523E10</v>
+        <v>5.1394916561E10</v>
       </c>
       <c r="X23" s="17" t="n">
-        <v>1.1804691962E10</v>
+        <v>6.091412764E9</v>
       </c>
       <c r="Y23" s="17" t="inlineStr"/>
       <c r="Z23" s="17" t="n">
-        <v>4.4622532485E10</v>
+        <v>5.7486329325E10</v>
       </c>
       <c r="AA23" s="17" t="inlineStr"/>
       <c r="AB23" s="17" t="inlineStr"/>
       <c r="AC23" s="18" t="n">
-        <v>0.5580309284782512</v>
+        <v>0.718900249303864</v>
       </c>
       <c r="AD23" s="18" t="inlineStr"/>
       <c r="AE23" s="17" t="n">
-        <v>3.5341731515E10</v>
+        <v>2.2477934675E10</v>
       </c>
       <c r="AF23" s="17" t="inlineStr"/>
       <c r="AG23" s="17" t="inlineStr"/>
@@ -2564,23 +2564,23 @@
       <c r="U35" s="21" t="inlineStr"/>
       <c r="V35" s="21" t="inlineStr"/>
       <c r="W35" s="22" t="n">
-        <v>600000.0</v>
+        <v>3949100.0</v>
       </c>
       <c r="X35" s="22" t="n">
-        <v>3349100.0</v>
+        <v>5737000.0</v>
       </c>
       <c r="Y35" s="22" t="inlineStr"/>
       <c r="Z35" s="21" t="n">
-        <v>3949100.0</v>
+        <v>9686100.0</v>
       </c>
       <c r="AA35" s="21" t="inlineStr"/>
       <c r="AB35" s="21" t="inlineStr"/>
       <c r="AC35" s="23" t="n">
-        <v>0.22592105263157894</v>
+        <v>0.55412471395881</v>
       </c>
       <c r="AD35" s="23" t="inlineStr"/>
       <c r="AE35" s="21" t="n">
-        <v>1.35309E7</v>
+        <v>7793900.0</v>
       </c>
       <c r="AF35" s="21" t="inlineStr"/>
       <c r="AG35" s="21" t="inlineStr"/>
@@ -2627,23 +2627,23 @@
       <c r="U36" s="25" t="inlineStr"/>
       <c r="V36" s="25" t="inlineStr"/>
       <c r="W36" s="25" t="n">
-        <v>600000.0</v>
+        <v>3949100.0</v>
       </c>
       <c r="X36" s="25" t="n">
-        <v>3349100.0</v>
+        <v>5737000.0</v>
       </c>
       <c r="Y36" s="25" t="inlineStr"/>
       <c r="Z36" s="25" t="n">
-        <v>3949100.0</v>
+        <v>9686100.0</v>
       </c>
       <c r="AA36" s="25" t="inlineStr"/>
       <c r="AB36" s="25" t="inlineStr"/>
       <c r="AC36" s="26" t="n">
-        <v>0.22592105263157894</v>
+        <v>0.55412471395881</v>
       </c>
       <c r="AD36" s="26" t="inlineStr"/>
       <c r="AE36" s="25" t="n">
-        <v>1.35309E7</v>
+        <v>7793900.0</v>
       </c>
       <c r="AF36" s="25" t="inlineStr"/>
       <c r="AG36" s="25" t="inlineStr"/>
@@ -2693,20 +2693,20 @@
         <v>600000.0</v>
       </c>
       <c r="X37" s="14" t="n">
-        <v>0.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="Y37" s="14" t="inlineStr"/>
       <c r="Z37" s="14" t="n">
-        <v>600000.0</v>
+        <v>2400000.0</v>
       </c>
       <c r="AA37" s="14" t="inlineStr"/>
       <c r="AB37" s="14" t="inlineStr"/>
       <c r="AC37" s="15" t="n">
-        <v>0.25</v>
+        <v>1.0</v>
       </c>
       <c r="AD37" s="15" t="inlineStr"/>
       <c r="AE37" s="14" t="n">
-        <v>1800000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF37" s="14" t="inlineStr"/>
       <c r="AG37" s="14" t="inlineStr"/>
@@ -2756,20 +2756,20 @@
         <v>0.0</v>
       </c>
       <c r="X38" s="14" t="n">
-        <v>0.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="Y38" s="14" t="inlineStr"/>
       <c r="Z38" s="14" t="n">
-        <v>0.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="AA38" s="14" t="inlineStr"/>
       <c r="AB38" s="14" t="inlineStr"/>
       <c r="AC38" s="15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD38" s="15" t="inlineStr"/>
       <c r="AE38" s="14" t="n">
-        <v>1800000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF38" s="14" t="inlineStr"/>
       <c r="AG38" s="14" t="inlineStr"/>
@@ -2813,20 +2813,20 @@
         <v>0.0</v>
       </c>
       <c r="X39" s="14" t="n">
-        <v>0.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="Y39" s="14" t="inlineStr"/>
       <c r="Z39" s="14" t="n">
-        <v>0.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="AA39" s="14" t="inlineStr"/>
       <c r="AB39" s="14" t="inlineStr"/>
       <c r="AC39" s="15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD39" s="15" t="inlineStr"/>
       <c r="AE39" s="14" t="n">
-        <v>1800000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF39" s="14" t="inlineStr"/>
       <c r="AG39" s="14" t="inlineStr"/>
@@ -2993,23 +2993,23 @@
       <c r="U42" s="14" t="inlineStr"/>
       <c r="V42" s="14" t="inlineStr"/>
       <c r="W42" s="14" t="n">
-        <v>0.0</v>
+        <v>3349100.0</v>
       </c>
       <c r="X42" s="14" t="n">
-        <v>3349100.0</v>
+        <v>3937000.0</v>
       </c>
       <c r="Y42" s="14" t="inlineStr"/>
       <c r="Z42" s="14" t="n">
-        <v>3349100.0</v>
+        <v>7286100.0</v>
       </c>
       <c r="AA42" s="14" t="inlineStr"/>
       <c r="AB42" s="14" t="inlineStr"/>
       <c r="AC42" s="15" t="n">
-        <v>0.22208885941644563</v>
+        <v>0.4831631299734748</v>
       </c>
       <c r="AD42" s="15" t="inlineStr"/>
       <c r="AE42" s="14" t="n">
-        <v>1.17309E7</v>
+        <v>7793900.0</v>
       </c>
       <c r="AF42" s="14" t="inlineStr"/>
       <c r="AG42" s="14" t="inlineStr"/>
@@ -3056,23 +3056,23 @@
       <c r="U43" s="14" t="inlineStr"/>
       <c r="V43" s="14" t="inlineStr"/>
       <c r="W43" s="14" t="n">
-        <v>0.0</v>
+        <v>3349100.0</v>
       </c>
       <c r="X43" s="14" t="n">
-        <v>3349100.0</v>
+        <v>3937000.0</v>
       </c>
       <c r="Y43" s="14" t="inlineStr"/>
       <c r="Z43" s="14" t="n">
-        <v>3349100.0</v>
+        <v>7286100.0</v>
       </c>
       <c r="AA43" s="14" t="inlineStr"/>
       <c r="AB43" s="14" t="inlineStr"/>
       <c r="AC43" s="15" t="n">
-        <v>0.22208885941644563</v>
+        <v>0.4831631299734748</v>
       </c>
       <c r="AD43" s="15" t="inlineStr"/>
       <c r="AE43" s="14" t="n">
-        <v>1.17309E7</v>
+        <v>7793900.0</v>
       </c>
       <c r="AF43" s="14" t="inlineStr"/>
       <c r="AG43" s="14" t="inlineStr"/>
@@ -3103,7 +3103,7 @@
       <c r="O44" s="13" t="inlineStr"/>
       <c r="P44" s="13" t="inlineStr"/>
       <c r="Q44" s="14" t="n">
-        <v>1.41E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="R44" s="14" t="inlineStr"/>
       <c r="S44" s="14" t="n">
@@ -3113,23 +3113,23 @@
       <c r="U44" s="14" t="inlineStr"/>
       <c r="V44" s="14" t="inlineStr"/>
       <c r="W44" s="14" t="n">
-        <v>0.0</v>
+        <v>2600000.0</v>
       </c>
       <c r="X44" s="14" t="n">
-        <v>2600000.0</v>
+        <v>3937000.0</v>
       </c>
       <c r="Y44" s="14" t="inlineStr"/>
       <c r="Z44" s="14" t="n">
-        <v>2600000.0</v>
+        <v>6537000.0</v>
       </c>
       <c r="AA44" s="14" t="inlineStr"/>
       <c r="AB44" s="14" t="inlineStr"/>
       <c r="AC44" s="15" t="n">
-        <v>0.18439716312056736</v>
+        <v>0.5067441860465116</v>
       </c>
       <c r="AD44" s="15" t="inlineStr"/>
       <c r="AE44" s="14" t="n">
-        <v>1.15E7</v>
+        <v>6363000.0</v>
       </c>
       <c r="AF44" s="14" t="inlineStr"/>
       <c r="AG44" s="14" t="inlineStr"/>
@@ -3160,7 +3160,7 @@
       <c r="O45" s="13" t="inlineStr"/>
       <c r="P45" s="13" t="inlineStr"/>
       <c r="Q45" s="14" t="n">
-        <v>980000.0</v>
+        <v>2180000.0</v>
       </c>
       <c r="R45" s="14" t="inlineStr"/>
       <c r="S45" s="14" t="n">
@@ -3170,10 +3170,10 @@
       <c r="U45" s="14" t="inlineStr"/>
       <c r="V45" s="14" t="inlineStr"/>
       <c r="W45" s="14" t="n">
-        <v>0.0</v>
+        <v>749100.0</v>
       </c>
       <c r="X45" s="14" t="n">
-        <v>749100.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y45" s="14" t="inlineStr"/>
       <c r="Z45" s="14" t="n">
@@ -3182,11 +3182,11 @@
       <c r="AA45" s="14" t="inlineStr"/>
       <c r="AB45" s="14" t="inlineStr"/>
       <c r="AC45" s="15" t="n">
-        <v>0.7643877551020408</v>
+        <v>0.3436238532110092</v>
       </c>
       <c r="AD45" s="15" t="inlineStr"/>
       <c r="AE45" s="14" t="n">
-        <v>230900.0</v>
+        <v>1430900.0</v>
       </c>
       <c r="AF45" s="14" t="inlineStr"/>
       <c r="AG45" s="14" t="inlineStr"/>
@@ -3233,23 +3233,23 @@
       <c r="U46" s="21" t="inlineStr"/>
       <c r="V46" s="21" t="inlineStr"/>
       <c r="W46" s="22" t="n">
-        <v>3.2816190523E10</v>
+        <v>5.1389917461E10</v>
       </c>
       <c r="X46" s="22" t="n">
-        <v>1.1801342862E10</v>
+        <v>6.085675764E9</v>
       </c>
       <c r="Y46" s="22" t="inlineStr"/>
       <c r="Z46" s="21" t="n">
-        <v>4.4617533385E10</v>
+        <v>5.7475593225E10</v>
       </c>
       <c r="AA46" s="21" t="inlineStr"/>
       <c r="AB46" s="21" t="inlineStr"/>
       <c r="AC46" s="23" t="n">
-        <v>0.5580977389612809</v>
+        <v>0.7189325852583954</v>
       </c>
       <c r="AD46" s="23" t="inlineStr"/>
       <c r="AE46" s="21" t="n">
-        <v>3.5328200615E10</v>
+        <v>2.2470140775E10</v>
       </c>
       <c r="AF46" s="21" t="inlineStr"/>
       <c r="AG46" s="21" t="inlineStr"/>
@@ -3296,23 +3296,23 @@
       <c r="U47" s="25" t="inlineStr"/>
       <c r="V47" s="25" t="inlineStr"/>
       <c r="W47" s="25" t="n">
-        <v>2.9444793306E10</v>
+        <v>4.7473912316E10</v>
       </c>
       <c r="X47" s="25" t="n">
-        <v>1.1569481974E10</v>
+        <v>5.855873929E9</v>
       </c>
       <c r="Y47" s="25" t="inlineStr"/>
       <c r="Z47" s="25" t="n">
-        <v>4.101427528E10</v>
+        <v>5.3329786245E10</v>
       </c>
       <c r="AA47" s="25" t="inlineStr"/>
       <c r="AB47" s="25" t="inlineStr"/>
       <c r="AC47" s="26" t="n">
-        <v>0.5520836532901853</v>
+        <v>0.7178598919113772</v>
       </c>
       <c r="AD47" s="26" t="inlineStr"/>
       <c r="AE47" s="25" t="n">
-        <v>3.327568972E10</v>
+        <v>2.0960178755E10</v>
       </c>
       <c r="AF47" s="25" t="inlineStr"/>
       <c r="AG47" s="25" t="inlineStr"/>
@@ -3359,23 +3359,23 @@
       <c r="U48" s="14" t="inlineStr"/>
       <c r="V48" s="14" t="inlineStr"/>
       <c r="W48" s="14" t="n">
-        <v>2.517432327E9</v>
+        <v>3.772450364E9</v>
       </c>
       <c r="X48" s="14" t="n">
-        <v>4.40622879E8</v>
+        <v>4.1509914E8</v>
       </c>
       <c r="Y48" s="14" t="inlineStr"/>
       <c r="Z48" s="14" t="n">
-        <v>2.958055206E9</v>
+        <v>4.187549504E9</v>
       </c>
       <c r="AA48" s="14" t="inlineStr"/>
       <c r="AB48" s="14" t="inlineStr"/>
       <c r="AC48" s="15" t="n">
-        <v>0.46170066341307486</v>
+        <v>0.6536032120530656</v>
       </c>
       <c r="AD48" s="15" t="inlineStr"/>
       <c r="AE48" s="14" t="n">
-        <v>3.448812794E9</v>
+        <v>2.219318496E9</v>
       </c>
       <c r="AF48" s="14" t="inlineStr"/>
       <c r="AG48" s="14" t="inlineStr"/>
@@ -3422,23 +3422,23 @@
       <c r="U49" s="14" t="inlineStr"/>
       <c r="V49" s="14" t="inlineStr"/>
       <c r="W49" s="14" t="n">
-        <v>1.0001549E9</v>
+        <v>1.4858101E9</v>
       </c>
       <c r="X49" s="14" t="n">
-        <v>1.727273E8</v>
+        <v>1.64507E8</v>
       </c>
       <c r="Y49" s="14" t="inlineStr"/>
       <c r="Z49" s="14" t="n">
-        <v>1.1728822E9</v>
+        <v>1.6503171E9</v>
       </c>
       <c r="AA49" s="14" t="inlineStr"/>
       <c r="AB49" s="14" t="inlineStr"/>
       <c r="AC49" s="15" t="n">
-        <v>0.41852656715224906</v>
+        <v>0.5888925167213339</v>
       </c>
       <c r="AD49" s="15" t="inlineStr"/>
       <c r="AE49" s="14" t="n">
-        <v>1.6295258E9</v>
+        <v>1.1520909E9</v>
       </c>
       <c r="AF49" s="14" t="inlineStr"/>
       <c r="AG49" s="14" t="inlineStr"/>
@@ -3479,23 +3479,23 @@
       <c r="U50" s="14" t="inlineStr"/>
       <c r="V50" s="14" t="inlineStr"/>
       <c r="W50" s="14" t="n">
-        <v>8.337719E8</v>
+        <v>1.1556297E9</v>
       </c>
       <c r="X50" s="14" t="n">
         <v>1.64507E8</v>
       </c>
       <c r="Y50" s="14" t="inlineStr"/>
       <c r="Z50" s="14" t="n">
-        <v>9.982789E8</v>
+        <v>1.3201367E9</v>
       </c>
       <c r="AA50" s="14" t="inlineStr"/>
       <c r="AB50" s="14" t="inlineStr"/>
       <c r="AC50" s="15" t="n">
-        <v>0.40600248088498453</v>
+        <v>0.5369028387831463</v>
       </c>
       <c r="AD50" s="15" t="inlineStr"/>
       <c r="AE50" s="14" t="n">
-        <v>1.4605211E9</v>
+        <v>1.1386633E9</v>
       </c>
       <c r="AF50" s="14" t="inlineStr"/>
       <c r="AG50" s="14" t="inlineStr"/>
@@ -3536,23 +3536,23 @@
       <c r="U51" s="14" t="inlineStr"/>
       <c r="V51" s="14" t="inlineStr"/>
       <c r="W51" s="14" t="n">
-        <v>0.0</v>
+        <v>1.637974E8</v>
       </c>
       <c r="X51" s="14" t="n">
-        <v>8220300.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y51" s="14" t="inlineStr"/>
       <c r="Z51" s="14" t="n">
-        <v>8220300.0</v>
+        <v>1.637974E8</v>
       </c>
       <c r="AA51" s="14" t="inlineStr"/>
       <c r="AB51" s="14" t="inlineStr"/>
       <c r="AC51" s="15" t="n">
-        <v>0.04638341091832417</v>
+        <v>0.9242341656086895</v>
       </c>
       <c r="AD51" s="15" t="inlineStr"/>
       <c r="AE51" s="14" t="n">
-        <v>1.690047E8</v>
+        <v>1.34276E7</v>
       </c>
       <c r="AF51" s="14" t="inlineStr"/>
       <c r="AG51" s="14" t="inlineStr"/>
@@ -3656,23 +3656,23 @@
       <c r="U53" s="14" t="inlineStr"/>
       <c r="V53" s="14" t="inlineStr"/>
       <c r="W53" s="14" t="n">
-        <v>12164.0</v>
+        <v>17822.0</v>
       </c>
       <c r="X53" s="14" t="n">
-        <v>1825.0</v>
+        <v>1727.0</v>
       </c>
       <c r="Y53" s="14" t="inlineStr"/>
       <c r="Z53" s="14" t="n">
-        <v>13989.0</v>
+        <v>19549.0</v>
       </c>
       <c r="AA53" s="14" t="inlineStr"/>
       <c r="AB53" s="14" t="inlineStr"/>
       <c r="AC53" s="15" t="n">
-        <v>0.4663</v>
+        <v>0.6516333333333333</v>
       </c>
       <c r="AD53" s="15" t="inlineStr"/>
       <c r="AE53" s="14" t="n">
-        <v>16011.0</v>
+        <v>10451.0</v>
       </c>
       <c r="AF53" s="14" t="inlineStr"/>
       <c r="AG53" s="14" t="inlineStr"/>
@@ -3713,23 +3713,23 @@
       <c r="U54" s="14" t="inlineStr"/>
       <c r="V54" s="14" t="inlineStr"/>
       <c r="W54" s="14" t="n">
-        <v>9708.0</v>
+        <v>13240.0</v>
       </c>
       <c r="X54" s="14" t="n">
         <v>1727.0</v>
       </c>
       <c r="Y54" s="14" t="inlineStr"/>
       <c r="Z54" s="14" t="n">
-        <v>11435.0</v>
+        <v>14967.0</v>
       </c>
       <c r="AA54" s="14" t="inlineStr"/>
       <c r="AB54" s="14" t="inlineStr"/>
       <c r="AC54" s="15" t="n">
-        <v>0.4764583333333333</v>
+        <v>0.623625</v>
       </c>
       <c r="AD54" s="15" t="inlineStr"/>
       <c r="AE54" s="14" t="n">
-        <v>12565.0</v>
+        <v>9033.0</v>
       </c>
       <c r="AF54" s="14" t="inlineStr"/>
       <c r="AG54" s="14" t="inlineStr"/>
@@ -3770,23 +3770,23 @@
       <c r="U55" s="14" t="inlineStr"/>
       <c r="V55" s="14" t="inlineStr"/>
       <c r="W55" s="14" t="n">
-        <v>0.0</v>
+        <v>2126.0</v>
       </c>
       <c r="X55" s="14" t="n">
-        <v>98.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y55" s="14" t="inlineStr"/>
       <c r="Z55" s="14" t="n">
-        <v>98.0</v>
+        <v>2126.0</v>
       </c>
       <c r="AA55" s="14" t="inlineStr"/>
       <c r="AB55" s="14" t="inlineStr"/>
       <c r="AC55" s="15" t="n">
-        <v>0.03266666666666666</v>
+        <v>0.7086666666666667</v>
       </c>
       <c r="AD55" s="15" t="inlineStr"/>
       <c r="AE55" s="14" t="n">
-        <v>2902.0</v>
+        <v>874.0</v>
       </c>
       <c r="AF55" s="14" t="inlineStr"/>
       <c r="AG55" s="14" t="inlineStr"/>
@@ -3890,23 +3890,23 @@
       <c r="U57" s="14" t="inlineStr"/>
       <c r="V57" s="14" t="inlineStr"/>
       <c r="W57" s="14" t="n">
-        <v>7.658995E7</v>
+        <v>1.1333796E8</v>
       </c>
       <c r="X57" s="14" t="n">
-        <v>1.333839E7</v>
+        <v>1.251636E7</v>
       </c>
       <c r="Y57" s="14" t="inlineStr"/>
       <c r="Z57" s="14" t="n">
-        <v>8.992834E7</v>
+        <v>1.2585432E8</v>
       </c>
       <c r="AA57" s="14" t="inlineStr"/>
       <c r="AB57" s="14" t="inlineStr"/>
       <c r="AC57" s="15" t="n">
-        <v>0.49411175824175824</v>
+        <v>0.6915072527472528</v>
       </c>
       <c r="AD57" s="15" t="inlineStr"/>
       <c r="AE57" s="14" t="n">
-        <v>9.207166E7</v>
+        <v>5.614568E7</v>
       </c>
       <c r="AF57" s="14" t="inlineStr"/>
       <c r="AG57" s="14" t="inlineStr"/>
@@ -3947,23 +3947,23 @@
       <c r="U58" s="14" t="inlineStr"/>
       <c r="V58" s="14" t="inlineStr"/>
       <c r="W58" s="14" t="n">
-        <v>6.385152E7</v>
+        <v>8.813964E7</v>
       </c>
       <c r="X58" s="14" t="n">
         <v>1.251636E7</v>
       </c>
       <c r="Y58" s="14" t="inlineStr"/>
       <c r="Z58" s="14" t="n">
-        <v>7.636788E7</v>
+        <v>1.00656E8</v>
       </c>
       <c r="AA58" s="14" t="inlineStr"/>
       <c r="AB58" s="14" t="inlineStr"/>
       <c r="AC58" s="15" t="n">
-        <v>0.4895376923076923</v>
+        <v>0.6452307692307693</v>
       </c>
       <c r="AD58" s="15" t="inlineStr"/>
       <c r="AE58" s="14" t="n">
-        <v>7.963212E7</v>
+        <v>5.5344E7</v>
       </c>
       <c r="AF58" s="14" t="inlineStr"/>
       <c r="AG58" s="14" t="inlineStr"/>
@@ -4004,23 +4004,23 @@
       <c r="U59" s="14" t="inlineStr"/>
       <c r="V59" s="14" t="inlineStr"/>
       <c r="W59" s="14" t="n">
-        <v>0.0</v>
+        <v>1.245989E7</v>
       </c>
       <c r="X59" s="14" t="n">
-        <v>822030.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y59" s="14" t="inlineStr"/>
       <c r="Z59" s="14" t="n">
-        <v>822030.0</v>
+        <v>1.245989E7</v>
       </c>
       <c r="AA59" s="14" t="inlineStr"/>
       <c r="AB59" s="14" t="inlineStr"/>
       <c r="AC59" s="15" t="n">
-        <v>0.06323307692307692</v>
+        <v>0.9584530769230769</v>
       </c>
       <c r="AD59" s="15" t="inlineStr"/>
       <c r="AE59" s="14" t="n">
-        <v>1.217797E7</v>
+        <v>540110.0</v>
       </c>
       <c r="AF59" s="14" t="inlineStr"/>
       <c r="AG59" s="14" t="inlineStr"/>
@@ -4167,23 +4167,23 @@
       <c r="U62" s="14" t="inlineStr"/>
       <c r="V62" s="14" t="inlineStr"/>
       <c r="W62" s="14" t="n">
-        <v>2.3373962E7</v>
+        <v>3.4441812E7</v>
       </c>
       <c r="X62" s="14" t="n">
-        <v>4124084.0</v>
+        <v>3795272.0</v>
       </c>
       <c r="Y62" s="14" t="inlineStr"/>
       <c r="Z62" s="14" t="n">
-        <v>2.7498046E7</v>
+        <v>3.8237084E7</v>
       </c>
       <c r="AA62" s="14" t="inlineStr"/>
       <c r="AB62" s="14" t="inlineStr"/>
       <c r="AC62" s="15" t="n">
-        <v>0.49103653571428574</v>
+        <v>0.6828050714285714</v>
       </c>
       <c r="AD62" s="15" t="inlineStr"/>
       <c r="AE62" s="14" t="n">
-        <v>2.8501954E7</v>
+        <v>1.7762916E7</v>
       </c>
       <c r="AF62" s="14" t="inlineStr"/>
       <c r="AG62" s="14" t="inlineStr"/>
@@ -4224,23 +4224,23 @@
       <c r="U63" s="14" t="inlineStr"/>
       <c r="V63" s="14" t="inlineStr"/>
       <c r="W63" s="14" t="n">
-        <v>1.9476008E7</v>
+        <v>2.6765754E7</v>
       </c>
       <c r="X63" s="14" t="n">
         <v>3795272.0</v>
       </c>
       <c r="Y63" s="14" t="inlineStr"/>
       <c r="Z63" s="14" t="n">
-        <v>2.327128E7</v>
+        <v>3.0561026E7</v>
       </c>
       <c r="AA63" s="14" t="inlineStr"/>
       <c r="AB63" s="14" t="inlineStr"/>
       <c r="AC63" s="15" t="n">
-        <v>0.48481833333333335</v>
+        <v>0.6366880416666667</v>
       </c>
       <c r="AD63" s="15" t="inlineStr"/>
       <c r="AE63" s="14" t="n">
-        <v>2.472872E7</v>
+        <v>1.7438974E7</v>
       </c>
       <c r="AF63" s="14" t="inlineStr"/>
       <c r="AG63" s="14" t="inlineStr"/>
@@ -4281,23 +4281,23 @@
       <c r="U64" s="14" t="inlineStr"/>
       <c r="V64" s="14" t="inlineStr"/>
       <c r="W64" s="14" t="n">
-        <v>0.0</v>
+        <v>3778104.0</v>
       </c>
       <c r="X64" s="14" t="n">
-        <v>328812.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y64" s="14" t="inlineStr"/>
       <c r="Z64" s="14" t="n">
-        <v>328812.0</v>
+        <v>3778104.0</v>
       </c>
       <c r="AA64" s="14" t="inlineStr"/>
       <c r="AB64" s="14" t="inlineStr"/>
       <c r="AC64" s="15" t="n">
-        <v>0.082203</v>
+        <v>0.944526</v>
       </c>
       <c r="AD64" s="15" t="inlineStr"/>
       <c r="AE64" s="14" t="n">
-        <v>3671188.0</v>
+        <v>221896.0</v>
       </c>
       <c r="AF64" s="14" t="inlineStr"/>
       <c r="AG64" s="14" t="inlineStr"/>
@@ -4401,23 +4401,23 @@
       <c r="U66" s="14" t="inlineStr"/>
       <c r="V66" s="14" t="inlineStr"/>
       <c r="W66" s="14" t="n">
-        <v>1.08E7</v>
+        <v>1.62E7</v>
       </c>
       <c r="X66" s="14" t="n">
-        <v>2340000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="Y66" s="14" t="inlineStr"/>
       <c r="Z66" s="14" t="n">
-        <v>1.314E7</v>
+        <v>1.8E7</v>
       </c>
       <c r="AA66" s="14" t="inlineStr"/>
       <c r="AB66" s="14" t="inlineStr"/>
       <c r="AC66" s="15" t="n">
-        <v>0.5214285714285715</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AD66" s="15" t="inlineStr"/>
       <c r="AE66" s="14" t="n">
-        <v>1.206E7</v>
+        <v>7200000.0</v>
       </c>
       <c r="AF66" s="14" t="inlineStr"/>
       <c r="AG66" s="14" t="inlineStr"/>
@@ -4458,23 +4458,23 @@
       <c r="U67" s="14" t="inlineStr"/>
       <c r="V67" s="14" t="inlineStr"/>
       <c r="W67" s="14" t="n">
-        <v>9000000.0</v>
+        <v>1.26E7</v>
       </c>
       <c r="X67" s="14" t="n">
         <v>1800000.0</v>
       </c>
       <c r="Y67" s="14" t="inlineStr"/>
       <c r="Z67" s="14" t="n">
-        <v>1.08E7</v>
+        <v>1.44E7</v>
       </c>
       <c r="AA67" s="14" t="inlineStr"/>
       <c r="AB67" s="14" t="inlineStr"/>
       <c r="AC67" s="15" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AD67" s="15" t="inlineStr"/>
       <c r="AE67" s="14" t="n">
-        <v>1.08E7</v>
+        <v>7200000.0</v>
       </c>
       <c r="AF67" s="14" t="inlineStr"/>
       <c r="AG67" s="14" t="inlineStr"/>
@@ -4515,23 +4515,23 @@
       <c r="U68" s="14" t="inlineStr"/>
       <c r="V68" s="14" t="inlineStr"/>
       <c r="W68" s="14" t="n">
-        <v>0.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="X68" s="14" t="n">
-        <v>540000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y68" s="14" t="inlineStr"/>
       <c r="Z68" s="14" t="n">
-        <v>540000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="AA68" s="14" t="inlineStr"/>
       <c r="AB68" s="14" t="inlineStr"/>
       <c r="AC68" s="15" t="n">
-        <v>0.3</v>
+        <v>1.0</v>
       </c>
       <c r="AD68" s="15" t="inlineStr"/>
       <c r="AE68" s="14" t="n">
-        <v>1260000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF68" s="14" t="inlineStr"/>
       <c r="AG68" s="14" t="inlineStr"/>
@@ -4635,23 +4635,23 @@
       <c r="U70" s="14" t="inlineStr"/>
       <c r="V70" s="14" t="inlineStr"/>
       <c r="W70" s="14" t="n">
-        <v>7.2624E7</v>
+        <v>1.06486E8</v>
       </c>
       <c r="X70" s="14" t="n">
-        <v>1.2574E7</v>
+        <v>1.1474E7</v>
       </c>
       <c r="Y70" s="14" t="inlineStr"/>
       <c r="Z70" s="14" t="n">
-        <v>8.5198E7</v>
+        <v>1.1796E8</v>
       </c>
       <c r="AA70" s="14" t="inlineStr"/>
       <c r="AB70" s="14" t="inlineStr"/>
       <c r="AC70" s="15" t="n">
-        <v>0.5875156881404554</v>
+        <v>0.8134387024701063</v>
       </c>
       <c r="AD70" s="15" t="inlineStr"/>
       <c r="AE70" s="14" t="n">
-        <v>5.9816E7</v>
+        <v>2.7054E7</v>
       </c>
       <c r="AF70" s="14" t="inlineStr"/>
       <c r="AG70" s="14" t="inlineStr"/>
@@ -4692,23 +4692,23 @@
       <c r="U71" s="14" t="inlineStr"/>
       <c r="V71" s="14" t="inlineStr"/>
       <c r="W71" s="14" t="n">
-        <v>6.061E7</v>
+        <v>8.2458E7</v>
       </c>
       <c r="X71" s="14" t="n">
         <v>1.1474E7</v>
       </c>
       <c r="Y71" s="14" t="inlineStr"/>
       <c r="Z71" s="14" t="n">
-        <v>7.2084E7</v>
+        <v>9.3932E7</v>
       </c>
       <c r="AA71" s="14" t="inlineStr"/>
       <c r="AB71" s="14" t="inlineStr"/>
       <c r="AC71" s="15" t="n">
-        <v>0.6007</v>
+        <v>0.7827666666666667</v>
       </c>
       <c r="AD71" s="15" t="inlineStr"/>
       <c r="AE71" s="14" t="n">
-        <v>4.7916E7</v>
+        <v>2.6068E7</v>
       </c>
       <c r="AF71" s="14" t="inlineStr"/>
       <c r="AG71" s="14" t="inlineStr"/>
@@ -4749,23 +4749,23 @@
       <c r="U72" s="14" t="inlineStr"/>
       <c r="V72" s="14" t="inlineStr"/>
       <c r="W72" s="14" t="n">
-        <v>0.0</v>
+        <v>1.2014E7</v>
       </c>
       <c r="X72" s="14" t="n">
-        <v>1100000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y72" s="14" t="inlineStr"/>
       <c r="Z72" s="14" t="n">
-        <v>1100000.0</v>
+        <v>1.2014E7</v>
       </c>
       <c r="AA72" s="14" t="inlineStr"/>
       <c r="AB72" s="14" t="inlineStr"/>
       <c r="AC72" s="15" t="n">
-        <v>0.08461538461538462</v>
+        <v>0.9241538461538461</v>
       </c>
       <c r="AD72" s="15" t="inlineStr"/>
       <c r="AE72" s="14" t="n">
-        <v>1.19E7</v>
+        <v>986000.0</v>
       </c>
       <c r="AF72" s="14" t="inlineStr"/>
       <c r="AG72" s="14" t="inlineStr"/>
@@ -4869,23 +4869,23 @@
       <c r="U74" s="14" t="inlineStr"/>
       <c r="V74" s="14" t="inlineStr"/>
       <c r="W74" s="14" t="n">
-        <v>9845841.0</v>
+        <v>1.9186331E7</v>
       </c>
       <c r="X74" s="14" t="n">
-        <v>850162.0</v>
+        <v>198083.0</v>
       </c>
       <c r="Y74" s="14" t="inlineStr"/>
       <c r="Z74" s="14" t="n">
-        <v>1.0696003E7</v>
+        <v>1.9384414E7</v>
       </c>
       <c r="AA74" s="14" t="inlineStr"/>
       <c r="AB74" s="14" t="inlineStr"/>
       <c r="AC74" s="15" t="n">
-        <v>0.5402021717171717</v>
+        <v>0.9790108080808081</v>
       </c>
       <c r="AD74" s="15" t="inlineStr"/>
       <c r="AE74" s="14" t="n">
-        <v>9103997.0</v>
+        <v>415586.0</v>
       </c>
       <c r="AF74" s="14" t="inlineStr"/>
       <c r="AG74" s="14" t="inlineStr"/>
@@ -4926,23 +4926,23 @@
       <c r="U75" s="14" t="inlineStr"/>
       <c r="V75" s="14" t="inlineStr"/>
       <c r="W75" s="14" t="n">
-        <v>1147268.0</v>
+        <v>1655315.0</v>
       </c>
       <c r="X75" s="14" t="n">
-        <v>212059.0</v>
+        <v>198083.0</v>
       </c>
       <c r="Y75" s="14" t="inlineStr"/>
       <c r="Z75" s="14" t="n">
-        <v>1359327.0</v>
+        <v>1853398.0</v>
       </c>
       <c r="AA75" s="14" t="inlineStr"/>
       <c r="AB75" s="14" t="inlineStr"/>
       <c r="AC75" s="15" t="n">
-        <v>0.56638625</v>
+        <v>0.7722491666666667</v>
       </c>
       <c r="AD75" s="15" t="inlineStr"/>
       <c r="AE75" s="14" t="n">
-        <v>1040673.0</v>
+        <v>546602.0</v>
       </c>
       <c r="AF75" s="14" t="inlineStr"/>
       <c r="AG75" s="14" t="inlineStr"/>
@@ -4983,23 +4983,23 @@
       <c r="U76" s="14" t="inlineStr"/>
       <c r="V76" s="14" t="inlineStr"/>
       <c r="W76" s="14" t="n">
-        <v>0.0</v>
+        <v>8832443.0</v>
       </c>
       <c r="X76" s="14" t="n">
-        <v>638103.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y76" s="14" t="inlineStr"/>
       <c r="Z76" s="14" t="n">
-        <v>638103.0</v>
+        <v>8832443.0</v>
       </c>
       <c r="AA76" s="14" t="inlineStr"/>
       <c r="AB76" s="14" t="inlineStr"/>
       <c r="AC76" s="15" t="n">
-        <v>0.0733451724137931</v>
+        <v>1.0152233333333334</v>
       </c>
       <c r="AD76" s="15" t="inlineStr"/>
       <c r="AE76" s="14" t="n">
-        <v>8061897.0</v>
+        <v>-132443.0</v>
       </c>
       <c r="AF76" s="14" t="inlineStr"/>
       <c r="AG76" s="14" t="inlineStr"/>
@@ -5103,23 +5103,23 @@
       <c r="U78" s="14" t="inlineStr"/>
       <c r="V78" s="14" t="inlineStr"/>
       <c r="W78" s="14" t="n">
-        <v>5.337354E7</v>
+        <v>7.864812E7</v>
       </c>
       <c r="X78" s="14" t="n">
-        <v>9197340.0</v>
+        <v>8617980.0</v>
       </c>
       <c r="Y78" s="14" t="inlineStr"/>
       <c r="Z78" s="14" t="n">
-        <v>6.257088E7</v>
+        <v>8.72661E7</v>
       </c>
       <c r="AA78" s="14" t="inlineStr"/>
       <c r="AB78" s="14" t="inlineStr"/>
       <c r="AC78" s="15" t="n">
-        <v>0.4965942857142857</v>
+        <v>0.6925880952380953</v>
       </c>
       <c r="AD78" s="15" t="inlineStr"/>
       <c r="AE78" s="14" t="n">
-        <v>6.342912E7</v>
+        <v>3.87339E7</v>
       </c>
       <c r="AF78" s="14" t="inlineStr"/>
       <c r="AG78" s="14" t="inlineStr"/>
@@ -5160,23 +5160,23 @@
       <c r="U79" s="14" t="inlineStr"/>
       <c r="V79" s="14" t="inlineStr"/>
       <c r="W79" s="14" t="n">
-        <v>4.446588E7</v>
+        <v>6.112248E7</v>
       </c>
       <c r="X79" s="14" t="n">
         <v>8617980.0</v>
       </c>
       <c r="Y79" s="14" t="inlineStr"/>
       <c r="Z79" s="14" t="n">
-        <v>5.308386E7</v>
+        <v>6.974046E7</v>
       </c>
       <c r="AA79" s="14" t="inlineStr"/>
       <c r="AB79" s="14" t="inlineStr"/>
       <c r="AC79" s="15" t="n">
-        <v>0.4915172222222222</v>
+        <v>0.645745</v>
       </c>
       <c r="AD79" s="15" t="inlineStr"/>
       <c r="AE79" s="14" t="n">
-        <v>5.491614E7</v>
+        <v>3.825954E7</v>
       </c>
       <c r="AF79" s="14" t="inlineStr"/>
       <c r="AG79" s="14" t="inlineStr"/>
@@ -5217,23 +5217,23 @@
       <c r="U80" s="14" t="inlineStr"/>
       <c r="V80" s="14" t="inlineStr"/>
       <c r="W80" s="14" t="n">
-        <v>0.0</v>
+        <v>8617980.0</v>
       </c>
       <c r="X80" s="14" t="n">
-        <v>579360.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y80" s="14" t="inlineStr"/>
       <c r="Z80" s="14" t="n">
-        <v>579360.0</v>
+        <v>8617980.0</v>
       </c>
       <c r="AA80" s="14" t="inlineStr"/>
       <c r="AB80" s="14" t="inlineStr"/>
       <c r="AC80" s="15" t="n">
-        <v>0.06437333333333334</v>
+        <v>0.9575533333333334</v>
       </c>
       <c r="AD80" s="15" t="inlineStr"/>
       <c r="AE80" s="14" t="n">
-        <v>8420640.0</v>
+        <v>382020.0</v>
       </c>
       <c r="AF80" s="14" t="inlineStr"/>
       <c r="AG80" s="14" t="inlineStr"/>
@@ -5337,23 +5337,23 @@
       <c r="U82" s="14" t="inlineStr"/>
       <c r="V82" s="14" t="inlineStr"/>
       <c r="W82" s="14" t="n">
-        <v>8.0662E7</v>
+        <v>1.28383E8</v>
       </c>
       <c r="X82" s="14" t="n">
-        <v>2.2856E7</v>
+        <v>2.5625E7</v>
       </c>
       <c r="Y82" s="14" t="inlineStr"/>
       <c r="Z82" s="14" t="n">
-        <v>1.03518E8</v>
+        <v>1.54008E8</v>
       </c>
       <c r="AA82" s="14" t="inlineStr"/>
       <c r="AB82" s="14" t="inlineStr"/>
       <c r="AC82" s="15" t="n">
-        <v>0.330289455547898</v>
+        <v>0.4913852515506547</v>
       </c>
       <c r="AD82" s="15" t="inlineStr"/>
       <c r="AE82" s="14" t="n">
-        <v>2.09898E8</v>
+        <v>1.59408E8</v>
       </c>
       <c r="AF82" s="14" t="inlineStr"/>
       <c r="AG82" s="14" t="inlineStr"/>
@@ -5394,23 +5394,23 @@
       <c r="U83" s="14" t="inlineStr"/>
       <c r="V83" s="14" t="inlineStr"/>
       <c r="W83" s="14" t="n">
-        <v>5950000.0</v>
+        <v>8260000.0</v>
       </c>
       <c r="X83" s="14" t="n">
-        <v>1120000.0</v>
+        <v>1190000.0</v>
       </c>
       <c r="Y83" s="14" t="inlineStr"/>
       <c r="Z83" s="14" t="n">
-        <v>7070000.0</v>
+        <v>9450000.0</v>
       </c>
       <c r="AA83" s="14" t="inlineStr"/>
       <c r="AB83" s="14" t="inlineStr"/>
       <c r="AC83" s="15" t="n">
-        <v>0.2337962962962963</v>
+        <v>0.3125</v>
       </c>
       <c r="AD83" s="15" t="inlineStr"/>
       <c r="AE83" s="14" t="n">
-        <v>2.317E7</v>
+        <v>2.079E7</v>
       </c>
       <c r="AF83" s="14" t="inlineStr"/>
       <c r="AG83" s="14" t="inlineStr"/>
@@ -5451,23 +5451,23 @@
       <c r="U84" s="14" t="inlineStr"/>
       <c r="V84" s="14" t="inlineStr"/>
       <c r="W84" s="14" t="n">
-        <v>6.5897E7</v>
+        <v>1.05117E8</v>
       </c>
       <c r="X84" s="14" t="n">
-        <v>1.8907E7</v>
+        <v>2.0868E7</v>
       </c>
       <c r="Y84" s="14" t="inlineStr"/>
       <c r="Z84" s="14" t="n">
-        <v>8.4804E7</v>
+        <v>1.25985E8</v>
       </c>
       <c r="AA84" s="14" t="inlineStr"/>
       <c r="AB84" s="14" t="inlineStr"/>
       <c r="AC84" s="15" t="n">
-        <v>0.34229390681003585</v>
+        <v>0.5085125448028673</v>
       </c>
       <c r="AD84" s="15" t="inlineStr"/>
       <c r="AE84" s="14" t="n">
-        <v>1.62948E8</v>
+        <v>1.21767E8</v>
       </c>
       <c r="AF84" s="14" t="inlineStr"/>
       <c r="AG84" s="14" t="inlineStr"/>
@@ -5508,23 +5508,23 @@
       <c r="U85" s="14" t="inlineStr"/>
       <c r="V85" s="14" t="inlineStr"/>
       <c r="W85" s="14" t="n">
-        <v>8815000.0</v>
+        <v>1.5006E7</v>
       </c>
       <c r="X85" s="14" t="n">
-        <v>2829000.0</v>
+        <v>3567000.0</v>
       </c>
       <c r="Y85" s="14" t="inlineStr"/>
       <c r="Z85" s="14" t="n">
-        <v>1.1644E7</v>
+        <v>1.8573E7</v>
       </c>
       <c r="AA85" s="14" t="inlineStr"/>
       <c r="AB85" s="14" t="inlineStr"/>
       <c r="AC85" s="15" t="n">
-        <v>0.3287037037037037</v>
+        <v>0.5243055555555556</v>
       </c>
       <c r="AD85" s="15" t="inlineStr"/>
       <c r="AE85" s="14" t="n">
-        <v>2.378E7</v>
+        <v>1.6851E7</v>
       </c>
       <c r="AF85" s="14" t="inlineStr"/>
       <c r="AG85" s="14" t="inlineStr"/>
@@ -5571,23 +5571,23 @@
       <c r="U86" s="14" t="inlineStr"/>
       <c r="V86" s="14" t="inlineStr"/>
       <c r="W86" s="14" t="n">
-        <v>2.4335E7</v>
+        <v>3.637E7</v>
       </c>
       <c r="X86" s="14" t="n">
         <v>4070000.0</v>
       </c>
       <c r="Y86" s="14" t="inlineStr"/>
       <c r="Z86" s="14" t="n">
-        <v>2.8405E7</v>
+        <v>4.044E7</v>
       </c>
       <c r="AA86" s="14" t="inlineStr"/>
       <c r="AB86" s="14" t="inlineStr"/>
       <c r="AC86" s="15" t="n">
-        <v>0.45087301587301587</v>
+        <v>0.6419047619047619</v>
       </c>
       <c r="AD86" s="15" t="inlineStr"/>
       <c r="AE86" s="14" t="n">
-        <v>3.4595E7</v>
+        <v>2.256E7</v>
       </c>
       <c r="AF86" s="14" t="inlineStr"/>
       <c r="AG86" s="14" t="inlineStr"/>
@@ -5628,23 +5628,23 @@
       <c r="U87" s="14" t="inlineStr"/>
       <c r="V87" s="14" t="inlineStr"/>
       <c r="W87" s="14" t="n">
-        <v>2.028E7</v>
+        <v>2.844E7</v>
       </c>
       <c r="X87" s="14" t="n">
         <v>4070000.0</v>
       </c>
       <c r="Y87" s="14" t="inlineStr"/>
       <c r="Z87" s="14" t="n">
-        <v>2.435E7</v>
+        <v>3.251E7</v>
       </c>
       <c r="AA87" s="14" t="inlineStr"/>
       <c r="AB87" s="14" t="inlineStr"/>
       <c r="AC87" s="15" t="n">
-        <v>0.45092592592592595</v>
+        <v>0.602037037037037</v>
       </c>
       <c r="AD87" s="15" t="inlineStr"/>
       <c r="AE87" s="14" t="n">
-        <v>2.965E7</v>
+        <v>2.149E7</v>
       </c>
       <c r="AF87" s="14" t="inlineStr"/>
       <c r="AG87" s="14" t="inlineStr"/>
@@ -5685,23 +5685,23 @@
       <c r="U88" s="14" t="inlineStr"/>
       <c r="V88" s="14" t="inlineStr"/>
       <c r="W88" s="14" t="n">
-        <v>0.0</v>
+        <v>3875000.0</v>
       </c>
       <c r="X88" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y88" s="14" t="inlineStr"/>
       <c r="Z88" s="14" t="n">
-        <v>0.0</v>
+        <v>3875000.0</v>
       </c>
       <c r="AA88" s="14" t="inlineStr"/>
       <c r="AB88" s="14" t="inlineStr"/>
       <c r="AC88" s="15" t="n">
-        <v>0.0</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="AD88" s="15" t="inlineStr"/>
       <c r="AE88" s="14" t="n">
-        <v>4500000.0</v>
+        <v>625000.0</v>
       </c>
       <c r="AF88" s="14" t="inlineStr"/>
       <c r="AG88" s="14" t="inlineStr"/>
@@ -5848,23 +5848,23 @@
       <c r="U91" s="14" t="inlineStr"/>
       <c r="V91" s="14" t="inlineStr"/>
       <c r="W91" s="14" t="n">
-        <v>1.16566097E9</v>
+        <v>1.753569219E9</v>
       </c>
       <c r="X91" s="14" t="n">
-        <v>1.98543778E8</v>
+        <v>1.82493718E8</v>
       </c>
       <c r="Y91" s="14" t="inlineStr"/>
       <c r="Z91" s="14" t="n">
-        <v>1.364204748E9</v>
+        <v>1.936062937E9</v>
       </c>
       <c r="AA91" s="14" t="inlineStr"/>
       <c r="AB91" s="14" t="inlineStr"/>
       <c r="AC91" s="15" t="n">
-        <v>0.5101738025430067</v>
+        <v>0.7240325119670905</v>
       </c>
       <c r="AD91" s="15" t="inlineStr"/>
       <c r="AE91" s="14" t="n">
-        <v>1.309795252E9</v>
+        <v>7.37937063E8</v>
       </c>
       <c r="AF91" s="14" t="inlineStr"/>
       <c r="AG91" s="14" t="inlineStr"/>
@@ -5905,23 +5905,23 @@
       <c r="U92" s="14" t="inlineStr"/>
       <c r="V92" s="14" t="inlineStr"/>
       <c r="W92" s="14" t="n">
-        <v>9.43532066E8</v>
+        <v>1.310954427E9</v>
       </c>
       <c r="X92" s="14" t="n">
-        <v>1.83691131E8</v>
+        <v>1.82493718E8</v>
       </c>
       <c r="Y92" s="14" t="inlineStr"/>
       <c r="Z92" s="14" t="n">
-        <v>1.127223197E9</v>
+        <v>1.493448145E9</v>
       </c>
       <c r="AA92" s="14" t="inlineStr"/>
       <c r="AB92" s="14" t="inlineStr"/>
       <c r="AC92" s="15" t="n">
-        <v>0.5055719398098314</v>
+        <v>0.6698278368317186</v>
       </c>
       <c r="AD92" s="15" t="inlineStr"/>
       <c r="AE92" s="14" t="n">
-        <v>1.102376803E9</v>
+        <v>7.36151855E8</v>
       </c>
       <c r="AF92" s="14" t="inlineStr"/>
       <c r="AG92" s="14" t="inlineStr"/>
@@ -5962,23 +5962,23 @@
       <c r="U93" s="14" t="inlineStr"/>
       <c r="V93" s="14" t="inlineStr"/>
       <c r="W93" s="14" t="n">
-        <v>0.0</v>
+        <v>2.20485888E8</v>
       </c>
       <c r="X93" s="14" t="n">
-        <v>1.4852647E7</v>
+        <v>0.0</v>
       </c>
       <c r="Y93" s="14" t="inlineStr"/>
       <c r="Z93" s="14" t="n">
-        <v>1.4852647E7</v>
+        <v>2.20485888E8</v>
       </c>
       <c r="AA93" s="14" t="inlineStr"/>
       <c r="AB93" s="14" t="inlineStr"/>
       <c r="AC93" s="15" t="n">
-        <v>0.06682254465289962</v>
+        <v>0.9919732217573222</v>
       </c>
       <c r="AD93" s="15" t="inlineStr"/>
       <c r="AE93" s="14" t="n">
-        <v>2.07417353E8</v>
+        <v>1784112.0</v>
       </c>
       <c r="AF93" s="14" t="inlineStr"/>
       <c r="AG93" s="14" t="inlineStr"/>
@@ -7946,23 +7946,23 @@
       <c r="U127" s="14" t="inlineStr"/>
       <c r="V127" s="14" t="inlineStr"/>
       <c r="W127" s="14" t="n">
-        <v>1.958862085E10</v>
+        <v>3.169917513E10</v>
       </c>
       <c r="X127" s="14" t="n">
-        <v>8.049680102E9</v>
+        <v>3.845824057E9</v>
       </c>
       <c r="Y127" s="14" t="inlineStr"/>
       <c r="Z127" s="14" t="n">
-        <v>2.7638300952E10</v>
+        <v>3.5544999187E10</v>
       </c>
       <c r="AA127" s="14" t="inlineStr"/>
       <c r="AB127" s="14" t="inlineStr"/>
       <c r="AC127" s="15" t="n">
-        <v>0.5225720762138437</v>
+        <v>0.672068230837679</v>
       </c>
       <c r="AD127" s="15" t="inlineStr"/>
       <c r="AE127" s="14" t="n">
-        <v>2.5250673048E10</v>
+        <v>1.7343974813E10</v>
       </c>
       <c r="AF127" s="14" t="inlineStr"/>
       <c r="AG127" s="14" t="inlineStr"/>
@@ -8009,23 +8009,23 @@
       <c r="U128" s="14" t="inlineStr"/>
       <c r="V128" s="14" t="inlineStr"/>
       <c r="W128" s="14" t="n">
-        <v>7.4653246E9</v>
+        <v>1.11880769E10</v>
       </c>
       <c r="X128" s="14" t="n">
-        <v>2.4772443E9</v>
+        <v>1.1951534E9</v>
       </c>
       <c r="Y128" s="14" t="inlineStr"/>
       <c r="Z128" s="14" t="n">
-        <v>9.9425689E9</v>
+        <v>1.23832303E10</v>
       </c>
       <c r="AA128" s="14" t="inlineStr"/>
       <c r="AB128" s="14" t="inlineStr"/>
       <c r="AC128" s="15" t="n">
-        <v>0.7560477814324165</v>
+        <v>0.9416393177101017</v>
       </c>
       <c r="AD128" s="15" t="inlineStr"/>
       <c r="AE128" s="14" t="n">
-        <v>3.2081461E9</v>
+        <v>7.674847E8</v>
       </c>
       <c r="AF128" s="14" t="inlineStr"/>
       <c r="AG128" s="14" t="inlineStr"/>
@@ -8066,23 +8066,23 @@
       <c r="U129" s="14" t="inlineStr"/>
       <c r="V129" s="14" t="inlineStr"/>
       <c r="W129" s="14" t="n">
-        <v>6.2119058E9</v>
+        <v>8.6973235E9</v>
       </c>
       <c r="X129" s="14" t="n">
-        <v>1.2433002E9</v>
+        <v>1.1951534E9</v>
       </c>
       <c r="Y129" s="14" t="inlineStr"/>
       <c r="Z129" s="14" t="n">
-        <v>7.455206E9</v>
+        <v>9.8924769E9</v>
       </c>
       <c r="AA129" s="14" t="inlineStr"/>
       <c r="AB129" s="14" t="inlineStr"/>
       <c r="AC129" s="15" t="n">
-        <v>0.7035007798215696</v>
+        <v>0.933490665920816</v>
       </c>
       <c r="AD129" s="15" t="inlineStr"/>
       <c r="AE129" s="14" t="n">
-        <v>3.14209E9</v>
+        <v>7.048191E8</v>
       </c>
       <c r="AF129" s="14" t="inlineStr"/>
       <c r="AG129" s="14" t="inlineStr"/>
@@ -8123,23 +8123,23 @@
       <c r="U130" s="14" t="inlineStr"/>
       <c r="V130" s="14" t="inlineStr"/>
       <c r="W130" s="14" t="n">
-        <v>0.0</v>
+        <v>1.2373346E9</v>
       </c>
       <c r="X130" s="14" t="n">
-        <v>1.2339441E9</v>
+        <v>0.0</v>
       </c>
       <c r="Y130" s="14" t="inlineStr"/>
       <c r="Z130" s="14" t="n">
-        <v>1.2339441E9</v>
+        <v>1.2373346E9</v>
       </c>
       <c r="AA130" s="14" t="inlineStr"/>
       <c r="AB130" s="14" t="inlineStr"/>
       <c r="AC130" s="15" t="n">
-        <v>0.9491877692307692</v>
+        <v>0.9517958461538462</v>
       </c>
       <c r="AD130" s="15" t="inlineStr"/>
       <c r="AE130" s="14" t="n">
-        <v>6.60559E7</v>
+        <v>6.26654E7</v>
       </c>
       <c r="AF130" s="14" t="inlineStr"/>
       <c r="AG130" s="14" t="inlineStr"/>
@@ -8243,23 +8243,23 @@
       <c r="U132" s="14" t="inlineStr"/>
       <c r="V132" s="14" t="inlineStr"/>
       <c r="W132" s="14" t="n">
-        <v>99072.0</v>
+        <v>152199.0</v>
       </c>
       <c r="X132" s="14" t="n">
-        <v>36206.0</v>
+        <v>15915.0</v>
       </c>
       <c r="Y132" s="14" t="inlineStr"/>
       <c r="Z132" s="14" t="n">
-        <v>135278.0</v>
+        <v>168114.0</v>
       </c>
       <c r="AA132" s="14" t="inlineStr"/>
       <c r="AB132" s="14" t="inlineStr"/>
       <c r="AC132" s="15" t="n">
-        <v>0.5683949579831933</v>
+        <v>0.7063613445378151</v>
       </c>
       <c r="AD132" s="15" t="inlineStr"/>
       <c r="AE132" s="14" t="n">
-        <v>102722.0</v>
+        <v>69886.0</v>
       </c>
       <c r="AF132" s="14" t="inlineStr"/>
       <c r="AG132" s="14" t="inlineStr"/>
@@ -8300,23 +8300,23 @@
       <c r="U133" s="14" t="inlineStr"/>
       <c r="V133" s="14" t="inlineStr"/>
       <c r="W133" s="14" t="n">
-        <v>82364.0</v>
+        <v>118425.0</v>
       </c>
       <c r="X133" s="14" t="n">
-        <v>19220.0</v>
+        <v>15915.0</v>
       </c>
       <c r="Y133" s="14" t="inlineStr"/>
       <c r="Z133" s="14" t="n">
-        <v>101584.0</v>
+        <v>134340.0</v>
       </c>
       <c r="AA133" s="14" t="inlineStr"/>
       <c r="AB133" s="14" t="inlineStr"/>
       <c r="AC133" s="15" t="n">
-        <v>0.4979607843137255</v>
+        <v>0.6585294117647059</v>
       </c>
       <c r="AD133" s="15" t="inlineStr"/>
       <c r="AE133" s="14" t="n">
-        <v>102416.0</v>
+        <v>69660.0</v>
       </c>
       <c r="AF133" s="14" t="inlineStr"/>
       <c r="AG133" s="14" t="inlineStr"/>
@@ -8357,23 +8357,23 @@
       <c r="U134" s="14" t="inlineStr"/>
       <c r="V134" s="14" t="inlineStr"/>
       <c r="W134" s="14" t="n">
-        <v>0.0</v>
+        <v>17066.0</v>
       </c>
       <c r="X134" s="14" t="n">
-        <v>16986.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y134" s="14" t="inlineStr"/>
       <c r="Z134" s="14" t="n">
-        <v>16986.0</v>
+        <v>17066.0</v>
       </c>
       <c r="AA134" s="14" t="inlineStr"/>
       <c r="AB134" s="14" t="inlineStr"/>
       <c r="AC134" s="15" t="n">
-        <v>0.9991764705882353</v>
+        <v>1.0038823529411764</v>
       </c>
       <c r="AD134" s="15" t="inlineStr"/>
       <c r="AE134" s="14" t="n">
-        <v>14.0</v>
+        <v>-66.0</v>
       </c>
       <c r="AF134" s="14" t="inlineStr"/>
       <c r="AG134" s="14" t="inlineStr"/>
@@ -8477,23 +8477,23 @@
       <c r="U136" s="14" t="inlineStr"/>
       <c r="V136" s="14" t="inlineStr"/>
       <c r="W136" s="14" t="n">
-        <v>5.8453762E8</v>
+        <v>8.786895E8</v>
       </c>
       <c r="X136" s="14" t="n">
-        <v>1.9550154E8</v>
+        <v>9.460116E7</v>
       </c>
       <c r="Y136" s="14" t="inlineStr"/>
       <c r="Z136" s="14" t="n">
-        <v>7.8003916E8</v>
+        <v>9.7329066E8</v>
       </c>
       <c r="AA136" s="14" t="inlineStr"/>
       <c r="AB136" s="14" t="inlineStr"/>
       <c r="AC136" s="15" t="n">
-        <v>0.5687281980241333</v>
+        <v>0.7096282745798549</v>
       </c>
       <c r="AD136" s="15" t="inlineStr"/>
       <c r="AE136" s="14" t="n">
-        <v>5.9151084E8</v>
+        <v>3.9825934E8</v>
       </c>
       <c r="AF136" s="14" t="inlineStr"/>
       <c r="AG136" s="14" t="inlineStr"/>
@@ -8534,23 +8534,23 @@
       <c r="U137" s="14" t="inlineStr"/>
       <c r="V137" s="14" t="inlineStr"/>
       <c r="W137" s="14" t="n">
-        <v>4.869882E8</v>
+        <v>6.8370444E8</v>
       </c>
       <c r="X137" s="14" t="n">
-        <v>9.80659E7</v>
+        <v>9.460116E7</v>
       </c>
       <c r="Y137" s="14" t="inlineStr"/>
       <c r="Z137" s="14" t="n">
-        <v>5.850541E8</v>
+        <v>7.783056E8</v>
       </c>
       <c r="AA137" s="14" t="inlineStr"/>
       <c r="AB137" s="14" t="inlineStr"/>
       <c r="AC137" s="15" t="n">
-        <v>0.4974949829931973</v>
+        <v>0.6618244897959183</v>
       </c>
       <c r="AD137" s="15" t="inlineStr"/>
       <c r="AE137" s="14" t="n">
-        <v>5.909459E8</v>
+        <v>3.976944E8</v>
       </c>
       <c r="AF137" s="14" t="inlineStr"/>
       <c r="AG137" s="14" t="inlineStr"/>
@@ -8591,10 +8591,10 @@
       <c r="U138" s="14" t="inlineStr"/>
       <c r="V138" s="14" t="inlineStr"/>
       <c r="W138" s="14" t="n">
-        <v>0.0</v>
+        <v>9.743564E7</v>
       </c>
       <c r="X138" s="14" t="n">
-        <v>9.743564E7</v>
+        <v>0.0</v>
       </c>
       <c r="Y138" s="14" t="inlineStr"/>
       <c r="Z138" s="14" t="n">
@@ -8711,23 +8711,23 @@
       <c r="U140" s="14" t="inlineStr"/>
       <c r="V140" s="14" t="inlineStr"/>
       <c r="W140" s="14" t="n">
-        <v>1.81240108E8</v>
+        <v>2.7256082E8</v>
       </c>
       <c r="X140" s="14" t="n">
-        <v>6.059871E7</v>
+        <v>2.9746002E7</v>
       </c>
       <c r="Y140" s="14" t="inlineStr"/>
       <c r="Z140" s="14" t="n">
-        <v>2.41838818E8</v>
+        <v>3.02306822E8</v>
       </c>
       <c r="AA140" s="14" t="inlineStr"/>
       <c r="AB140" s="14" t="inlineStr"/>
       <c r="AC140" s="15" t="n">
-        <v>0.5581879069466852</v>
+        <v>0.6977540397500791</v>
       </c>
       <c r="AD140" s="15" t="inlineStr"/>
       <c r="AE140" s="14" t="n">
-        <v>1.91418182E8</v>
+        <v>1.30950178E8</v>
       </c>
       <c r="AF140" s="14" t="inlineStr"/>
       <c r="AG140" s="14" t="inlineStr"/>
@@ -8768,23 +8768,23 @@
       <c r="U141" s="14" t="inlineStr"/>
       <c r="V141" s="14" t="inlineStr"/>
       <c r="W141" s="14" t="n">
-        <v>1.50983416E8</v>
+        <v>2.12169964E8</v>
       </c>
       <c r="X141" s="14" t="n">
-        <v>3.0532356E7</v>
+        <v>2.9746002E7</v>
       </c>
       <c r="Y141" s="14" t="inlineStr"/>
       <c r="Z141" s="14" t="n">
-        <v>1.81515772E8</v>
+        <v>2.41915966E8</v>
       </c>
       <c r="AA141" s="14" t="inlineStr"/>
       <c r="AB141" s="14" t="inlineStr"/>
       <c r="AC141" s="15" t="n">
-        <v>0.487945623655914</v>
+        <v>0.6503117365591398</v>
       </c>
       <c r="AD141" s="15" t="inlineStr"/>
       <c r="AE141" s="14" t="n">
-        <v>1.90484228E8</v>
+        <v>1.30084034E8</v>
       </c>
       <c r="AF141" s="14" t="inlineStr"/>
       <c r="AG141" s="14" t="inlineStr"/>
@@ -8825,23 +8825,23 @@
       <c r="U142" s="14" t="inlineStr"/>
       <c r="V142" s="14" t="inlineStr"/>
       <c r="W142" s="14" t="n">
-        <v>0.0</v>
+        <v>3.0134164E7</v>
       </c>
       <c r="X142" s="14" t="n">
-        <v>3.0066354E7</v>
+        <v>0.0</v>
       </c>
       <c r="Y142" s="14" t="inlineStr"/>
       <c r="Z142" s="14" t="n">
-        <v>3.0066354E7</v>
+        <v>3.0134164E7</v>
       </c>
       <c r="AA142" s="14" t="inlineStr"/>
       <c r="AB142" s="14" t="inlineStr"/>
       <c r="AC142" s="15" t="n">
-        <v>0.9698823870967742</v>
+        <v>0.9720698064516129</v>
       </c>
       <c r="AD142" s="15" t="inlineStr"/>
       <c r="AE142" s="14" t="n">
-        <v>933646.0</v>
+        <v>865836.0</v>
       </c>
       <c r="AF142" s="14" t="inlineStr"/>
       <c r="AG142" s="14" t="inlineStr"/>
@@ -8945,23 +8945,23 @@
       <c r="U144" s="14" t="inlineStr"/>
       <c r="V144" s="14" t="inlineStr"/>
       <c r="W144" s="14" t="n">
-        <v>1.61532E9</v>
+        <v>2.41703E9</v>
       </c>
       <c r="X144" s="14" t="n">
-        <v>5.3154E8</v>
+        <v>2.5728E8</v>
       </c>
       <c r="Y144" s="14" t="inlineStr"/>
       <c r="Z144" s="14" t="n">
-        <v>2.14686E9</v>
+        <v>2.67431E9</v>
       </c>
       <c r="AA144" s="14" t="inlineStr"/>
       <c r="AB144" s="14" t="inlineStr"/>
       <c r="AC144" s="15" t="n">
-        <v>0.557625974025974</v>
+        <v>0.694625974025974</v>
       </c>
       <c r="AD144" s="15" t="inlineStr"/>
       <c r="AE144" s="14" t="n">
-        <v>1.70314E9</v>
+        <v>1.17569E9</v>
       </c>
       <c r="AF144" s="14" t="inlineStr"/>
       <c r="AG144" s="14" t="inlineStr"/>
@@ -9045,23 +9045,23 @@
       <c r="U146" s="14" t="inlineStr"/>
       <c r="V146" s="14" t="inlineStr"/>
       <c r="W146" s="14" t="n">
-        <v>1.34313E9</v>
+        <v>1.87877E9</v>
       </c>
       <c r="X146" s="14" t="n">
-        <v>2.6601E8</v>
+        <v>2.5728E8</v>
       </c>
       <c r="Y146" s="14" t="inlineStr"/>
       <c r="Z146" s="14" t="n">
-        <v>1.60914E9</v>
+        <v>2.13605E9</v>
       </c>
       <c r="AA146" s="14" t="inlineStr"/>
       <c r="AB146" s="14" t="inlineStr"/>
       <c r="AC146" s="15" t="n">
-        <v>0.48761818181818184</v>
+        <v>0.6472878787878787</v>
       </c>
       <c r="AD146" s="15" t="inlineStr"/>
       <c r="AE146" s="14" t="n">
-        <v>1.69086E9</v>
+        <v>1.16395E9</v>
       </c>
       <c r="AF146" s="14" t="inlineStr"/>
       <c r="AG146" s="14" t="inlineStr"/>
@@ -9102,23 +9102,23 @@
       <c r="U147" s="14" t="inlineStr"/>
       <c r="V147" s="14" t="inlineStr"/>
       <c r="W147" s="14" t="n">
-        <v>0.0</v>
+        <v>2.6607E8</v>
       </c>
       <c r="X147" s="14" t="n">
-        <v>2.6553E8</v>
+        <v>0.0</v>
       </c>
       <c r="Y147" s="14" t="inlineStr"/>
       <c r="Z147" s="14" t="n">
-        <v>2.6553E8</v>
+        <v>2.6607E8</v>
       </c>
       <c r="AA147" s="14" t="inlineStr"/>
       <c r="AB147" s="14" t="inlineStr"/>
       <c r="AC147" s="15" t="n">
-        <v>0.9655636363636364</v>
+        <v>0.9675272727272727</v>
       </c>
       <c r="AD147" s="15" t="inlineStr"/>
       <c r="AE147" s="14" t="n">
-        <v>9470000.0</v>
+        <v>8930000.0</v>
       </c>
       <c r="AF147" s="14" t="inlineStr"/>
       <c r="AG147" s="14" t="inlineStr"/>
@@ -9222,23 +9222,23 @@
       <c r="U149" s="14" t="inlineStr"/>
       <c r="V149" s="14" t="inlineStr"/>
       <c r="W149" s="14" t="n">
-        <v>1.1329653E8</v>
+        <v>2.14257962E8</v>
       </c>
       <c r="X149" s="14" t="n">
-        <v>9.6712188E7</v>
+        <v>3377534.0</v>
       </c>
       <c r="Y149" s="14" t="inlineStr"/>
       <c r="Z149" s="14" t="n">
-        <v>2.10008718E8</v>
+        <v>2.17635496E8</v>
       </c>
       <c r="AA149" s="14" t="inlineStr"/>
       <c r="AB149" s="14" t="inlineStr"/>
       <c r="AC149" s="15" t="n">
-        <v>0.8546319863264559</v>
+        <v>0.885669214178163</v>
       </c>
       <c r="AD149" s="15" t="inlineStr"/>
       <c r="AE149" s="14" t="n">
-        <v>3.5721282E7</v>
+        <v>2.8094504E7</v>
       </c>
       <c r="AF149" s="14" t="inlineStr"/>
       <c r="AG149" s="14" t="inlineStr"/>
@@ -9279,23 +9279,23 @@
       <c r="U150" s="14" t="inlineStr"/>
       <c r="V150" s="14" t="inlineStr"/>
       <c r="W150" s="14" t="n">
-        <v>2.0568567E7</v>
+        <v>2.8801831E7</v>
       </c>
       <c r="X150" s="14" t="n">
-        <v>4075113.0</v>
+        <v>3377534.0</v>
       </c>
       <c r="Y150" s="14" t="inlineStr"/>
       <c r="Z150" s="14" t="n">
-        <v>2.464368E7</v>
+        <v>3.2179365E7</v>
       </c>
       <c r="AA150" s="14" t="inlineStr"/>
       <c r="AB150" s="14" t="inlineStr"/>
       <c r="AC150" s="15" t="n">
-        <v>0.410728</v>
+        <v>0.53632275</v>
       </c>
       <c r="AD150" s="15" t="inlineStr"/>
       <c r="AE150" s="14" t="n">
-        <v>3.535632E7</v>
+        <v>2.7820635E7</v>
       </c>
       <c r="AF150" s="14" t="inlineStr"/>
       <c r="AG150" s="14" t="inlineStr"/>
@@ -9336,23 +9336,23 @@
       <c r="U151" s="14" t="inlineStr"/>
       <c r="V151" s="14" t="inlineStr"/>
       <c r="W151" s="14" t="n">
-        <v>0.0</v>
+        <v>9.2728168E7</v>
       </c>
       <c r="X151" s="14" t="n">
-        <v>9.2637075E7</v>
+        <v>0.0</v>
       </c>
       <c r="Y151" s="14" t="inlineStr"/>
       <c r="Z151" s="14" t="n">
-        <v>9.2637075E7</v>
+        <v>9.2728168E7</v>
       </c>
       <c r="AA151" s="14" t="inlineStr"/>
       <c r="AB151" s="14" t="inlineStr"/>
       <c r="AC151" s="15" t="n">
-        <v>0.9960975806451613</v>
+        <v>0.9970770752688172</v>
       </c>
       <c r="AD151" s="15" t="inlineStr"/>
       <c r="AE151" s="14" t="n">
-        <v>362925.0</v>
+        <v>271832.0</v>
       </c>
       <c r="AF151" s="14" t="inlineStr"/>
       <c r="AG151" s="14" t="inlineStr"/>
@@ -9456,23 +9456,23 @@
       <c r="U153" s="14" t="inlineStr"/>
       <c r="V153" s="14" t="inlineStr"/>
       <c r="W153" s="14" t="n">
-        <v>4.0967994E8</v>
+        <v>6.133974E8</v>
       </c>
       <c r="X153" s="14" t="n">
-        <v>1.3528056E8</v>
+        <v>6.655398E7</v>
       </c>
       <c r="Y153" s="14" t="inlineStr"/>
       <c r="Z153" s="14" t="n">
-        <v>5.449605E8</v>
+        <v>6.7995138E8</v>
       </c>
       <c r="AA153" s="14" t="inlineStr"/>
       <c r="AB153" s="14" t="inlineStr"/>
       <c r="AC153" s="15" t="n">
-        <v>0.5560821428571429</v>
+        <v>0.6938279387755102</v>
       </c>
       <c r="AD153" s="15" t="inlineStr"/>
       <c r="AE153" s="14" t="n">
-        <v>4.350395E8</v>
+        <v>3.0004862E8</v>
       </c>
       <c r="AF153" s="14" t="inlineStr"/>
       <c r="AG153" s="14" t="inlineStr"/>
@@ -9513,23 +9513,23 @@
       <c r="U154" s="14" t="inlineStr"/>
       <c r="V154" s="14" t="inlineStr"/>
       <c r="W154" s="14" t="n">
-        <v>3.4095336E8</v>
+        <v>4.7666844E8</v>
       </c>
       <c r="X154" s="14" t="n">
-        <v>6.749544E7</v>
+        <v>6.655398E7</v>
       </c>
       <c r="Y154" s="14" t="inlineStr"/>
       <c r="Z154" s="14" t="n">
-        <v>4.084488E8</v>
+        <v>5.4322242E8</v>
       </c>
       <c r="AA154" s="14" t="inlineStr"/>
       <c r="AB154" s="14" t="inlineStr"/>
       <c r="AC154" s="15" t="n">
-        <v>0.4862485714285714</v>
+        <v>0.6466933571428571</v>
       </c>
       <c r="AD154" s="15" t="inlineStr"/>
       <c r="AE154" s="14" t="n">
-        <v>4.315512E8</v>
+        <v>2.9677758E8</v>
       </c>
       <c r="AF154" s="14" t="inlineStr"/>
       <c r="AG154" s="14" t="inlineStr"/>
@@ -9570,23 +9570,23 @@
       <c r="U155" s="14" t="inlineStr"/>
       <c r="V155" s="14" t="inlineStr"/>
       <c r="W155" s="14" t="n">
-        <v>0.0</v>
+        <v>6.800238E7</v>
       </c>
       <c r="X155" s="14" t="n">
-        <v>6.778512E7</v>
+        <v>0.0</v>
       </c>
       <c r="Y155" s="14" t="inlineStr"/>
       <c r="Z155" s="14" t="n">
-        <v>6.778512E7</v>
+        <v>6.800238E7</v>
       </c>
       <c r="AA155" s="14" t="inlineStr"/>
       <c r="AB155" s="14" t="inlineStr"/>
       <c r="AC155" s="15" t="n">
-        <v>0.9683588571428572</v>
+        <v>0.9714625714285714</v>
       </c>
       <c r="AD155" s="15" t="inlineStr"/>
       <c r="AE155" s="14" t="n">
-        <v>2214880.0</v>
+        <v>1997620.0</v>
       </c>
       <c r="AF155" s="14" t="inlineStr"/>
       <c r="AG155" s="14" t="inlineStr"/>
@@ -9690,23 +9690,23 @@
       <c r="U157" s="14" t="inlineStr"/>
       <c r="V157" s="14" t="inlineStr"/>
       <c r="W157" s="14" t="n">
-        <v>6.72563E8</v>
+        <v>1.046634E9</v>
       </c>
       <c r="X157" s="14" t="n">
-        <v>1.8143E8</v>
+        <v>2.02613E8</v>
       </c>
       <c r="Y157" s="14" t="inlineStr"/>
       <c r="Z157" s="14" t="n">
-        <v>8.53993E8</v>
+        <v>1.249247E9</v>
       </c>
       <c r="AA157" s="14" t="inlineStr"/>
       <c r="AB157" s="14" t="inlineStr"/>
       <c r="AC157" s="15" t="n">
-        <v>0.3269117989330491</v>
+        <v>0.47821654753811194</v>
       </c>
       <c r="AD157" s="15" t="inlineStr"/>
       <c r="AE157" s="14" t="n">
-        <v>1.758311E9</v>
+        <v>1.363057E9</v>
       </c>
       <c r="AF157" s="14" t="inlineStr"/>
       <c r="AG157" s="14" t="inlineStr"/>
@@ -9747,23 +9747,23 @@
       <c r="U158" s="14" t="inlineStr"/>
       <c r="V158" s="14" t="inlineStr"/>
       <c r="W158" s="14" t="n">
-        <v>5.768E7</v>
+        <v>9.1E7</v>
       </c>
       <c r="X158" s="14" t="n">
-        <v>1.5785E7</v>
+        <v>1.8165E7</v>
       </c>
       <c r="Y158" s="14" t="inlineStr"/>
       <c r="Z158" s="14" t="n">
-        <v>7.3465E7</v>
+        <v>1.09165E8</v>
       </c>
       <c r="AA158" s="14" t="inlineStr"/>
       <c r="AB158" s="14" t="inlineStr"/>
       <c r="AC158" s="15" t="n">
-        <v>0.2858115468409586</v>
+        <v>0.4247004357298475</v>
       </c>
       <c r="AD158" s="15" t="inlineStr"/>
       <c r="AE158" s="14" t="n">
-        <v>1.83575E8</v>
+        <v>1.47875E8</v>
       </c>
       <c r="AF158" s="14" t="inlineStr"/>
       <c r="AG158" s="14" t="inlineStr"/>
@@ -9804,23 +9804,23 @@
       <c r="U159" s="14" t="inlineStr"/>
       <c r="V159" s="14" t="inlineStr"/>
       <c r="W159" s="14" t="n">
-        <v>4.74007E8</v>
+        <v>7.40999E8</v>
       </c>
       <c r="X159" s="14" t="n">
-        <v>1.29278E8</v>
+        <v>1.46113E8</v>
       </c>
       <c r="Y159" s="14" t="inlineStr"/>
       <c r="Z159" s="14" t="n">
-        <v>6.03285E8</v>
+        <v>8.87112E8</v>
       </c>
       <c r="AA159" s="14" t="inlineStr"/>
       <c r="AB159" s="14" t="inlineStr"/>
       <c r="AC159" s="15" t="n">
-        <v>0.3340093411996067</v>
+        <v>0.4911504424778761</v>
       </c>
       <c r="AD159" s="15" t="inlineStr"/>
       <c r="AE159" s="14" t="n">
-        <v>1.202907E9</v>
+        <v>9.1908E8</v>
       </c>
       <c r="AF159" s="14" t="inlineStr"/>
       <c r="AG159" s="14" t="inlineStr"/>
@@ -9861,23 +9861,23 @@
       <c r="U160" s="14" t="inlineStr"/>
       <c r="V160" s="14" t="inlineStr"/>
       <c r="W160" s="14" t="n">
-        <v>1.40876E8</v>
+        <v>2.14635E8</v>
       </c>
       <c r="X160" s="14" t="n">
-        <v>3.6367E7</v>
+        <v>3.8335E7</v>
       </c>
       <c r="Y160" s="14" t="inlineStr"/>
       <c r="Z160" s="14" t="n">
-        <v>1.77243E8</v>
+        <v>2.5297E8</v>
       </c>
       <c r="AA160" s="14" t="inlineStr"/>
       <c r="AB160" s="14" t="inlineStr"/>
       <c r="AC160" s="15" t="n">
-        <v>0.32280465949820786</v>
+        <v>0.46072281959378736</v>
       </c>
       <c r="AD160" s="15" t="inlineStr"/>
       <c r="AE160" s="14" t="n">
-        <v>3.71829E8</v>
+        <v>2.96102E8</v>
       </c>
       <c r="AF160" s="14" t="inlineStr"/>
       <c r="AG160" s="14" t="inlineStr"/>
@@ -9924,23 +9924,23 @@
       <c r="U161" s="14" t="inlineStr"/>
       <c r="V161" s="14" t="inlineStr"/>
       <c r="W161" s="14" t="n">
-        <v>1480000.0</v>
+        <v>2035000.0</v>
       </c>
       <c r="X161" s="14" t="n">
-        <v>370000.0</v>
+        <v>185000.0</v>
       </c>
       <c r="Y161" s="14" t="inlineStr"/>
       <c r="Z161" s="14" t="n">
-        <v>1850000.0</v>
+        <v>2220000.0</v>
       </c>
       <c r="AA161" s="14" t="inlineStr"/>
       <c r="AB161" s="14" t="inlineStr"/>
       <c r="AC161" s="15" t="n">
-        <v>0.35714285714285715</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AD161" s="15" t="inlineStr"/>
       <c r="AE161" s="14" t="n">
-        <v>3330000.0</v>
+        <v>2960000.0</v>
       </c>
       <c r="AF161" s="14" t="inlineStr"/>
       <c r="AG161" s="14" t="inlineStr"/>
@@ -9981,23 +9981,23 @@
       <c r="U162" s="14" t="inlineStr"/>
       <c r="V162" s="14" t="inlineStr"/>
       <c r="W162" s="14" t="n">
-        <v>1110000.0</v>
+        <v>1480000.0</v>
       </c>
       <c r="X162" s="14" t="n">
         <v>185000.0</v>
       </c>
       <c r="Y162" s="14" t="inlineStr"/>
       <c r="Z162" s="14" t="n">
-        <v>1295000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="AA162" s="14" t="inlineStr"/>
       <c r="AB162" s="14" t="inlineStr"/>
       <c r="AC162" s="15" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="AD162" s="15" t="inlineStr"/>
       <c r="AE162" s="14" t="n">
-        <v>3145000.0</v>
+        <v>2775000.0</v>
       </c>
       <c r="AF162" s="14" t="inlineStr"/>
       <c r="AG162" s="14" t="inlineStr"/>
@@ -10038,10 +10038,10 @@
       <c r="U163" s="14" t="inlineStr"/>
       <c r="V163" s="14" t="inlineStr"/>
       <c r="W163" s="14" t="n">
-        <v>0.0</v>
+        <v>185000.0</v>
       </c>
       <c r="X163" s="14" t="n">
-        <v>185000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y163" s="14" t="inlineStr"/>
       <c r="Z163" s="14" t="n">
@@ -10158,23 +10158,23 @@
       <c r="U165" s="14" t="inlineStr"/>
       <c r="V165" s="14" t="inlineStr"/>
       <c r="W165" s="14" t="n">
-        <v>8.54507998E9</v>
+        <v>1.5066341349E10</v>
       </c>
       <c r="X165" s="14" t="n">
-        <v>4.370966598E9</v>
+        <v>1.996298066E9</v>
       </c>
       <c r="Y165" s="14" t="inlineStr"/>
       <c r="Z165" s="14" t="n">
-        <v>1.2916046578E10</v>
+        <v>1.7062639415E10</v>
       </c>
       <c r="AA165" s="14" t="inlineStr"/>
       <c r="AB165" s="14" t="inlineStr"/>
       <c r="AC165" s="15" t="n">
-        <v>0.4271179423941799</v>
+        <v>0.5642407213955026</v>
       </c>
       <c r="AD165" s="15" t="inlineStr"/>
       <c r="AE165" s="14" t="n">
-        <v>1.7323953422E10</v>
+        <v>1.3177360585E10</v>
       </c>
       <c r="AF165" s="14" t="inlineStr"/>
       <c r="AG165" s="14" t="inlineStr"/>
@@ -10215,23 +10215,23 @@
       <c r="U166" s="14" t="inlineStr"/>
       <c r="V166" s="14" t="inlineStr"/>
       <c r="W166" s="14" t="n">
-        <v>6.134941201E9</v>
+        <v>1.0293742797E10</v>
       </c>
       <c r="X166" s="14" t="n">
-        <v>2.008506825E9</v>
+        <v>1.991611418E9</v>
       </c>
       <c r="Y166" s="14" t="inlineStr"/>
       <c r="Z166" s="14" t="n">
-        <v>8.143448026E9</v>
+        <v>1.2285354215E10</v>
       </c>
       <c r="AA166" s="14" t="inlineStr"/>
       <c r="AB166" s="14" t="inlineStr"/>
       <c r="AC166" s="15" t="n">
-        <v>0.3203594699705583</v>
+        <v>0.4833001392226193</v>
       </c>
       <c r="AD166" s="15" t="inlineStr"/>
       <c r="AE166" s="14" t="n">
-        <v>1.7276271974E10</v>
+        <v>1.3134365785E10</v>
       </c>
       <c r="AF166" s="14" t="inlineStr"/>
       <c r="AG166" s="14" t="inlineStr"/>
@@ -10272,23 +10272,23 @@
       <c r="U167" s="14" t="inlineStr"/>
       <c r="V167" s="14" t="inlineStr"/>
       <c r="W167" s="14" t="n">
-        <v>0.0</v>
+        <v>2.362459773E9</v>
       </c>
       <c r="X167" s="14" t="n">
-        <v>2.362459773E9</v>
+        <v>4686648.0</v>
       </c>
       <c r="Y167" s="14" t="inlineStr"/>
       <c r="Z167" s="14" t="n">
-        <v>2.362459773E9</v>
+        <v>2.367146421E9</v>
       </c>
       <c r="AA167" s="14" t="inlineStr"/>
       <c r="AB167" s="14" t="inlineStr"/>
       <c r="AC167" s="15" t="n">
-        <v>0.9802168226742015</v>
+        <v>0.9821613769324603</v>
       </c>
       <c r="AD167" s="15" t="inlineStr"/>
       <c r="AE167" s="14" t="n">
-        <v>4.7680227E7</v>
+        <v>4.2993579E7</v>
       </c>
       <c r="AF167" s="14" t="inlineStr"/>
       <c r="AG167" s="14" t="inlineStr"/>
@@ -10392,23 +10392,23 @@
       <c r="U169" s="14" t="inlineStr"/>
       <c r="V169" s="14" t="inlineStr"/>
       <c r="W169" s="14" t="n">
-        <v>7.338740129E9</v>
+        <v>1.2002286822E10</v>
       </c>
       <c r="X169" s="14" t="n">
-        <v>3.079178993E9</v>
+        <v>1.594950732E9</v>
       </c>
       <c r="Y169" s="14" t="inlineStr"/>
       <c r="Z169" s="14" t="n">
-        <v>1.0417919122E10</v>
+        <v>1.3597237554E10</v>
       </c>
       <c r="AA169" s="14" t="inlineStr"/>
       <c r="AB169" s="14" t="inlineStr"/>
       <c r="AC169" s="15" t="n">
-        <v>0.6948064198797544</v>
+        <v>0.9068459674637595</v>
       </c>
       <c r="AD169" s="15" t="inlineStr"/>
       <c r="AE169" s="14" t="n">
-        <v>4.576068878E9</v>
+        <v>1.396750446E9</v>
       </c>
       <c r="AF169" s="14" t="inlineStr"/>
       <c r="AG169" s="14" t="inlineStr"/>
@@ -10455,23 +10455,23 @@
       <c r="U170" s="14" t="inlineStr"/>
       <c r="V170" s="14" t="inlineStr"/>
       <c r="W170" s="14" t="n">
-        <v>3.132722866E9</v>
+        <v>4.762388866E9</v>
       </c>
       <c r="X170" s="14" t="n">
-        <v>1.086444E9</v>
+        <v>5.493708E8</v>
       </c>
       <c r="Y170" s="14" t="inlineStr"/>
       <c r="Z170" s="14" t="n">
-        <v>4.219166866E9</v>
+        <v>5.311759666E9</v>
       </c>
       <c r="AA170" s="14" t="inlineStr"/>
       <c r="AB170" s="14" t="inlineStr"/>
       <c r="AC170" s="15" t="n">
-        <v>0.9463032531896941</v>
+        <v>1.1913573489125906</v>
       </c>
       <c r="AD170" s="15" t="inlineStr"/>
       <c r="AE170" s="14" t="n">
-        <v>2.39411134E8</v>
+        <v>-8.53181666E8</v>
       </c>
       <c r="AF170" s="14" t="inlineStr"/>
       <c r="AG170" s="14" t="inlineStr"/>
@@ -10512,23 +10512,23 @@
       <c r="U171" s="14" t="inlineStr"/>
       <c r="V171" s="14" t="inlineStr"/>
       <c r="W171" s="14" t="n">
-        <v>2.5868312E9</v>
+        <v>3.6732752E9</v>
       </c>
       <c r="X171" s="14" t="n">
-        <v>5.43222E8</v>
+        <v>5.493708E8</v>
       </c>
       <c r="Y171" s="14" t="inlineStr"/>
       <c r="Z171" s="14" t="n">
-        <v>3.1300532E9</v>
+        <v>4.222646E9</v>
       </c>
       <c r="AA171" s="14" t="inlineStr"/>
       <c r="AB171" s="14" t="inlineStr"/>
       <c r="AC171" s="15" t="n">
-        <v>0.9296841622529696</v>
+        <v>1.2542045959477153</v>
       </c>
       <c r="AD171" s="15" t="inlineStr"/>
       <c r="AE171" s="14" t="n">
-        <v>2.367388E8</v>
+        <v>-8.55854E8</v>
       </c>
       <c r="AF171" s="14" t="inlineStr"/>
       <c r="AG171" s="14" t="inlineStr"/>
@@ -10569,10 +10569,10 @@
       <c r="U172" s="14" t="inlineStr"/>
       <c r="V172" s="14" t="inlineStr"/>
       <c r="W172" s="14" t="n">
-        <v>0.0</v>
+        <v>5.43222E8</v>
       </c>
       <c r="X172" s="14" t="n">
-        <v>5.43222E8</v>
+        <v>0.0</v>
       </c>
       <c r="Y172" s="14" t="inlineStr"/>
       <c r="Z172" s="14" t="n">
@@ -10732,23 +10732,23 @@
       <c r="U175" s="14" t="inlineStr"/>
       <c r="V175" s="14" t="inlineStr"/>
       <c r="W175" s="14" t="n">
-        <v>62079.0</v>
+        <v>91671.0</v>
       </c>
       <c r="X175" s="14" t="n">
-        <v>18030.0</v>
+        <v>10062.0</v>
       </c>
       <c r="Y175" s="14" t="inlineStr"/>
       <c r="Z175" s="14" t="n">
-        <v>80109.0</v>
+        <v>101733.0</v>
       </c>
       <c r="AA175" s="14" t="inlineStr"/>
       <c r="AB175" s="14" t="inlineStr"/>
       <c r="AC175" s="15" t="n">
-        <v>0.5070189873417722</v>
+        <v>0.643879746835443</v>
       </c>
       <c r="AD175" s="15" t="inlineStr"/>
       <c r="AE175" s="14" t="n">
-        <v>77891.0</v>
+        <v>56267.0</v>
       </c>
       <c r="AF175" s="14" t="inlineStr"/>
       <c r="AG175" s="14" t="inlineStr"/>
@@ -10789,23 +10789,23 @@
       <c r="U176" s="14" t="inlineStr"/>
       <c r="V176" s="14" t="inlineStr"/>
       <c r="W176" s="14" t="n">
-        <v>55427.0</v>
+        <v>78551.0</v>
       </c>
       <c r="X176" s="14" t="n">
-        <v>11562.0</v>
+        <v>10062.0</v>
       </c>
       <c r="Y176" s="14" t="inlineStr"/>
       <c r="Z176" s="14" t="n">
-        <v>66989.0</v>
+        <v>88613.0</v>
       </c>
       <c r="AA176" s="14" t="inlineStr"/>
       <c r="AB176" s="14" t="inlineStr"/>
       <c r="AC176" s="15" t="n">
-        <v>0.4652013888888889</v>
+        <v>0.6153680555555555</v>
       </c>
       <c r="AD176" s="15" t="inlineStr"/>
       <c r="AE176" s="14" t="n">
-        <v>77011.0</v>
+        <v>55387.0</v>
       </c>
       <c r="AF176" s="14" t="inlineStr"/>
       <c r="AG176" s="14" t="inlineStr"/>
@@ -10846,10 +10846,10 @@
       <c r="U177" s="14" t="inlineStr"/>
       <c r="V177" s="14" t="inlineStr"/>
       <c r="W177" s="14" t="n">
-        <v>0.0</v>
+        <v>6468.0</v>
       </c>
       <c r="X177" s="14" t="n">
-        <v>6468.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y177" s="14" t="inlineStr"/>
       <c r="Z177" s="14" t="n">
@@ -10966,23 +10966,23 @@
       <c r="U179" s="14" t="inlineStr"/>
       <c r="V179" s="14" t="inlineStr"/>
       <c r="W179" s="14" t="n">
-        <v>2.1164536E8</v>
+        <v>3.2254353E8</v>
       </c>
       <c r="X179" s="14" t="n">
-        <v>7.370608E7</v>
+        <v>3.730664E7</v>
       </c>
       <c r="Y179" s="14" t="inlineStr"/>
       <c r="Z179" s="14" t="n">
-        <v>2.8535144E8</v>
+        <v>3.5985017E8</v>
       </c>
       <c r="AA179" s="14" t="inlineStr"/>
       <c r="AB179" s="14" t="inlineStr"/>
       <c r="AC179" s="15" t="n">
-        <v>0.7903027147391336</v>
+        <v>0.9966326654960589</v>
       </c>
       <c r="AD179" s="15" t="inlineStr"/>
       <c r="AE179" s="14" t="n">
-        <v>7.571456E7</v>
+        <v>1215830.0</v>
       </c>
       <c r="AF179" s="14" t="inlineStr"/>
       <c r="AG179" s="14" t="inlineStr"/>
@@ -11023,23 +11023,23 @@
       <c r="U180" s="14" t="inlineStr"/>
       <c r="V180" s="14" t="inlineStr"/>
       <c r="W180" s="14" t="n">
-        <v>1.7511268E8</v>
+        <v>2.4881876E8</v>
       </c>
       <c r="X180" s="14" t="n">
-        <v>3.685304E7</v>
+        <v>3.730664E7</v>
       </c>
       <c r="Y180" s="14" t="inlineStr"/>
       <c r="Z180" s="14" t="n">
-        <v>2.1196572E8</v>
+        <v>2.861254E8</v>
       </c>
       <c r="AA180" s="14" t="inlineStr"/>
       <c r="AB180" s="14" t="inlineStr"/>
       <c r="AC180" s="15" t="n">
-        <v>0.7359920833333333</v>
+        <v>0.9934909722222223</v>
       </c>
       <c r="AD180" s="15" t="inlineStr"/>
       <c r="AE180" s="14" t="n">
-        <v>7.603428E7</v>
+        <v>1874600.0</v>
       </c>
       <c r="AF180" s="14" t="inlineStr"/>
       <c r="AG180" s="14" t="inlineStr"/>
@@ -11080,23 +11080,23 @@
       <c r="U181" s="14" t="inlineStr"/>
       <c r="V181" s="14" t="inlineStr"/>
       <c r="W181" s="14" t="n">
-        <v>0.0</v>
+        <v>3.719209E7</v>
       </c>
       <c r="X181" s="14" t="n">
-        <v>3.685304E7</v>
+        <v>0.0</v>
       </c>
       <c r="Y181" s="14" t="inlineStr"/>
       <c r="Z181" s="14" t="n">
-        <v>3.685304E7</v>
+        <v>3.719209E7</v>
       </c>
       <c r="AA181" s="14" t="inlineStr"/>
       <c r="AB181" s="14" t="inlineStr"/>
       <c r="AC181" s="15" t="n">
-        <v>1.0087602989078368</v>
+        <v>1.0180409492787343</v>
       </c>
       <c r="AD181" s="15" t="inlineStr"/>
       <c r="AE181" s="14" t="n">
-        <v>-320040.0</v>
+        <v>-659090.0</v>
       </c>
       <c r="AF181" s="14" t="inlineStr"/>
       <c r="AG181" s="14" t="inlineStr"/>
@@ -11200,23 +11200,23 @@
       <c r="U183" s="14" t="inlineStr"/>
       <c r="V183" s="14" t="inlineStr"/>
       <c r="W183" s="14" t="n">
-        <v>6.420168E7</v>
+        <v>9.6747576E7</v>
       </c>
       <c r="X183" s="14" t="n">
-        <v>2.1697264E7</v>
+        <v>1.098572E7</v>
       </c>
       <c r="Y183" s="14" t="inlineStr"/>
       <c r="Z183" s="14" t="n">
-        <v>8.5898944E7</v>
+        <v>1.07733296E8</v>
       </c>
       <c r="AA183" s="14" t="inlineStr"/>
       <c r="AB183" s="14" t="inlineStr"/>
       <c r="AC183" s="15" t="n">
-        <v>0.7664894885248242</v>
+        <v>0.9613207695327837</v>
       </c>
       <c r="AD183" s="15" t="inlineStr"/>
       <c r="AE183" s="14" t="n">
-        <v>2.6169056E7</v>
+        <v>4334704.0</v>
       </c>
       <c r="AF183" s="14" t="inlineStr"/>
       <c r="AG183" s="14" t="inlineStr"/>
@@ -11257,23 +11257,23 @@
       <c r="U184" s="14" t="inlineStr"/>
       <c r="V184" s="14" t="inlineStr"/>
       <c r="W184" s="14" t="n">
-        <v>5.3167728E7</v>
+        <v>7.4864992E7</v>
       </c>
       <c r="X184" s="14" t="n">
-        <v>1.0848632E7</v>
+        <v>1.098572E7</v>
       </c>
       <c r="Y184" s="14" t="inlineStr"/>
       <c r="Z184" s="14" t="n">
-        <v>6.401636E7</v>
+        <v>8.5850712E7</v>
       </c>
       <c r="AA184" s="14" t="inlineStr"/>
       <c r="AB184" s="14" t="inlineStr"/>
       <c r="AC184" s="15" t="n">
-        <v>0.7112928888888889</v>
+        <v>0.9538968</v>
       </c>
       <c r="AD184" s="15" t="inlineStr"/>
       <c r="AE184" s="14" t="n">
-        <v>2.598364E7</v>
+        <v>4149288.0</v>
       </c>
       <c r="AF184" s="14" t="inlineStr"/>
       <c r="AG184" s="14" t="inlineStr"/>
@@ -11314,10 +11314,10 @@
       <c r="U185" s="14" t="inlineStr"/>
       <c r="V185" s="14" t="inlineStr"/>
       <c r="W185" s="14" t="n">
-        <v>0.0</v>
+        <v>1.0848632E7</v>
       </c>
       <c r="X185" s="14" t="n">
-        <v>1.0848632E7</v>
+        <v>0.0</v>
       </c>
       <c r="Y185" s="14" t="inlineStr"/>
       <c r="Z185" s="14" t="n">
@@ -11434,23 +11434,23 @@
       <c r="U187" s="14" t="inlineStr"/>
       <c r="V187" s="14" t="inlineStr"/>
       <c r="W187" s="14" t="n">
-        <v>5.1195E8</v>
+        <v>7.7817E8</v>
       </c>
       <c r="X187" s="14" t="n">
-        <v>1.7748E8</v>
+        <v>8.874E7</v>
       </c>
       <c r="Y187" s="14" t="inlineStr"/>
       <c r="Z187" s="14" t="n">
-        <v>6.8943E8</v>
+        <v>8.6691E8</v>
       </c>
       <c r="AA187" s="14" t="inlineStr"/>
       <c r="AB187" s="14" t="inlineStr"/>
       <c r="AC187" s="15" t="n">
-        <v>0.7676197474781215</v>
+        <v>0.9652281381521812</v>
       </c>
       <c r="AD187" s="15" t="inlineStr"/>
       <c r="AE187" s="14" t="n">
-        <v>2.0871E8</v>
+        <v>3.123E7</v>
       </c>
       <c r="AF187" s="14" t="inlineStr"/>
       <c r="AG187" s="14" t="inlineStr"/>
@@ -11491,23 +11491,23 @@
       <c r="U188" s="14" t="inlineStr"/>
       <c r="V188" s="14" t="inlineStr"/>
       <c r="W188" s="14" t="n">
-        <v>4.2288E8</v>
+        <v>6.0036E8</v>
       </c>
       <c r="X188" s="14" t="n">
         <v>8.874E7</v>
       </c>
       <c r="Y188" s="14" t="inlineStr"/>
       <c r="Z188" s="14" t="n">
-        <v>5.1162E8</v>
+        <v>6.891E8</v>
       </c>
       <c r="AA188" s="14" t="inlineStr"/>
       <c r="AB188" s="14" t="inlineStr"/>
       <c r="AC188" s="15" t="n">
-        <v>0.7105833333333333</v>
+        <v>0.9570833333333333</v>
       </c>
       <c r="AD188" s="15" t="inlineStr"/>
       <c r="AE188" s="14" t="n">
-        <v>2.0838E8</v>
+        <v>3.09E7</v>
       </c>
       <c r="AF188" s="14" t="inlineStr"/>
       <c r="AG188" s="14" t="inlineStr"/>
@@ -11548,10 +11548,10 @@
       <c r="U189" s="14" t="inlineStr"/>
       <c r="V189" s="14" t="inlineStr"/>
       <c r="W189" s="14" t="n">
-        <v>0.0</v>
+        <v>8.874E7</v>
       </c>
       <c r="X189" s="14" t="n">
-        <v>8.874E7</v>
+        <v>0.0</v>
       </c>
       <c r="Y189" s="14" t="inlineStr"/>
       <c r="Z189" s="14" t="n">
@@ -11668,23 +11668,23 @@
       <c r="U191" s="14" t="inlineStr"/>
       <c r="V191" s="14" t="inlineStr"/>
       <c r="W191" s="14" t="n">
-        <v>1.9291481E8</v>
+        <v>2.9241989E8</v>
       </c>
       <c r="X191" s="14" t="n">
-        <v>6.633672E7</v>
+        <v>3.316836E7</v>
       </c>
       <c r="Y191" s="14" t="inlineStr"/>
       <c r="Z191" s="14" t="n">
-        <v>2.5925153E8</v>
+        <v>3.2558825E8</v>
       </c>
       <c r="AA191" s="14" t="inlineStr"/>
       <c r="AB191" s="14" t="inlineStr"/>
       <c r="AC191" s="15" t="n">
-        <v>0.7838340065548394</v>
+        <v>0.9843997544958699</v>
       </c>
       <c r="AD191" s="15" t="inlineStr"/>
       <c r="AE191" s="14" t="n">
-        <v>7.149647E7</v>
+        <v>5159750.0</v>
       </c>
       <c r="AF191" s="14" t="inlineStr"/>
       <c r="AG191" s="14" t="inlineStr"/>
@@ -11725,23 +11725,23 @@
       <c r="U192" s="14" t="inlineStr"/>
       <c r="V192" s="14" t="inlineStr"/>
       <c r="W192" s="14" t="n">
-        <v>1.5954126E8</v>
+        <v>2.2587798E8</v>
       </c>
       <c r="X192" s="14" t="n">
         <v>3.316836E7</v>
       </c>
       <c r="Y192" s="14" t="inlineStr"/>
       <c r="Z192" s="14" t="n">
-        <v>1.9270962E8</v>
+        <v>2.5904634E8</v>
       </c>
       <c r="AA192" s="14" t="inlineStr"/>
       <c r="AB192" s="14" t="inlineStr"/>
       <c r="AC192" s="15" t="n">
-        <v>0.7299606818181819</v>
+        <v>0.9812361363636364</v>
       </c>
       <c r="AD192" s="15" t="inlineStr"/>
       <c r="AE192" s="14" t="n">
-        <v>7.129038E7</v>
+        <v>4953660.0</v>
       </c>
       <c r="AF192" s="14" t="inlineStr"/>
       <c r="AG192" s="14" t="inlineStr"/>
@@ -11782,10 +11782,10 @@
       <c r="U193" s="14" t="inlineStr"/>
       <c r="V193" s="14" t="inlineStr"/>
       <c r="W193" s="14" t="n">
-        <v>0.0</v>
+        <v>3.316836E7</v>
       </c>
       <c r="X193" s="14" t="n">
-        <v>3.316836E7</v>
+        <v>0.0</v>
       </c>
       <c r="Y193" s="14" t="inlineStr"/>
       <c r="Z193" s="14" t="n">
@@ -11902,23 +11902,23 @@
       <c r="U195" s="14" t="inlineStr"/>
       <c r="V195" s="14" t="inlineStr"/>
       <c r="W195" s="14" t="n">
-        <v>3.30455E8</v>
+        <v>5.34431E8</v>
       </c>
       <c r="X195" s="14" t="n">
-        <v>9.8505E7</v>
+        <v>1.09833E8</v>
       </c>
       <c r="Y195" s="14" t="inlineStr"/>
       <c r="Z195" s="14" t="n">
-        <v>4.2896E8</v>
+        <v>6.44264E8</v>
       </c>
       <c r="AA195" s="14" t="inlineStr"/>
       <c r="AB195" s="14" t="inlineStr"/>
       <c r="AC195" s="15" t="n">
-        <v>0.422637345314101</v>
+        <v>0.6347678726255221</v>
       </c>
       <c r="AD195" s="15" t="inlineStr"/>
       <c r="AE195" s="14" t="n">
-        <v>5.86E8</v>
+        <v>3.70696E8</v>
       </c>
       <c r="AF195" s="14" t="inlineStr"/>
       <c r="AG195" s="14" t="inlineStr"/>
@@ -11959,23 +11959,23 @@
       <c r="U196" s="14" t="inlineStr"/>
       <c r="V196" s="14" t="inlineStr"/>
       <c r="W196" s="14" t="n">
-        <v>3.094E7</v>
+        <v>5.11E7</v>
       </c>
       <c r="X196" s="14" t="n">
-        <v>9520000.0</v>
+        <v>1.071E7</v>
       </c>
       <c r="Y196" s="14" t="inlineStr"/>
       <c r="Z196" s="14" t="n">
-        <v>4.046E7</v>
+        <v>6.181E7</v>
       </c>
       <c r="AA196" s="14" t="inlineStr"/>
       <c r="AB196" s="14" t="inlineStr"/>
       <c r="AC196" s="15" t="n">
-        <v>0.37051282051282053</v>
+        <v>0.566025641025641</v>
       </c>
       <c r="AD196" s="15" t="inlineStr"/>
       <c r="AE196" s="14" t="n">
-        <v>6.874E7</v>
+        <v>4.739E7</v>
       </c>
       <c r="AF196" s="14" t="inlineStr"/>
       <c r="AG196" s="14" t="inlineStr"/>
@@ -12016,23 +12016,23 @@
       <c r="U197" s="14" t="inlineStr"/>
       <c r="V197" s="14" t="inlineStr"/>
       <c r="W197" s="14" t="n">
-        <v>2.99515E8</v>
+        <v>4.83331E8</v>
       </c>
       <c r="X197" s="14" t="n">
-        <v>8.8985E7</v>
+        <v>9.9123E7</v>
       </c>
       <c r="Y197" s="14" t="inlineStr"/>
       <c r="Z197" s="14" t="n">
-        <v>3.885E8</v>
+        <v>5.82454E8</v>
       </c>
       <c r="AA197" s="14" t="inlineStr"/>
       <c r="AB197" s="14" t="inlineStr"/>
       <c r="AC197" s="15" t="n">
-        <v>0.42892156862745096</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="AD197" s="15" t="inlineStr"/>
       <c r="AE197" s="14" t="n">
-        <v>5.1726E8</v>
+        <v>3.23306E8</v>
       </c>
       <c r="AF197" s="14" t="inlineStr"/>
       <c r="AG197" s="14" t="inlineStr"/>
@@ -12079,23 +12079,23 @@
       <c r="U198" s="14" t="inlineStr"/>
       <c r="V198" s="14" t="inlineStr"/>
       <c r="W198" s="14" t="n">
-        <v>2.894788334E9</v>
+        <v>5.215494289E9</v>
       </c>
       <c r="X198" s="14" t="n">
-        <v>1.554991899E9</v>
+        <v>7.6553615E8</v>
       </c>
       <c r="Y198" s="14" t="inlineStr"/>
       <c r="Z198" s="14" t="n">
-        <v>4.449780233E9</v>
+        <v>5.981030439E9</v>
       </c>
       <c r="AA198" s="14" t="inlineStr"/>
       <c r="AB198" s="14" t="inlineStr"/>
       <c r="AC198" s="15" t="n">
-        <v>0.5691515172793982</v>
+        <v>0.7650068927013265</v>
       </c>
       <c r="AD198" s="15" t="inlineStr"/>
       <c r="AE198" s="14" t="n">
-        <v>3.368489767E9</v>
+        <v>1.837239561E9</v>
       </c>
       <c r="AF198" s="14" t="inlineStr"/>
       <c r="AG198" s="14" t="inlineStr"/>
@@ -12136,23 +12136,23 @@
       <c r="U199" s="14" t="inlineStr"/>
       <c r="V199" s="14" t="inlineStr"/>
       <c r="W199" s="14" t="n">
-        <v>2.105653752E9</v>
+        <v>3.641050913E9</v>
       </c>
       <c r="X199" s="14" t="n">
-        <v>7.69683105E8</v>
+        <v>7.6553615E8</v>
       </c>
       <c r="Y199" s="14" t="inlineStr"/>
       <c r="Z199" s="14" t="n">
-        <v>2.875336857E9</v>
+        <v>4.406587063E9</v>
       </c>
       <c r="AA199" s="14" t="inlineStr"/>
       <c r="AB199" s="14" t="inlineStr"/>
       <c r="AC199" s="15" t="n">
-        <v>0.4607911629807692</v>
+        <v>0.706183824198718</v>
       </c>
       <c r="AD199" s="15" t="inlineStr"/>
       <c r="AE199" s="14" t="n">
-        <v>3.364663143E9</v>
+        <v>1.833412937E9</v>
       </c>
       <c r="AF199" s="14" t="inlineStr"/>
       <c r="AG199" s="14" t="inlineStr"/>
@@ -12193,10 +12193,10 @@
       <c r="U200" s="14" t="inlineStr"/>
       <c r="V200" s="14" t="inlineStr"/>
       <c r="W200" s="14" t="n">
-        <v>0.0</v>
+        <v>7.85308794E8</v>
       </c>
       <c r="X200" s="14" t="n">
-        <v>7.85308794E8</v>
+        <v>0.0</v>
       </c>
       <c r="Y200" s="14" t="inlineStr"/>
       <c r="Z200" s="14" t="n">
@@ -12356,23 +12356,23 @@
       <c r="U203" s="25" t="inlineStr"/>
       <c r="V203" s="25" t="inlineStr"/>
       <c r="W203" s="25" t="n">
-        <v>3.371397217E9</v>
+        <v>3.916005145E9</v>
       </c>
       <c r="X203" s="25" t="n">
-        <v>2.31860888E8</v>
+        <v>2.29801835E8</v>
       </c>
       <c r="Y203" s="25" t="inlineStr"/>
       <c r="Z203" s="25" t="n">
-        <v>3.603258105E9</v>
+        <v>4.14580698E9</v>
       </c>
       <c r="AA203" s="25" t="inlineStr"/>
       <c r="AB203" s="25" t="inlineStr"/>
       <c r="AC203" s="26" t="n">
-        <v>0.6370942846145237</v>
+        <v>0.7330226853324455</v>
       </c>
       <c r="AD203" s="26" t="inlineStr"/>
       <c r="AE203" s="25" t="n">
-        <v>2.052510895E9</v>
+        <v>1.50996202E9</v>
       </c>
       <c r="AF203" s="25" t="inlineStr"/>
       <c r="AG203" s="25" t="inlineStr"/>
@@ -12419,23 +12419,23 @@
       <c r="U204" s="14" t="inlineStr"/>
       <c r="V204" s="14" t="inlineStr"/>
       <c r="W204" s="14" t="n">
-        <v>2.832483567E9</v>
+        <v>3.114927616E9</v>
       </c>
       <c r="X204" s="14" t="n">
-        <v>1.37343334E8</v>
+        <v>1.43830383E8</v>
       </c>
       <c r="Y204" s="14" t="inlineStr"/>
       <c r="Z204" s="14" t="n">
-        <v>2.969826901E9</v>
+        <v>3.258757999E9</v>
       </c>
       <c r="AA204" s="14" t="inlineStr"/>
       <c r="AB204" s="14" t="inlineStr"/>
       <c r="AC204" s="15" t="n">
-        <v>0.7645022956999517</v>
+        <v>0.8388798587982353</v>
       </c>
       <c r="AD204" s="15" t="inlineStr"/>
       <c r="AE204" s="14" t="n">
-        <v>9.14827099E8</v>
+        <v>6.25896001E8</v>
       </c>
       <c r="AF204" s="14" t="inlineStr"/>
       <c r="AG204" s="14" t="inlineStr"/>
@@ -12482,23 +12482,23 @@
       <c r="U205" s="14" t="inlineStr"/>
       <c r="V205" s="14" t="inlineStr"/>
       <c r="W205" s="14" t="n">
-        <v>3.3807725E8</v>
+        <v>4.77118356E8</v>
       </c>
       <c r="X205" s="14" t="n">
-        <v>6.7515898E7</v>
+        <v>6.9510447E7</v>
       </c>
       <c r="Y205" s="14" t="inlineStr"/>
       <c r="Z205" s="14" t="n">
-        <v>4.05593148E8</v>
+        <v>5.46628803E8</v>
       </c>
       <c r="AA205" s="14" t="inlineStr"/>
       <c r="AB205" s="14" t="inlineStr"/>
       <c r="AC205" s="15" t="n">
-        <v>0.552039966408835</v>
+        <v>0.7439991221109624</v>
       </c>
       <c r="AD205" s="15" t="inlineStr"/>
       <c r="AE205" s="14" t="n">
-        <v>3.29123852E8</v>
+        <v>1.88088197E8</v>
       </c>
       <c r="AF205" s="14" t="inlineStr"/>
       <c r="AG205" s="14" t="inlineStr"/>
@@ -12539,23 +12539,23 @@
       <c r="U206" s="14" t="inlineStr"/>
       <c r="V206" s="14" t="inlineStr"/>
       <c r="W206" s="14" t="n">
-        <v>3.21E8</v>
+        <v>4.48E8</v>
       </c>
       <c r="X206" s="14" t="n">
         <v>6.35E7</v>
       </c>
       <c r="Y206" s="14" t="inlineStr"/>
       <c r="Z206" s="14" t="n">
-        <v>3.845E8</v>
+        <v>5.115E8</v>
       </c>
       <c r="AA206" s="14" t="inlineStr"/>
       <c r="AB206" s="14" t="inlineStr"/>
       <c r="AC206" s="15" t="n">
-        <v>0.5654411764705882</v>
+        <v>0.7522058823529412</v>
       </c>
       <c r="AD206" s="15" t="inlineStr"/>
       <c r="AE206" s="14" t="n">
-        <v>2.955E8</v>
+        <v>1.685E8</v>
       </c>
       <c r="AF206" s="14" t="inlineStr"/>
       <c r="AG206" s="14" t="inlineStr"/>
@@ -12596,23 +12596,23 @@
       <c r="U207" s="14" t="inlineStr"/>
       <c r="V207" s="14" t="inlineStr"/>
       <c r="W207" s="14" t="n">
-        <v>1390500.0</v>
+        <v>2076300.0</v>
       </c>
       <c r="X207" s="14" t="n">
         <v>342900.0</v>
       </c>
       <c r="Y207" s="14" t="inlineStr"/>
       <c r="Z207" s="14" t="n">
-        <v>1733400.0</v>
+        <v>2419200.0</v>
       </c>
       <c r="AA207" s="14" t="inlineStr"/>
       <c r="AB207" s="14" t="inlineStr"/>
       <c r="AC207" s="15" t="n">
-        <v>0.556111645813282</v>
+        <v>0.7761308950914341</v>
       </c>
       <c r="AD207" s="15" t="inlineStr"/>
       <c r="AE207" s="14" t="n">
-        <v>1383600.0</v>
+        <v>697800.0</v>
       </c>
       <c r="AF207" s="14" t="inlineStr"/>
       <c r="AG207" s="14" t="inlineStr"/>
@@ -12653,23 +12653,23 @@
       <c r="U208" s="14" t="inlineStr"/>
       <c r="V208" s="14" t="inlineStr"/>
       <c r="W208" s="14" t="n">
-        <v>1.568675E7</v>
+        <v>2.7042056E7</v>
       </c>
       <c r="X208" s="14" t="n">
-        <v>3672998.0</v>
+        <v>5667547.0</v>
       </c>
       <c r="Y208" s="14" t="inlineStr"/>
       <c r="Z208" s="14" t="n">
-        <v>1.9359748E7</v>
+        <v>3.2709603E7</v>
       </c>
       <c r="AA208" s="14" t="inlineStr"/>
       <c r="AB208" s="14" t="inlineStr"/>
       <c r="AC208" s="15" t="n">
-        <v>0.37518891472868215</v>
+        <v>0.6339070348837209</v>
       </c>
       <c r="AD208" s="15" t="inlineStr"/>
       <c r="AE208" s="14" t="n">
-        <v>3.2240252E7</v>
+        <v>1.8890397E7</v>
       </c>
       <c r="AF208" s="14" t="inlineStr"/>
       <c r="AG208" s="14" t="inlineStr"/>
@@ -12706,7 +12706,7 @@
       <c r="O209" s="13" t="inlineStr"/>
       <c r="P209" s="13" t="inlineStr"/>
       <c r="Q209" s="14" t="n">
-        <v>1.4E7</v>
+        <v>1.3E7</v>
       </c>
       <c r="R209" s="14" t="inlineStr"/>
       <c r="S209" s="14" t="n">
@@ -12716,23 +12716,23 @@
       <c r="U209" s="14" t="inlineStr"/>
       <c r="V209" s="14" t="inlineStr"/>
       <c r="W209" s="14" t="n">
-        <v>1965500.0</v>
+        <v>4157000.0</v>
       </c>
       <c r="X209" s="14" t="n">
-        <v>677500.0</v>
+        <v>987000.0</v>
       </c>
       <c r="Y209" s="14" t="inlineStr"/>
       <c r="Z209" s="14" t="n">
-        <v>2643000.0</v>
+        <v>5144000.0</v>
       </c>
       <c r="AA209" s="14" t="inlineStr"/>
       <c r="AB209" s="14" t="inlineStr"/>
       <c r="AC209" s="15" t="n">
-        <v>0.18878571428571428</v>
+        <v>0.3956923076923077</v>
       </c>
       <c r="AD209" s="15" t="inlineStr"/>
       <c r="AE209" s="14" t="n">
-        <v>1.1357E7</v>
+        <v>7856000.0</v>
       </c>
       <c r="AF209" s="14" t="inlineStr"/>
       <c r="AG209" s="14" t="inlineStr"/>
@@ -12763,7 +12763,7 @@
       <c r="O210" s="13" t="inlineStr"/>
       <c r="P210" s="13" t="inlineStr"/>
       <c r="Q210" s="14" t="n">
-        <v>2000000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="R210" s="14" t="inlineStr"/>
       <c r="S210" s="14" t="n">
@@ -12773,23 +12773,23 @@
       <c r="U210" s="14" t="inlineStr"/>
       <c r="V210" s="14" t="inlineStr"/>
       <c r="W210" s="14" t="n">
-        <v>753500.0</v>
+        <v>2137000.0</v>
       </c>
       <c r="X210" s="14" t="n">
-        <v>677500.0</v>
+        <v>583000.0</v>
       </c>
       <c r="Y210" s="14" t="inlineStr"/>
       <c r="Z210" s="14" t="n">
-        <v>1431000.0</v>
+        <v>2720000.0</v>
       </c>
       <c r="AA210" s="14" t="inlineStr"/>
       <c r="AB210" s="14" t="inlineStr"/>
       <c r="AC210" s="15" t="n">
-        <v>0.7155</v>
+        <v>0.4689655172413793</v>
       </c>
       <c r="AD210" s="15" t="inlineStr"/>
       <c r="AE210" s="14" t="n">
-        <v>569000.0</v>
+        <v>3080000.0</v>
       </c>
       <c r="AF210" s="14" t="inlineStr"/>
       <c r="AG210" s="14" t="inlineStr"/>
@@ -12820,7 +12820,7 @@
       <c r="O211" s="13" t="inlineStr"/>
       <c r="P211" s="13" t="inlineStr"/>
       <c r="Q211" s="14" t="n">
-        <v>1.2E7</v>
+        <v>7200000.0</v>
       </c>
       <c r="R211" s="14" t="inlineStr"/>
       <c r="S211" s="14" t="n">
@@ -12830,23 +12830,23 @@
       <c r="U211" s="14" t="inlineStr"/>
       <c r="V211" s="14" t="inlineStr"/>
       <c r="W211" s="14" t="n">
-        <v>1212000.0</v>
+        <v>2020000.0</v>
       </c>
       <c r="X211" s="14" t="n">
-        <v>0.0</v>
+        <v>404000.0</v>
       </c>
       <c r="Y211" s="14" t="inlineStr"/>
       <c r="Z211" s="14" t="n">
-        <v>1212000.0</v>
+        <v>2424000.0</v>
       </c>
       <c r="AA211" s="14" t="inlineStr"/>
       <c r="AB211" s="14" t="inlineStr"/>
       <c r="AC211" s="15" t="n">
-        <v>0.101</v>
+        <v>0.33666666666666667</v>
       </c>
       <c r="AD211" s="15" t="inlineStr"/>
       <c r="AE211" s="14" t="n">
-        <v>1.0788E7</v>
+        <v>4776000.0</v>
       </c>
       <c r="AF211" s="14" t="inlineStr"/>
       <c r="AG211" s="14" t="inlineStr"/>
@@ -12893,23 +12893,23 @@
       <c r="U212" s="14" t="inlineStr"/>
       <c r="V212" s="14" t="inlineStr"/>
       <c r="W212" s="14" t="n">
-        <v>5711009.0</v>
+        <v>8622580.0</v>
       </c>
       <c r="X212" s="14" t="n">
-        <v>0.0</v>
+        <v>4183000.0</v>
       </c>
       <c r="Y212" s="14" t="inlineStr"/>
       <c r="Z212" s="14" t="n">
-        <v>5711009.0</v>
+        <v>1.280558E7</v>
       </c>
       <c r="AA212" s="14" t="inlineStr"/>
       <c r="AB212" s="14" t="inlineStr"/>
       <c r="AC212" s="15" t="n">
-        <v>0.3263620206868964</v>
+        <v>0.73178924509972</v>
       </c>
       <c r="AD212" s="15" t="inlineStr"/>
       <c r="AE212" s="14" t="n">
-        <v>1.1787991E7</v>
+        <v>4693420.0</v>
       </c>
       <c r="AF212" s="14" t="inlineStr"/>
       <c r="AG212" s="14" t="inlineStr"/>
@@ -12950,23 +12950,23 @@
       <c r="U213" s="14" t="inlineStr"/>
       <c r="V213" s="14" t="inlineStr"/>
       <c r="W213" s="14" t="n">
-        <v>5711009.0</v>
+        <v>8622580.0</v>
       </c>
       <c r="X213" s="14" t="n">
-        <v>0.0</v>
+        <v>4183000.0</v>
       </c>
       <c r="Y213" s="14" t="inlineStr"/>
       <c r="Z213" s="14" t="n">
-        <v>5711009.0</v>
+        <v>1.280558E7</v>
       </c>
       <c r="AA213" s="14" t="inlineStr"/>
       <c r="AB213" s="14" t="inlineStr"/>
       <c r="AC213" s="15" t="n">
-        <v>0.3263620206868964</v>
+        <v>0.73178924509972</v>
       </c>
       <c r="AD213" s="15" t="inlineStr"/>
       <c r="AE213" s="14" t="n">
-        <v>1.1787991E7</v>
+        <v>4693420.0</v>
       </c>
       <c r="AF213" s="14" t="inlineStr"/>
       <c r="AG213" s="14" t="inlineStr"/>
@@ -13003,7 +13003,7 @@
       <c r="O214" s="13" t="inlineStr"/>
       <c r="P214" s="13" t="inlineStr"/>
       <c r="Q214" s="14" t="n">
-        <v>2000000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="R214" s="14" t="inlineStr"/>
       <c r="S214" s="14" t="n">
@@ -13025,11 +13025,11 @@
       <c r="AA214" s="14" t="inlineStr"/>
       <c r="AB214" s="14" t="inlineStr"/>
       <c r="AC214" s="15" t="n">
-        <v>0.995</v>
+        <v>0.6633333333333333</v>
       </c>
       <c r="AD214" s="15" t="inlineStr"/>
       <c r="AE214" s="14" t="n">
-        <v>10000.0</v>
+        <v>1010000.0</v>
       </c>
       <c r="AF214" s="14" t="inlineStr"/>
       <c r="AG214" s="14" t="inlineStr"/>
@@ -13060,7 +13060,7 @@
       <c r="O215" s="13" t="inlineStr"/>
       <c r="P215" s="13" t="inlineStr"/>
       <c r="Q215" s="14" t="n">
-        <v>2000000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="R215" s="14" t="inlineStr"/>
       <c r="S215" s="14" t="n">
@@ -13082,11 +13082,11 @@
       <c r="AA215" s="14" t="inlineStr"/>
       <c r="AB215" s="14" t="inlineStr"/>
       <c r="AC215" s="15" t="n">
-        <v>0.995</v>
+        <v>0.6633333333333333</v>
       </c>
       <c r="AD215" s="15" t="inlineStr"/>
       <c r="AE215" s="14" t="n">
-        <v>10000.0</v>
+        <v>1010000.0</v>
       </c>
       <c r="AF215" s="14" t="inlineStr"/>
       <c r="AG215" s="14" t="inlineStr"/>
@@ -13133,23 +13133,23 @@
       <c r="U216" s="14" t="inlineStr"/>
       <c r="V216" s="14" t="inlineStr"/>
       <c r="W216" s="14" t="n">
-        <v>2.484739808E9</v>
+        <v>2.62303968E9</v>
       </c>
       <c r="X216" s="14" t="n">
         <v>6.9149936E7</v>
       </c>
       <c r="Y216" s="14" t="inlineStr"/>
       <c r="Z216" s="14" t="n">
-        <v>2.553889744E9</v>
+        <v>2.692189616E9</v>
       </c>
       <c r="AA216" s="14" t="inlineStr"/>
       <c r="AB216" s="14" t="inlineStr"/>
       <c r="AC216" s="15" t="n">
-        <v>0.8194899895329218</v>
+        <v>0.8638675359496965</v>
       </c>
       <c r="AD216" s="15" t="inlineStr"/>
       <c r="AE216" s="14" t="n">
-        <v>5.62548256E8</v>
+        <v>4.24248384E8</v>
       </c>
       <c r="AF216" s="14" t="inlineStr"/>
       <c r="AG216" s="14" t="inlineStr"/>
@@ -13190,23 +13190,23 @@
       <c r="U217" s="14" t="inlineStr"/>
       <c r="V217" s="14" t="inlineStr"/>
       <c r="W217" s="14" t="n">
-        <v>1.61916288E8</v>
+        <v>2.4455968E8</v>
       </c>
       <c r="X217" s="14" t="n">
         <v>4.1321696E7</v>
       </c>
       <c r="Y217" s="14" t="inlineStr"/>
       <c r="Z217" s="14" t="n">
-        <v>2.03237984E8</v>
+        <v>2.85881376E8</v>
       </c>
       <c r="AA217" s="14" t="inlineStr"/>
       <c r="AB217" s="14" t="inlineStr"/>
       <c r="AC217" s="15" t="n">
-        <v>0.37636663703703704</v>
+        <v>0.5294099555555556</v>
       </c>
       <c r="AD217" s="15" t="inlineStr"/>
       <c r="AE217" s="14" t="n">
-        <v>3.36762016E8</v>
+        <v>2.54118624E8</v>
       </c>
       <c r="AF217" s="14" t="inlineStr"/>
       <c r="AG217" s="14" t="inlineStr"/>
@@ -13247,23 +13247,23 @@
       <c r="U218" s="14" t="inlineStr"/>
       <c r="V218" s="14" t="inlineStr"/>
       <c r="W218" s="14" t="n">
-        <v>3.7039184E7</v>
+        <v>5.597624E7</v>
       </c>
       <c r="X218" s="14" t="n">
         <v>9468528.0</v>
       </c>
       <c r="Y218" s="14" t="inlineStr"/>
       <c r="Z218" s="14" t="n">
-        <v>4.6507712E7</v>
+        <v>6.5444768E7</v>
       </c>
       <c r="AA218" s="14" t="inlineStr"/>
       <c r="AB218" s="14" t="inlineStr"/>
       <c r="AC218" s="15" t="n">
-        <v>0.3793451223491028</v>
+        <v>0.5338072430668842</v>
       </c>
       <c r="AD218" s="15" t="inlineStr"/>
       <c r="AE218" s="14" t="n">
-        <v>7.6092288E7</v>
+        <v>5.7155232E7</v>
       </c>
       <c r="AF218" s="14" t="inlineStr"/>
       <c r="AG218" s="14" t="inlineStr"/>
@@ -13304,23 +13304,23 @@
       <c r="U219" s="14" t="inlineStr"/>
       <c r="V219" s="14" t="inlineStr"/>
       <c r="W219" s="14" t="n">
-        <v>5.3839752E7</v>
+        <v>8.129932E7</v>
       </c>
       <c r="X219" s="14" t="n">
         <v>1.3729784E7</v>
       </c>
       <c r="Y219" s="14" t="inlineStr"/>
       <c r="Z219" s="14" t="n">
-        <v>6.7569536E7</v>
+        <v>9.5029104E7</v>
       </c>
       <c r="AA219" s="14" t="inlineStr"/>
       <c r="AB219" s="14" t="inlineStr"/>
       <c r="AC219" s="15" t="n">
-        <v>0.3753863111111111</v>
+        <v>0.5279394666666667</v>
       </c>
       <c r="AD219" s="15" t="inlineStr"/>
       <c r="AE219" s="14" t="n">
-        <v>1.12430464E8</v>
+        <v>8.4970896E7</v>
       </c>
       <c r="AF219" s="14" t="inlineStr"/>
       <c r="AG219" s="14" t="inlineStr"/>
@@ -13361,23 +13361,23 @@
       <c r="U220" s="14" t="inlineStr"/>
       <c r="V220" s="14" t="inlineStr"/>
       <c r="W220" s="14" t="n">
-        <v>1.8106584E7</v>
+        <v>2.736644E7</v>
       </c>
       <c r="X220" s="14" t="n">
         <v>4629928.0</v>
       </c>
       <c r="Y220" s="14" t="inlineStr"/>
       <c r="Z220" s="14" t="n">
-        <v>2.2736512E7</v>
+        <v>3.1996368E7</v>
       </c>
       <c r="AA220" s="14" t="inlineStr"/>
       <c r="AB220" s="14" t="inlineStr"/>
       <c r="AC220" s="15" t="n">
-        <v>0.3789418666666667</v>
+        <v>0.5332728</v>
       </c>
       <c r="AD220" s="15" t="inlineStr"/>
       <c r="AE220" s="14" t="n">
-        <v>3.7263488E7</v>
+        <v>2.8003632E7</v>
       </c>
       <c r="AF220" s="14" t="inlineStr"/>
       <c r="AG220" s="14" t="inlineStr"/>
@@ -13471,7 +13471,7 @@
       <c r="O222" s="13" t="inlineStr"/>
       <c r="P222" s="13" t="inlineStr"/>
       <c r="Q222" s="14" t="n">
-        <v>1.0104E9</v>
+        <v>9.308E8</v>
       </c>
       <c r="R222" s="14" t="inlineStr"/>
       <c r="S222" s="14" t="n">
@@ -13481,23 +13481,23 @@
       <c r="U222" s="14" t="inlineStr"/>
       <c r="V222" s="14" t="inlineStr"/>
       <c r="W222" s="14" t="n">
-        <v>2.82720657E8</v>
+        <v>3.80681131E8</v>
       </c>
       <c r="X222" s="14" t="n">
-        <v>4.7012071E7</v>
+        <v>5.1938882E7</v>
       </c>
       <c r="Y222" s="14" t="inlineStr"/>
       <c r="Z222" s="14" t="n">
-        <v>3.29732728E8</v>
+        <v>4.32620013E8</v>
       </c>
       <c r="AA222" s="14" t="inlineStr"/>
       <c r="AB222" s="14" t="inlineStr"/>
       <c r="AC222" s="15" t="n">
-        <v>0.3263388044338876</v>
+        <v>0.4647829963472282</v>
       </c>
       <c r="AD222" s="15" t="inlineStr"/>
       <c r="AE222" s="14" t="n">
-        <v>6.80667272E8</v>
+        <v>4.98179987E8</v>
       </c>
       <c r="AF222" s="14" t="inlineStr"/>
       <c r="AG222" s="14" t="inlineStr"/>
@@ -13534,7 +13534,7 @@
       <c r="O223" s="13" t="inlineStr"/>
       <c r="P223" s="13" t="inlineStr"/>
       <c r="Q223" s="14" t="n">
-        <v>7.62E8</v>
+        <v>7.32E8</v>
       </c>
       <c r="R223" s="14" t="inlineStr"/>
       <c r="S223" s="14" t="n">
@@ -13544,23 +13544,23 @@
       <c r="U223" s="14" t="inlineStr"/>
       <c r="V223" s="14" t="inlineStr"/>
       <c r="W223" s="14" t="n">
-        <v>2.01799495E8</v>
+        <v>2.73406741E8</v>
       </c>
       <c r="X223" s="14" t="n">
-        <v>3.3783507E7</v>
+        <v>3.7477118E7</v>
       </c>
       <c r="Y223" s="14" t="inlineStr"/>
       <c r="Z223" s="14" t="n">
-        <v>2.35583002E8</v>
+        <v>3.10883859E8</v>
       </c>
       <c r="AA223" s="14" t="inlineStr"/>
       <c r="AB223" s="14" t="inlineStr"/>
       <c r="AC223" s="15" t="n">
-        <v>0.3091640446194226</v>
+        <v>0.42470472540983606</v>
       </c>
       <c r="AD223" s="15" t="inlineStr"/>
       <c r="AE223" s="14" t="n">
-        <v>5.26416998E8</v>
+        <v>4.21116141E8</v>
       </c>
       <c r="AF223" s="14" t="inlineStr"/>
       <c r="AG223" s="14" t="inlineStr"/>
@@ -13591,7 +13591,7 @@
       <c r="O224" s="13" t="inlineStr"/>
       <c r="P224" s="13" t="inlineStr"/>
       <c r="Q224" s="14" t="n">
-        <v>7.62E8</v>
+        <v>7.32E8</v>
       </c>
       <c r="R224" s="14" t="inlineStr"/>
       <c r="S224" s="14" t="n">
@@ -13601,23 +13601,23 @@
       <c r="U224" s="14" t="inlineStr"/>
       <c r="V224" s="14" t="inlineStr"/>
       <c r="W224" s="14" t="n">
-        <v>2.01799495E8</v>
+        <v>2.73406741E8</v>
       </c>
       <c r="X224" s="14" t="n">
-        <v>3.3783507E7</v>
+        <v>3.7477118E7</v>
       </c>
       <c r="Y224" s="14" t="inlineStr"/>
       <c r="Z224" s="14" t="n">
-        <v>2.35583002E8</v>
+        <v>3.10883859E8</v>
       </c>
       <c r="AA224" s="14" t="inlineStr"/>
       <c r="AB224" s="14" t="inlineStr"/>
       <c r="AC224" s="15" t="n">
-        <v>0.3091640446194226</v>
+        <v>0.42470472540983606</v>
       </c>
       <c r="AD224" s="15" t="inlineStr"/>
       <c r="AE224" s="14" t="n">
-        <v>5.26416998E8</v>
+        <v>4.21116141E8</v>
       </c>
       <c r="AF224" s="14" t="inlineStr"/>
       <c r="AG224" s="14" t="inlineStr"/>
@@ -13664,23 +13664,23 @@
       <c r="U225" s="14" t="inlineStr"/>
       <c r="V225" s="14" t="inlineStr"/>
       <c r="W225" s="14" t="n">
-        <v>3634806.0</v>
+        <v>4161834.0</v>
       </c>
       <c r="X225" s="14" t="n">
         <v>263514.0</v>
       </c>
       <c r="Y225" s="14" t="inlineStr"/>
       <c r="Z225" s="14" t="n">
-        <v>3898320.0</v>
+        <v>4425348.0</v>
       </c>
       <c r="AA225" s="14" t="inlineStr"/>
       <c r="AB225" s="14" t="inlineStr"/>
       <c r="AC225" s="15" t="n">
-        <v>0.81215</v>
+        <v>0.9219475</v>
       </c>
       <c r="AD225" s="15" t="inlineStr"/>
       <c r="AE225" s="14" t="n">
-        <v>901680.0</v>
+        <v>374652.0</v>
       </c>
       <c r="AF225" s="14" t="inlineStr"/>
       <c r="AG225" s="14" t="inlineStr"/>
@@ -13721,23 +13721,23 @@
       <c r="U226" s="14" t="inlineStr"/>
       <c r="V226" s="14" t="inlineStr"/>
       <c r="W226" s="14" t="n">
-        <v>3634806.0</v>
+        <v>4161834.0</v>
       </c>
       <c r="X226" s="14" t="n">
         <v>263514.0</v>
       </c>
       <c r="Y226" s="14" t="inlineStr"/>
       <c r="Z226" s="14" t="n">
-        <v>3898320.0</v>
+        <v>4425348.0</v>
       </c>
       <c r="AA226" s="14" t="inlineStr"/>
       <c r="AB226" s="14" t="inlineStr"/>
       <c r="AC226" s="15" t="n">
-        <v>0.81215</v>
+        <v>0.9219475</v>
       </c>
       <c r="AD226" s="15" t="inlineStr"/>
       <c r="AE226" s="14" t="n">
-        <v>901680.0</v>
+        <v>374652.0</v>
       </c>
       <c r="AF226" s="14" t="inlineStr"/>
       <c r="AG226" s="14" t="inlineStr"/>
@@ -13784,23 +13784,23 @@
       <c r="U227" s="14" t="inlineStr"/>
       <c r="V227" s="14" t="inlineStr"/>
       <c r="W227" s="14" t="n">
-        <v>1.50605E7</v>
+        <v>2.13328E7</v>
       </c>
       <c r="X227" s="14" t="n">
-        <v>3188100.0</v>
+        <v>3512300.0</v>
       </c>
       <c r="Y227" s="14" t="inlineStr"/>
       <c r="Z227" s="14" t="n">
-        <v>1.82486E7</v>
+        <v>2.48451E7</v>
       </c>
       <c r="AA227" s="14" t="inlineStr"/>
       <c r="AB227" s="14" t="inlineStr"/>
       <c r="AC227" s="15" t="n">
-        <v>0.4608232323232323</v>
+        <v>0.6274015151515151</v>
       </c>
       <c r="AD227" s="15" t="inlineStr"/>
       <c r="AE227" s="14" t="n">
-        <v>2.13514E7</v>
+        <v>1.47549E7</v>
       </c>
       <c r="AF227" s="14" t="inlineStr"/>
       <c r="AG227" s="14" t="inlineStr"/>
@@ -13884,23 +13884,23 @@
       <c r="U229" s="14" t="inlineStr"/>
       <c r="V229" s="14" t="inlineStr"/>
       <c r="W229" s="14" t="n">
-        <v>1.50605E7</v>
+        <v>2.13328E7</v>
       </c>
       <c r="X229" s="14" t="n">
-        <v>3188100.0</v>
+        <v>3512300.0</v>
       </c>
       <c r="Y229" s="14" t="inlineStr"/>
       <c r="Z229" s="14" t="n">
-        <v>1.82486E7</v>
+        <v>2.48451E7</v>
       </c>
       <c r="AA229" s="14" t="inlineStr"/>
       <c r="AB229" s="14" t="inlineStr"/>
       <c r="AC229" s="15" t="n">
-        <v>0.4608232323232323</v>
+        <v>0.6274015151515151</v>
       </c>
       <c r="AD229" s="15" t="inlineStr"/>
       <c r="AE229" s="14" t="n">
-        <v>2.13514E7</v>
+        <v>1.47549E7</v>
       </c>
       <c r="AF229" s="14" t="inlineStr"/>
       <c r="AG229" s="14" t="inlineStr"/>
@@ -13937,7 +13937,7 @@
       <c r="O230" s="13" t="inlineStr"/>
       <c r="P230" s="13" t="inlineStr"/>
       <c r="Q230" s="14" t="n">
-        <v>2.04E8</v>
+        <v>1.544E8</v>
       </c>
       <c r="R230" s="14" t="inlineStr"/>
       <c r="S230" s="14" t="n">
@@ -13947,23 +13947,23 @@
       <c r="U230" s="14" t="inlineStr"/>
       <c r="V230" s="14" t="inlineStr"/>
       <c r="W230" s="14" t="n">
-        <v>6.2225856E7</v>
+        <v>8.1779756E7</v>
       </c>
       <c r="X230" s="14" t="n">
-        <v>9776950.0</v>
+        <v>1.068595E7</v>
       </c>
       <c r="Y230" s="14" t="inlineStr"/>
       <c r="Z230" s="14" t="n">
-        <v>7.2002806E7</v>
+        <v>9.2465706E7</v>
       </c>
       <c r="AA230" s="14" t="inlineStr"/>
       <c r="AB230" s="14" t="inlineStr"/>
       <c r="AC230" s="15" t="n">
-        <v>0.352954931372549</v>
+        <v>0.5988711528497409</v>
       </c>
       <c r="AD230" s="15" t="inlineStr"/>
       <c r="AE230" s="14" t="n">
-        <v>1.31997194E8</v>
+        <v>6.1934294E7</v>
       </c>
       <c r="AF230" s="14" t="inlineStr"/>
       <c r="AG230" s="14" t="inlineStr"/>
@@ -13994,7 +13994,7 @@
       <c r="O231" s="13" t="inlineStr"/>
       <c r="P231" s="13" t="inlineStr"/>
       <c r="Q231" s="14" t="n">
-        <v>1.776E8</v>
+        <v>1.269E8</v>
       </c>
       <c r="R231" s="14" t="inlineStr"/>
       <c r="S231" s="14" t="n">
@@ -14004,23 +14004,23 @@
       <c r="U231" s="14" t="inlineStr"/>
       <c r="V231" s="14" t="inlineStr"/>
       <c r="W231" s="14" t="n">
-        <v>3.652605E7</v>
+        <v>5.607995E7</v>
       </c>
       <c r="X231" s="14" t="n">
         <v>9776950.0</v>
       </c>
       <c r="Y231" s="14" t="inlineStr"/>
       <c r="Z231" s="14" t="n">
-        <v>4.6303E7</v>
+        <v>6.58569E7</v>
       </c>
       <c r="AA231" s="14" t="inlineStr"/>
       <c r="AB231" s="14" t="inlineStr"/>
       <c r="AC231" s="15" t="n">
-        <v>0.2607150900900901</v>
+        <v>0.5189669030732861</v>
       </c>
       <c r="AD231" s="15" t="inlineStr"/>
       <c r="AE231" s="14" t="n">
-        <v>1.31297E8</v>
+        <v>6.10431E7</v>
       </c>
       <c r="AF231" s="14" t="inlineStr"/>
       <c r="AG231" s="14" t="inlineStr"/>
@@ -14051,7 +14051,7 @@
       <c r="O232" s="13" t="inlineStr"/>
       <c r="P232" s="13" t="inlineStr"/>
       <c r="Q232" s="14" t="n">
-        <v>2.64E7</v>
+        <v>2.75E7</v>
       </c>
       <c r="R232" s="14" t="inlineStr"/>
       <c r="S232" s="14" t="n">
@@ -14064,20 +14064,20 @@
         <v>2.5699806E7</v>
       </c>
       <c r="X232" s="14" t="n">
-        <v>0.0</v>
+        <v>909000.0</v>
       </c>
       <c r="Y232" s="14" t="inlineStr"/>
       <c r="Z232" s="14" t="n">
-        <v>2.5699806E7</v>
+        <v>2.6608806E7</v>
       </c>
       <c r="AA232" s="14" t="inlineStr"/>
       <c r="AB232" s="14" t="inlineStr"/>
       <c r="AC232" s="15" t="n">
-        <v>0.9734775</v>
+        <v>0.9675929454545454</v>
       </c>
       <c r="AD232" s="15" t="inlineStr"/>
       <c r="AE232" s="14" t="n">
-        <v>700194.0</v>
+        <v>891194.0</v>
       </c>
       <c r="AF232" s="14" t="inlineStr"/>
       <c r="AG232" s="14" t="inlineStr"/>
@@ -14114,7 +14114,7 @@
       <c r="O233" s="13" t="inlineStr"/>
       <c r="P233" s="13" t="inlineStr"/>
       <c r="Q233" s="14" t="n">
-        <v>6.28535E8</v>
+        <v>7.08135E8</v>
       </c>
       <c r="R233" s="14" t="inlineStr"/>
       <c r="S233" s="14" t="n">
@@ -14124,23 +14124,23 @@
       <c r="U233" s="14" t="inlineStr"/>
       <c r="V233" s="14" t="inlineStr"/>
       <c r="W233" s="14" t="n">
-        <v>2.17522993E8</v>
+        <v>3.51036398E8</v>
       </c>
       <c r="X233" s="14" t="n">
-        <v>3.7115483E7</v>
+        <v>3.355257E7</v>
       </c>
       <c r="Y233" s="14" t="inlineStr"/>
       <c r="Z233" s="14" t="n">
-        <v>2.54638476E8</v>
+        <v>3.84588968E8</v>
       </c>
       <c r="AA233" s="14" t="inlineStr"/>
       <c r="AB233" s="14" t="inlineStr"/>
       <c r="AC233" s="15" t="n">
-        <v>0.4051301454970686</v>
+        <v>0.543101199630014</v>
       </c>
       <c r="AD233" s="15" t="inlineStr"/>
       <c r="AE233" s="14" t="n">
-        <v>3.73896524E8</v>
+        <v>3.23546032E8</v>
       </c>
       <c r="AF233" s="14" t="inlineStr"/>
       <c r="AG233" s="14" t="inlineStr"/>
@@ -14177,7 +14177,7 @@
       <c r="O234" s="13" t="inlineStr"/>
       <c r="P234" s="13" t="inlineStr"/>
       <c r="Q234" s="14" t="n">
-        <v>1.0E8</v>
+        <v>2.0E8</v>
       </c>
       <c r="R234" s="14" t="inlineStr"/>
       <c r="S234" s="14" t="n">
@@ -14187,23 +14187,23 @@
       <c r="U234" s="14" t="inlineStr"/>
       <c r="V234" s="14" t="inlineStr"/>
       <c r="W234" s="14" t="n">
-        <v>5.454E7</v>
+        <v>9.9195E7</v>
       </c>
       <c r="X234" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y234" s="14" t="inlineStr"/>
       <c r="Z234" s="14" t="n">
-        <v>5.454E7</v>
+        <v>9.9195E7</v>
       </c>
       <c r="AA234" s="14" t="inlineStr"/>
       <c r="AB234" s="14" t="inlineStr"/>
       <c r="AC234" s="15" t="n">
-        <v>0.5454</v>
+        <v>0.495975</v>
       </c>
       <c r="AD234" s="15" t="inlineStr"/>
       <c r="AE234" s="14" t="n">
-        <v>4.546E7</v>
+        <v>1.00805E8</v>
       </c>
       <c r="AF234" s="14" t="inlineStr"/>
       <c r="AG234" s="14" t="inlineStr"/>
@@ -14234,7 +14234,7 @@
       <c r="O235" s="13" t="inlineStr"/>
       <c r="P235" s="13" t="inlineStr"/>
       <c r="Q235" s="14" t="n">
-        <v>1.0E8</v>
+        <v>1.8E8</v>
       </c>
       <c r="R235" s="14" t="inlineStr"/>
       <c r="S235" s="14" t="n">
@@ -14244,23 +14244,23 @@
       <c r="U235" s="14" t="inlineStr"/>
       <c r="V235" s="14" t="inlineStr"/>
       <c r="W235" s="14" t="n">
-        <v>5.454E7</v>
+        <v>8.8315E7</v>
       </c>
       <c r="X235" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y235" s="14" t="inlineStr"/>
       <c r="Z235" s="14" t="n">
-        <v>5.454E7</v>
+        <v>8.8315E7</v>
       </c>
       <c r="AA235" s="14" t="inlineStr"/>
       <c r="AB235" s="14" t="inlineStr"/>
       <c r="AC235" s="15" t="n">
-        <v>0.5454</v>
+        <v>0.4906388888888889</v>
       </c>
       <c r="AD235" s="15" t="inlineStr"/>
       <c r="AE235" s="14" t="n">
-        <v>4.546E7</v>
+        <v>9.1685E7</v>
       </c>
       <c r="AF235" s="14" t="inlineStr"/>
       <c r="AG235" s="14" t="inlineStr"/>
@@ -14275,29 +14275,23 @@
       <c r="E236" s="2" t="inlineStr"/>
       <c r="F236" s="2" t="inlineStr"/>
       <c r="G236" s="2" t="inlineStr"/>
-      <c r="H236" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">522191</t>
-          </r>
-        </is>
-      </c>
-      <c r="I236" s="13" t="inlineStr"/>
-      <c r="J236" s="13" t="inlineStr"/>
-      <c r="K236" s="13" t="inlineStr"/>
-      <c r="L236" s="13" t="inlineStr"/>
-      <c r="M236" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Belanja Jasa Lainnya</t>
-          </r>
-        </is>
-      </c>
-      <c r="N236" s="13" t="inlineStr"/>
+      <c r="H236" s="2" t="inlineStr"/>
+      <c r="I236" s="2" t="inlineStr"/>
+      <c r="J236" s="2" t="inlineStr"/>
+      <c r="K236" s="2" t="inlineStr"/>
+      <c r="L236" s="2" t="inlineStr"/>
+      <c r="M236" s="2" t="inlineStr"/>
+      <c r="N236" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">000286. Bahan Baku Pakan Ikan</t>
+          </r>
+        </is>
+      </c>
       <c r="O236" s="13" t="inlineStr"/>
       <c r="P236" s="13" t="inlineStr"/>
       <c r="Q236" s="14" t="n">
-        <v>2.526E7</v>
+        <v>2.0E7</v>
       </c>
       <c r="R236" s="14" t="inlineStr"/>
       <c r="S236" s="14" t="n">
@@ -14307,23 +14301,23 @@
       <c r="U236" s="14" t="inlineStr"/>
       <c r="V236" s="14" t="inlineStr"/>
       <c r="W236" s="14" t="n">
-        <v>2.5259715E7</v>
+        <v>1.088E7</v>
       </c>
       <c r="X236" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y236" s="14" t="inlineStr"/>
       <c r="Z236" s="14" t="n">
-        <v>2.5259715E7</v>
+        <v>1.088E7</v>
       </c>
       <c r="AA236" s="14" t="inlineStr"/>
       <c r="AB236" s="14" t="inlineStr"/>
       <c r="AC236" s="15" t="n">
-        <v>0.9999887173396674</v>
+        <v>0.544</v>
       </c>
       <c r="AD236" s="15" t="inlineStr"/>
       <c r="AE236" s="14" t="n">
-        <v>285.0</v>
+        <v>9120000.0</v>
       </c>
       <c r="AF236" s="14" t="inlineStr"/>
       <c r="AG236" s="14" t="inlineStr"/>
@@ -14338,19 +14332,25 @@
       <c r="E237" s="2" t="inlineStr"/>
       <c r="F237" s="2" t="inlineStr"/>
       <c r="G237" s="2" t="inlineStr"/>
-      <c r="H237" s="2" t="inlineStr"/>
-      <c r="I237" s="2" t="inlineStr"/>
-      <c r="J237" s="2" t="inlineStr"/>
-      <c r="K237" s="2" t="inlineStr"/>
-      <c r="L237" s="2" t="inlineStr"/>
-      <c r="M237" s="2" t="inlineStr"/>
-      <c r="N237" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">000242. Jasa Penanganan Rayap</t>
-          </r>
-        </is>
-      </c>
+      <c r="H237" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">522191</t>
+          </r>
+        </is>
+      </c>
+      <c r="I237" s="13" t="inlineStr"/>
+      <c r="J237" s="13" t="inlineStr"/>
+      <c r="K237" s="13" t="inlineStr"/>
+      <c r="L237" s="13" t="inlineStr"/>
+      <c r="M237" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Belanja Jasa Lainnya</t>
+          </r>
+        </is>
+      </c>
+      <c r="N237" s="13" t="inlineStr"/>
       <c r="O237" s="13" t="inlineStr"/>
       <c r="P237" s="13" t="inlineStr"/>
       <c r="Q237" s="14" t="n">
@@ -14395,29 +14395,23 @@
       <c r="E238" s="2" t="inlineStr"/>
       <c r="F238" s="2" t="inlineStr"/>
       <c r="G238" s="2" t="inlineStr"/>
-      <c r="H238" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">523111</t>
-          </r>
-        </is>
-      </c>
-      <c r="I238" s="13" t="inlineStr"/>
-      <c r="J238" s="13" t="inlineStr"/>
-      <c r="K238" s="13" t="inlineStr"/>
-      <c r="L238" s="13" t="inlineStr"/>
-      <c r="M238" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Belanja Pemeliharaan Gedung dan Bangunan</t>
-          </r>
-        </is>
-      </c>
-      <c r="N238" s="13" t="inlineStr"/>
+      <c r="H238" s="2" t="inlineStr"/>
+      <c r="I238" s="2" t="inlineStr"/>
+      <c r="J238" s="2" t="inlineStr"/>
+      <c r="K238" s="2" t="inlineStr"/>
+      <c r="L238" s="2" t="inlineStr"/>
+      <c r="M238" s="2" t="inlineStr"/>
+      <c r="N238" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">000242. Jasa Penanganan Rayap</t>
+          </r>
+        </is>
+      </c>
       <c r="O238" s="13" t="inlineStr"/>
       <c r="P238" s="13" t="inlineStr"/>
       <c r="Q238" s="14" t="n">
-        <v>2.25915E8</v>
+        <v>2.526E7</v>
       </c>
       <c r="R238" s="14" t="inlineStr"/>
       <c r="S238" s="14" t="n">
@@ -14427,23 +14421,23 @@
       <c r="U238" s="14" t="inlineStr"/>
       <c r="V238" s="14" t="inlineStr"/>
       <c r="W238" s="14" t="n">
-        <v>5.3012836E7</v>
+        <v>2.5259715E7</v>
       </c>
       <c r="X238" s="14" t="n">
-        <v>1.948549E7</v>
+        <v>0.0</v>
       </c>
       <c r="Y238" s="14" t="inlineStr"/>
       <c r="Z238" s="14" t="n">
-        <v>7.2498326E7</v>
+        <v>2.5259715E7</v>
       </c>
       <c r="AA238" s="14" t="inlineStr"/>
       <c r="AB238" s="14" t="inlineStr"/>
       <c r="AC238" s="15" t="n">
-        <v>0.3209097492419715</v>
+        <v>0.9999887173396674</v>
       </c>
       <c r="AD238" s="15" t="inlineStr"/>
       <c r="AE238" s="14" t="n">
-        <v>1.53416674E8</v>
+        <v>285.0</v>
       </c>
       <c r="AF238" s="14" t="inlineStr"/>
       <c r="AG238" s="14" t="inlineStr"/>
@@ -14458,23 +14452,29 @@
       <c r="E239" s="2" t="inlineStr"/>
       <c r="F239" s="2" t="inlineStr"/>
       <c r="G239" s="2" t="inlineStr"/>
-      <c r="H239" s="2" t="inlineStr"/>
-      <c r="I239" s="2" t="inlineStr"/>
-      <c r="J239" s="2" t="inlineStr"/>
-      <c r="K239" s="2" t="inlineStr"/>
-      <c r="L239" s="2" t="inlineStr"/>
-      <c r="M239" s="2" t="inlineStr"/>
-      <c r="N239" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">000157. Pemeliharaan Kantor Cibalagung</t>
-          </r>
-        </is>
-      </c>
+      <c r="H239" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">523111</t>
+          </r>
+        </is>
+      </c>
+      <c r="I239" s="13" t="inlineStr"/>
+      <c r="J239" s="13" t="inlineStr"/>
+      <c r="K239" s="13" t="inlineStr"/>
+      <c r="L239" s="13" t="inlineStr"/>
+      <c r="M239" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Belanja Pemeliharaan Gedung dan Bangunan</t>
+          </r>
+        </is>
+      </c>
+      <c r="N239" s="13" t="inlineStr"/>
       <c r="O239" s="13" t="inlineStr"/>
       <c r="P239" s="13" t="inlineStr"/>
       <c r="Q239" s="14" t="n">
-        <v>2.56E7</v>
+        <v>1.97915E8</v>
       </c>
       <c r="R239" s="14" t="inlineStr"/>
       <c r="S239" s="14" t="n">
@@ -14484,30 +14484,30 @@
       <c r="U239" s="14" t="inlineStr"/>
       <c r="V239" s="14" t="inlineStr"/>
       <c r="W239" s="14" t="n">
-        <v>1.1521622E7</v>
+        <v>9.0095326E7</v>
       </c>
       <c r="X239" s="14" t="n">
-        <v>0.0</v>
+        <v>2.0236E7</v>
       </c>
       <c r="Y239" s="14" t="inlineStr"/>
       <c r="Z239" s="14" t="n">
-        <v>1.1521622E7</v>
+        <v>1.10331326E8</v>
       </c>
       <c r="AA239" s="14" t="inlineStr"/>
       <c r="AB239" s="14" t="inlineStr"/>
       <c r="AC239" s="15" t="n">
-        <v>0.450063359375</v>
+        <v>0.5574682363640957</v>
       </c>
       <c r="AD239" s="15" t="inlineStr"/>
       <c r="AE239" s="14" t="n">
-        <v>1.4078378E7</v>
+        <v>8.7583674E7</v>
       </c>
       <c r="AF239" s="14" t="inlineStr"/>
       <c r="AG239" s="14" t="inlineStr"/>
       <c r="AH239" s="14" t="inlineStr"/>
       <c r="AI239" s="14" t="inlineStr"/>
     </row>
-    <row r="240" customHeight="1" ht="18">
+    <row r="240" customHeight="1" ht="15">
       <c r="A240" s="2" t="inlineStr"/>
       <c r="B240" s="2" t="inlineStr"/>
       <c r="C240" s="2" t="inlineStr"/>
@@ -14524,14 +14524,14 @@
       <c r="N240" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000158. Pemeliharaan Hatchery dan Laboratorium Cibalagung</t>
+            <t xml:space="preserve">000157. Pemeliharaan Kantor Cibalagung</t>
           </r>
         </is>
       </c>
       <c r="O240" s="13" t="inlineStr"/>
       <c r="P240" s="13" t="inlineStr"/>
       <c r="Q240" s="14" t="n">
-        <v>1.575E7</v>
+        <v>2.56E7</v>
       </c>
       <c r="R240" s="14" t="inlineStr"/>
       <c r="S240" s="14" t="n">
@@ -14541,30 +14541,30 @@
       <c r="U240" s="14" t="inlineStr"/>
       <c r="V240" s="14" t="inlineStr"/>
       <c r="W240" s="14" t="n">
-        <v>1.0101299E7</v>
+        <v>1.5716622E7</v>
       </c>
       <c r="X240" s="14" t="n">
-        <v>0.0</v>
+        <v>1215000.0</v>
       </c>
       <c r="Y240" s="14" t="inlineStr"/>
       <c r="Z240" s="14" t="n">
-        <v>1.0101299E7</v>
+        <v>1.6931622E7</v>
       </c>
       <c r="AA240" s="14" t="inlineStr"/>
       <c r="AB240" s="14" t="inlineStr"/>
       <c r="AC240" s="15" t="n">
-        <v>0.6413523174603175</v>
+        <v>0.661391484375</v>
       </c>
       <c r="AD240" s="15" t="inlineStr"/>
       <c r="AE240" s="14" t="n">
-        <v>5648701.0</v>
+        <v>8668378.0</v>
       </c>
       <c r="AF240" s="14" t="inlineStr"/>
       <c r="AG240" s="14" t="inlineStr"/>
       <c r="AH240" s="14" t="inlineStr"/>
       <c r="AI240" s="14" t="inlineStr"/>
     </row>
-    <row r="241" customHeight="1" ht="15">
+    <row r="241" customHeight="1" ht="18">
       <c r="A241" s="2" t="inlineStr"/>
       <c r="B241" s="2" t="inlineStr"/>
       <c r="C241" s="2" t="inlineStr"/>
@@ -14581,14 +14581,14 @@
       <c r="N241" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000159. Pemeliharaan Kolam Cibalagung</t>
+            <t xml:space="preserve">000158. Pemeliharaan Hatchery dan Laboratorium Cibalagung</t>
           </r>
         </is>
       </c>
       <c r="O241" s="13" t="inlineStr"/>
       <c r="P241" s="13" t="inlineStr"/>
       <c r="Q241" s="14" t="n">
-        <v>2.595E7</v>
+        <v>1.575E7</v>
       </c>
       <c r="R241" s="14" t="inlineStr"/>
       <c r="S241" s="14" t="n">
@@ -14598,23 +14598,23 @@
       <c r="U241" s="14" t="inlineStr"/>
       <c r="V241" s="14" t="inlineStr"/>
       <c r="W241" s="14" t="n">
-        <v>300000.0</v>
+        <v>1.0101299E7</v>
       </c>
       <c r="X241" s="14" t="n">
-        <v>0.0</v>
+        <v>1055000.0</v>
       </c>
       <c r="Y241" s="14" t="inlineStr"/>
       <c r="Z241" s="14" t="n">
-        <v>300000.0</v>
+        <v>1.1156299E7</v>
       </c>
       <c r="AA241" s="14" t="inlineStr"/>
       <c r="AB241" s="14" t="inlineStr"/>
       <c r="AC241" s="15" t="n">
-        <v>0.011560693641618497</v>
+        <v>0.7083364444444444</v>
       </c>
       <c r="AD241" s="15" t="inlineStr"/>
       <c r="AE241" s="14" t="n">
-        <v>2.565E7</v>
+        <v>4593701.0</v>
       </c>
       <c r="AF241" s="14" t="inlineStr"/>
       <c r="AG241" s="14" t="inlineStr"/>
@@ -14638,14 +14638,14 @@
       <c r="N242" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000160. Pemeliharaan Pagar Keliling Cibalagung</t>
+            <t xml:space="preserve">000159. Pemeliharaan Kolam Cibalagung</t>
           </r>
         </is>
       </c>
       <c r="O242" s="13" t="inlineStr"/>
       <c r="P242" s="13" t="inlineStr"/>
       <c r="Q242" s="14" t="n">
-        <v>2170000.0</v>
+        <v>2.595E7</v>
       </c>
       <c r="R242" s="14" t="inlineStr"/>
       <c r="S242" s="14" t="n">
@@ -14655,23 +14655,23 @@
       <c r="U242" s="14" t="inlineStr"/>
       <c r="V242" s="14" t="inlineStr"/>
       <c r="W242" s="14" t="n">
-        <v>2167000.0</v>
+        <v>1.155E7</v>
       </c>
       <c r="X242" s="14" t="n">
-        <v>0.0</v>
+        <v>1.3777E7</v>
       </c>
       <c r="Y242" s="14" t="inlineStr"/>
       <c r="Z242" s="14" t="n">
-        <v>2167000.0</v>
+        <v>2.5327E7</v>
       </c>
       <c r="AA242" s="14" t="inlineStr"/>
       <c r="AB242" s="14" t="inlineStr"/>
       <c r="AC242" s="15" t="n">
-        <v>0.9986175115207373</v>
+        <v>0.9759922928709056</v>
       </c>
       <c r="AD242" s="15" t="inlineStr"/>
       <c r="AE242" s="14" t="n">
-        <v>3000.0</v>
+        <v>623000.0</v>
       </c>
       <c r="AF242" s="14" t="inlineStr"/>
       <c r="AG242" s="14" t="inlineStr"/>
@@ -14695,14 +14695,14 @@
       <c r="N243" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000161. Pemeliharaan Kantor Sempur</t>
+            <t xml:space="preserve">000160. Pemeliharaan Pagar Keliling Cibalagung</t>
           </r>
         </is>
       </c>
       <c r="O243" s="13" t="inlineStr"/>
       <c r="P243" s="13" t="inlineStr"/>
       <c r="Q243" s="14" t="n">
-        <v>5.79E7</v>
+        <v>2170000.0</v>
       </c>
       <c r="R243" s="14" t="inlineStr"/>
       <c r="S243" s="14" t="n">
@@ -14712,23 +14712,23 @@
       <c r="U243" s="14" t="inlineStr"/>
       <c r="V243" s="14" t="inlineStr"/>
       <c r="W243" s="14" t="n">
-        <v>1975000.0</v>
+        <v>2167000.0</v>
       </c>
       <c r="X243" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y243" s="14" t="inlineStr"/>
       <c r="Z243" s="14" t="n">
-        <v>1975000.0</v>
+        <v>2167000.0</v>
       </c>
       <c r="AA243" s="14" t="inlineStr"/>
       <c r="AB243" s="14" t="inlineStr"/>
       <c r="AC243" s="15" t="n">
-        <v>0.034110535405872194</v>
+        <v>0.9986175115207373</v>
       </c>
       <c r="AD243" s="15" t="inlineStr"/>
       <c r="AE243" s="14" t="n">
-        <v>5.5925E7</v>
+        <v>3000.0</v>
       </c>
       <c r="AF243" s="14" t="inlineStr"/>
       <c r="AG243" s="14" t="inlineStr"/>
@@ -14752,14 +14752,14 @@
       <c r="N244" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000164. Pemeliharaan Kantor Depok</t>
+            <t xml:space="preserve">000161. Pemeliharaan Kantor Sempur</t>
           </r>
         </is>
       </c>
       <c r="O244" s="13" t="inlineStr"/>
       <c r="P244" s="13" t="inlineStr"/>
       <c r="Q244" s="14" t="n">
-        <v>2800000.0</v>
+        <v>2.69E7</v>
       </c>
       <c r="R244" s="14" t="inlineStr"/>
       <c r="S244" s="14" t="n">
@@ -14769,23 +14769,23 @@
       <c r="U244" s="14" t="inlineStr"/>
       <c r="V244" s="14" t="inlineStr"/>
       <c r="W244" s="14" t="n">
-        <v>1360000.0</v>
+        <v>2475000.0</v>
       </c>
       <c r="X244" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y244" s="14" t="inlineStr"/>
       <c r="Z244" s="14" t="n">
-        <v>1360000.0</v>
+        <v>2475000.0</v>
       </c>
       <c r="AA244" s="14" t="inlineStr"/>
       <c r="AB244" s="14" t="inlineStr"/>
       <c r="AC244" s="15" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.09200743494423792</v>
       </c>
       <c r="AD244" s="15" t="inlineStr"/>
       <c r="AE244" s="14" t="n">
-        <v>1440000.0</v>
+        <v>2.4425E7</v>
       </c>
       <c r="AF244" s="14" t="inlineStr"/>
       <c r="AG244" s="14" t="inlineStr"/>
@@ -14809,14 +14809,14 @@
       <c r="N245" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000165. Pemeliharaan Gedung Laboratorium Depok</t>
+            <t xml:space="preserve">000164. Pemeliharaan Kantor Depok</t>
           </r>
         </is>
       </c>
       <c r="O245" s="13" t="inlineStr"/>
       <c r="P245" s="13" t="inlineStr"/>
       <c r="Q245" s="14" t="n">
-        <v>2.66E7</v>
+        <v>2800000.0</v>
       </c>
       <c r="R245" s="14" t="inlineStr"/>
       <c r="S245" s="14" t="n">
@@ -14826,23 +14826,23 @@
       <c r="U245" s="14" t="inlineStr"/>
       <c r="V245" s="14" t="inlineStr"/>
       <c r="W245" s="14" t="n">
-        <v>6578415.0</v>
+        <v>1360000.0</v>
       </c>
       <c r="X245" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y245" s="14" t="inlineStr"/>
       <c r="Z245" s="14" t="n">
-        <v>6578415.0</v>
+        <v>1360000.0</v>
       </c>
       <c r="AA245" s="14" t="inlineStr"/>
       <c r="AB245" s="14" t="inlineStr"/>
       <c r="AC245" s="15" t="n">
-        <v>0.24730883458646616</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="AD245" s="15" t="inlineStr"/>
       <c r="AE245" s="14" t="n">
-        <v>2.0021585E7</v>
+        <v>1440000.0</v>
       </c>
       <c r="AF245" s="14" t="inlineStr"/>
       <c r="AG245" s="14" t="inlineStr"/>
@@ -14866,14 +14866,14 @@
       <c r="N246" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000167. Pemeliharaan Halaman Kantor Depok</t>
+            <t xml:space="preserve">000165. Pemeliharaan Gedung Laboratorium Depok</t>
           </r>
         </is>
       </c>
       <c r="O246" s="13" t="inlineStr"/>
       <c r="P246" s="13" t="inlineStr"/>
       <c r="Q246" s="14" t="n">
-        <v>1.443E7</v>
+        <v>2.66E7</v>
       </c>
       <c r="R246" s="14" t="inlineStr"/>
       <c r="S246" s="14" t="n">
@@ -14883,23 +14883,23 @@
       <c r="U246" s="14" t="inlineStr"/>
       <c r="V246" s="14" t="inlineStr"/>
       <c r="W246" s="14" t="n">
-        <v>1.443E7</v>
+        <v>6578415.0</v>
       </c>
       <c r="X246" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y246" s="14" t="inlineStr"/>
       <c r="Z246" s="14" t="n">
-        <v>1.443E7</v>
+        <v>6578415.0</v>
       </c>
       <c r="AA246" s="14" t="inlineStr"/>
       <c r="AB246" s="14" t="inlineStr"/>
       <c r="AC246" s="15" t="n">
-        <v>1.0</v>
+        <v>0.24730883458646616</v>
       </c>
       <c r="AD246" s="15" t="inlineStr"/>
       <c r="AE246" s="14" t="n">
-        <v>0.0</v>
+        <v>2.0021585E7</v>
       </c>
       <c r="AF246" s="14" t="inlineStr"/>
       <c r="AG246" s="14" t="inlineStr"/>
@@ -14923,14 +14923,14 @@
       <c r="N247" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000170. Pemeliharaan Halaman Kantor Sempur</t>
+            <t xml:space="preserve">000167. Pemeliharaan Halaman Kantor Depok</t>
           </r>
         </is>
       </c>
       <c r="O247" s="13" t="inlineStr"/>
       <c r="P247" s="13" t="inlineStr"/>
       <c r="Q247" s="14" t="n">
-        <v>1115000.0</v>
+        <v>1.443E7</v>
       </c>
       <c r="R247" s="14" t="inlineStr"/>
       <c r="S247" s="14" t="n">
@@ -14940,23 +14940,23 @@
       <c r="U247" s="14" t="inlineStr"/>
       <c r="V247" s="14" t="inlineStr"/>
       <c r="W247" s="14" t="n">
-        <v>1101500.0</v>
+        <v>1.443E7</v>
       </c>
       <c r="X247" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y247" s="14" t="inlineStr"/>
       <c r="Z247" s="14" t="n">
-        <v>1101500.0</v>
+        <v>1.443E7</v>
       </c>
       <c r="AA247" s="14" t="inlineStr"/>
       <c r="AB247" s="14" t="inlineStr"/>
       <c r="AC247" s="15" t="n">
-        <v>0.9878923766816143</v>
+        <v>1.0</v>
       </c>
       <c r="AD247" s="15" t="inlineStr"/>
       <c r="AE247" s="14" t="n">
-        <v>13500.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF247" s="14" t="inlineStr"/>
       <c r="AG247" s="14" t="inlineStr"/>
@@ -14980,14 +14980,14 @@
       <c r="N248" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000241. Pemeliharaan Rumah Dinas Cibalagung</t>
+            <t xml:space="preserve">000170. Pemeliharaan Halaman Kantor Sempur</t>
           </r>
         </is>
       </c>
       <c r="O248" s="13" t="inlineStr"/>
       <c r="P248" s="13" t="inlineStr"/>
       <c r="Q248" s="14" t="n">
-        <v>7000000.0</v>
+        <v>4115000.0</v>
       </c>
       <c r="R248" s="14" t="inlineStr"/>
       <c r="S248" s="14" t="n">
@@ -14997,23 +14997,23 @@
       <c r="U248" s="14" t="inlineStr"/>
       <c r="V248" s="14" t="inlineStr"/>
       <c r="W248" s="14" t="n">
-        <v>3478000.0</v>
+        <v>1101500.0</v>
       </c>
       <c r="X248" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y248" s="14" t="inlineStr"/>
       <c r="Z248" s="14" t="n">
-        <v>3478000.0</v>
+        <v>1101500.0</v>
       </c>
       <c r="AA248" s="14" t="inlineStr"/>
       <c r="AB248" s="14" t="inlineStr"/>
       <c r="AC248" s="15" t="n">
-        <v>0.49685714285714283</v>
+        <v>0.26767922235722963</v>
       </c>
       <c r="AD248" s="15" t="inlineStr"/>
       <c r="AE248" s="14" t="n">
-        <v>3522000.0</v>
+        <v>3013500.0</v>
       </c>
       <c r="AF248" s="14" t="inlineStr"/>
       <c r="AG248" s="14" t="inlineStr"/>
@@ -15037,14 +15037,14 @@
       <c r="N249" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000264. Pemeliharaan Kolam Cijeruk</t>
+            <t xml:space="preserve">000241. Pemeliharaan Rumah Dinas Cibalagung</t>
           </r>
         </is>
       </c>
       <c r="O249" s="13" t="inlineStr"/>
       <c r="P249" s="13" t="inlineStr"/>
       <c r="Q249" s="14" t="n">
-        <v>2.07E7</v>
+        <v>7000000.0</v>
       </c>
       <c r="R249" s="14" t="inlineStr"/>
       <c r="S249" s="14" t="n">
@@ -15054,23 +15054,23 @@
       <c r="U249" s="14" t="inlineStr"/>
       <c r="V249" s="14" t="inlineStr"/>
       <c r="W249" s="14" t="n">
-        <v>0.0</v>
+        <v>3880000.0</v>
       </c>
       <c r="X249" s="14" t="n">
-        <v>1.1095E7</v>
+        <v>0.0</v>
       </c>
       <c r="Y249" s="14" t="inlineStr"/>
       <c r="Z249" s="14" t="n">
-        <v>1.1095E7</v>
+        <v>3880000.0</v>
       </c>
       <c r="AA249" s="14" t="inlineStr"/>
       <c r="AB249" s="14" t="inlineStr"/>
       <c r="AC249" s="15" t="n">
-        <v>0.5359903381642512</v>
+        <v>0.5542857142857143</v>
       </c>
       <c r="AD249" s="15" t="inlineStr"/>
       <c r="AE249" s="14" t="n">
-        <v>9605000.0</v>
+        <v>3120000.0</v>
       </c>
       <c r="AF249" s="14" t="inlineStr"/>
       <c r="AG249" s="14" t="inlineStr"/>
@@ -15094,14 +15094,14 @@
       <c r="N250" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000280. Pemeliharaan Kantor Cijeruk</t>
+            <t xml:space="preserve">000264. Pemeliharaan Kolam Cijeruk</t>
           </r>
         </is>
       </c>
       <c r="O250" s="13" t="inlineStr"/>
       <c r="P250" s="13" t="inlineStr"/>
       <c r="Q250" s="14" t="n">
-        <v>1.59E7</v>
+        <v>2.07E7</v>
       </c>
       <c r="R250" s="14" t="inlineStr"/>
       <c r="S250" s="14" t="n">
@@ -15111,23 +15111,23 @@
       <c r="U250" s="14" t="inlineStr"/>
       <c r="V250" s="14" t="inlineStr"/>
       <c r="W250" s="14" t="n">
-        <v>0.0</v>
+        <v>1.1095E7</v>
       </c>
       <c r="X250" s="14" t="n">
-        <v>0.0</v>
+        <v>4189000.0</v>
       </c>
       <c r="Y250" s="14" t="inlineStr"/>
       <c r="Z250" s="14" t="n">
-        <v>0.0</v>
+        <v>1.5284E7</v>
       </c>
       <c r="AA250" s="14" t="inlineStr"/>
       <c r="AB250" s="14" t="inlineStr"/>
       <c r="AC250" s="15" t="n">
-        <v>0.0</v>
+        <v>0.7383574879227053</v>
       </c>
       <c r="AD250" s="15" t="inlineStr"/>
       <c r="AE250" s="14" t="n">
-        <v>1.59E7</v>
+        <v>5416000.0</v>
       </c>
       <c r="AF250" s="14" t="inlineStr"/>
       <c r="AG250" s="14" t="inlineStr"/>
@@ -15151,14 +15151,14 @@
       <c r="N251" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000281. Pemeliharaan Pagar Keliling Depok</t>
+            <t xml:space="preserve">000280. Pemeliharaan Kantor Cijeruk</t>
           </r>
         </is>
       </c>
       <c r="O251" s="13" t="inlineStr"/>
       <c r="P251" s="13" t="inlineStr"/>
       <c r="Q251" s="14" t="n">
-        <v>1.0E7</v>
+        <v>1.59E7</v>
       </c>
       <c r="R251" s="14" t="inlineStr"/>
       <c r="S251" s="14" t="n">
@@ -15171,20 +15171,20 @@
         <v>0.0</v>
       </c>
       <c r="X251" s="14" t="n">
-        <v>8390490.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y251" s="14" t="inlineStr"/>
       <c r="Z251" s="14" t="n">
-        <v>8390490.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA251" s="14" t="inlineStr"/>
       <c r="AB251" s="14" t="inlineStr"/>
       <c r="AC251" s="15" t="n">
-        <v>0.839049</v>
+        <v>0.0</v>
       </c>
       <c r="AD251" s="15" t="inlineStr"/>
       <c r="AE251" s="14" t="n">
-        <v>1609510.0</v>
+        <v>1.59E7</v>
       </c>
       <c r="AF251" s="14" t="inlineStr"/>
       <c r="AG251" s="14" t="inlineStr"/>
@@ -15199,29 +15199,23 @@
       <c r="E252" s="2" t="inlineStr"/>
       <c r="F252" s="2" t="inlineStr"/>
       <c r="G252" s="2" t="inlineStr"/>
-      <c r="H252" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">523121</t>
-          </r>
-        </is>
-      </c>
-      <c r="I252" s="13" t="inlineStr"/>
-      <c r="J252" s="13" t="inlineStr"/>
-      <c r="K252" s="13" t="inlineStr"/>
-      <c r="L252" s="13" t="inlineStr"/>
-      <c r="M252" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Belanja Pemeliharaan Peralatan dan Mesin</t>
-          </r>
-        </is>
-      </c>
-      <c r="N252" s="13" t="inlineStr"/>
+      <c r="H252" s="2" t="inlineStr"/>
+      <c r="I252" s="2" t="inlineStr"/>
+      <c r="J252" s="2" t="inlineStr"/>
+      <c r="K252" s="2" t="inlineStr"/>
+      <c r="L252" s="2" t="inlineStr"/>
+      <c r="M252" s="2" t="inlineStr"/>
+      <c r="N252" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">000281. Pemeliharaan Pagar Keliling Depok</t>
+          </r>
+        </is>
+      </c>
       <c r="O252" s="13" t="inlineStr"/>
       <c r="P252" s="13" t="inlineStr"/>
       <c r="Q252" s="14" t="n">
-        <v>1.9626E8</v>
+        <v>1.0E7</v>
       </c>
       <c r="R252" s="14" t="inlineStr"/>
       <c r="S252" s="14" t="n">
@@ -15231,23 +15225,23 @@
       <c r="U252" s="14" t="inlineStr"/>
       <c r="V252" s="14" t="inlineStr"/>
       <c r="W252" s="14" t="n">
-        <v>4.5620442E7</v>
+        <v>9640490.0</v>
       </c>
       <c r="X252" s="14" t="n">
-        <v>1.7629993E7</v>
+        <v>0.0</v>
       </c>
       <c r="Y252" s="14" t="inlineStr"/>
       <c r="Z252" s="14" t="n">
-        <v>6.3250435E7</v>
+        <v>9640490.0</v>
       </c>
       <c r="AA252" s="14" t="inlineStr"/>
       <c r="AB252" s="14" t="inlineStr"/>
       <c r="AC252" s="15" t="n">
-        <v>0.3222787883419953</v>
+        <v>0.964049</v>
       </c>
       <c r="AD252" s="15" t="inlineStr"/>
       <c r="AE252" s="14" t="n">
-        <v>1.33009565E8</v>
+        <v>359510.0</v>
       </c>
       <c r="AF252" s="14" t="inlineStr"/>
       <c r="AG252" s="14" t="inlineStr"/>
@@ -15262,23 +15256,29 @@
       <c r="E253" s="2" t="inlineStr"/>
       <c r="F253" s="2" t="inlineStr"/>
       <c r="G253" s="2" t="inlineStr"/>
-      <c r="H253" s="2" t="inlineStr"/>
-      <c r="I253" s="2" t="inlineStr"/>
-      <c r="J253" s="2" t="inlineStr"/>
-      <c r="K253" s="2" t="inlineStr"/>
-      <c r="L253" s="2" t="inlineStr"/>
-      <c r="M253" s="2" t="inlineStr"/>
-      <c r="N253" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">000175. Pemeliharaan AC Split</t>
-          </r>
-        </is>
-      </c>
+      <c r="H253" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">523121</t>
+          </r>
+        </is>
+      </c>
+      <c r="I253" s="13" t="inlineStr"/>
+      <c r="J253" s="13" t="inlineStr"/>
+      <c r="K253" s="13" t="inlineStr"/>
+      <c r="L253" s="13" t="inlineStr"/>
+      <c r="M253" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Belanja Pemeliharaan Peralatan dan Mesin</t>
+          </r>
+        </is>
+      </c>
+      <c r="N253" s="13" t="inlineStr"/>
       <c r="O253" s="13" t="inlineStr"/>
       <c r="P253" s="13" t="inlineStr"/>
       <c r="Q253" s="14" t="n">
-        <v>1.07E7</v>
+        <v>2.0386E8</v>
       </c>
       <c r="R253" s="14" t="inlineStr"/>
       <c r="S253" s="14" t="n">
@@ -15288,23 +15288,23 @@
       <c r="U253" s="14" t="inlineStr"/>
       <c r="V253" s="14" t="inlineStr"/>
       <c r="W253" s="14" t="n">
-        <v>535000.0</v>
+        <v>8.3881357E7</v>
       </c>
       <c r="X253" s="14" t="n">
-        <v>2745000.0</v>
+        <v>4505570.0</v>
       </c>
       <c r="Y253" s="14" t="inlineStr"/>
       <c r="Z253" s="14" t="n">
-        <v>3280000.0</v>
+        <v>8.8386927E7</v>
       </c>
       <c r="AA253" s="14" t="inlineStr"/>
       <c r="AB253" s="14" t="inlineStr"/>
       <c r="AC253" s="15" t="n">
-        <v>0.30654205607476637</v>
+        <v>0.43356679584028257</v>
       </c>
       <c r="AD253" s="15" t="inlineStr"/>
       <c r="AE253" s="14" t="n">
-        <v>7420000.0</v>
+        <v>1.15473073E8</v>
       </c>
       <c r="AF253" s="14" t="inlineStr"/>
       <c r="AG253" s="14" t="inlineStr"/>
@@ -15328,14 +15328,14 @@
       <c r="N254" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000176. Pemeliharaan Laptop</t>
+            <t xml:space="preserve">000175. Pemeliharaan AC Split</t>
           </r>
         </is>
       </c>
       <c r="O254" s="13" t="inlineStr"/>
       <c r="P254" s="13" t="inlineStr"/>
       <c r="Q254" s="14" t="n">
-        <v>5000000.0</v>
+        <v>1.07E7</v>
       </c>
       <c r="R254" s="14" t="inlineStr"/>
       <c r="S254" s="14" t="n">
@@ -15345,23 +15345,23 @@
       <c r="U254" s="14" t="inlineStr"/>
       <c r="V254" s="14" t="inlineStr"/>
       <c r="W254" s="14" t="n">
-        <v>0.0</v>
+        <v>4080000.0</v>
       </c>
       <c r="X254" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y254" s="14" t="inlineStr"/>
       <c r="Z254" s="14" t="n">
-        <v>0.0</v>
+        <v>4080000.0</v>
       </c>
       <c r="AA254" s="14" t="inlineStr"/>
       <c r="AB254" s="14" t="inlineStr"/>
       <c r="AC254" s="15" t="n">
-        <v>0.0</v>
+        <v>0.3813084112149533</v>
       </c>
       <c r="AD254" s="15" t="inlineStr"/>
       <c r="AE254" s="14" t="n">
-        <v>5000000.0</v>
+        <v>6620000.0</v>
       </c>
       <c r="AF254" s="14" t="inlineStr"/>
       <c r="AG254" s="14" t="inlineStr"/>
@@ -15428,14 +15428,14 @@
       <c r="N256" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000182. Pemeliharaan Instalasi Listrik</t>
+            <t xml:space="preserve">000176. Pemeliharaan Laptop</t>
           </r>
         </is>
       </c>
       <c r="O256" s="13" t="inlineStr"/>
       <c r="P256" s="13" t="inlineStr"/>
       <c r="Q256" s="14" t="n">
-        <v>1.2E7</v>
+        <v>5000000.0</v>
       </c>
       <c r="R256" s="14" t="inlineStr"/>
       <c r="S256" s="14" t="n">
@@ -15445,23 +15445,23 @@
       <c r="U256" s="14" t="inlineStr"/>
       <c r="V256" s="14" t="inlineStr"/>
       <c r="W256" s="14" t="n">
-        <v>2687100.0</v>
+        <v>0.0</v>
       </c>
       <c r="X256" s="14" t="n">
-        <v>1174618.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y256" s="14" t="inlineStr"/>
       <c r="Z256" s="14" t="n">
-        <v>3861718.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA256" s="14" t="inlineStr"/>
       <c r="AB256" s="14" t="inlineStr"/>
       <c r="AC256" s="15" t="n">
-        <v>0.32180983333333335</v>
+        <v>0.0</v>
       </c>
       <c r="AD256" s="15" t="inlineStr"/>
       <c r="AE256" s="14" t="n">
-        <v>8138282.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="AF256" s="14" t="inlineStr"/>
       <c r="AG256" s="14" t="inlineStr"/>
@@ -15485,14 +15485,14 @@
       <c r="N257" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000183. Pemeliharaan Kendaraan Roda 4</t>
+            <t xml:space="preserve">000182. Pemeliharaan Instalasi Listrik</t>
           </r>
         </is>
       </c>
       <c r="O257" s="13" t="inlineStr"/>
       <c r="P257" s="13" t="inlineStr"/>
       <c r="Q257" s="14" t="n">
-        <v>1.4E8</v>
+        <v>2.7E7</v>
       </c>
       <c r="R257" s="14" t="inlineStr"/>
       <c r="S257" s="14" t="n">
@@ -15502,23 +15502,23 @@
       <c r="U257" s="14" t="inlineStr"/>
       <c r="V257" s="14" t="inlineStr"/>
       <c r="W257" s="14" t="n">
-        <v>3.7120483E7</v>
+        <v>3861718.0</v>
       </c>
       <c r="X257" s="14" t="n">
-        <v>9277850.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y257" s="14" t="inlineStr"/>
       <c r="Z257" s="14" t="n">
-        <v>4.6398333E7</v>
+        <v>3861718.0</v>
       </c>
       <c r="AA257" s="14" t="inlineStr"/>
       <c r="AB257" s="14" t="inlineStr"/>
       <c r="AC257" s="15" t="n">
-        <v>0.3314166642857143</v>
+        <v>0.1430265925925926</v>
       </c>
       <c r="AD257" s="15" t="inlineStr"/>
       <c r="AE257" s="14" t="n">
-        <v>9.3601667E7</v>
+        <v>2.3138282E7</v>
       </c>
       <c r="AF257" s="14" t="inlineStr"/>
       <c r="AG257" s="14" t="inlineStr"/>
@@ -15542,14 +15542,14 @@
       <c r="N258" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000184. Pemeliharaan Kendaraan Roda 2</t>
+            <t xml:space="preserve">000183. Pemeliharaan Kendaraan Roda 4</t>
           </r>
         </is>
       </c>
       <c r="O258" s="13" t="inlineStr"/>
       <c r="P258" s="13" t="inlineStr"/>
       <c r="Q258" s="14" t="n">
-        <v>3000000.0</v>
+        <v>1.246E8</v>
       </c>
       <c r="R258" s="14" t="inlineStr"/>
       <c r="S258" s="14" t="n">
@@ -15559,23 +15559,23 @@
       <c r="U258" s="14" t="inlineStr"/>
       <c r="V258" s="14" t="inlineStr"/>
       <c r="W258" s="14" t="n">
-        <v>957500.0</v>
+        <v>6.3191077E7</v>
       </c>
       <c r="X258" s="14" t="n">
-        <v>100000.0</v>
+        <v>2925000.0</v>
       </c>
       <c r="Y258" s="14" t="inlineStr"/>
       <c r="Z258" s="14" t="n">
-        <v>1057500.0</v>
+        <v>6.6116077E7</v>
       </c>
       <c r="AA258" s="14" t="inlineStr"/>
       <c r="AB258" s="14" t="inlineStr"/>
       <c r="AC258" s="15" t="n">
-        <v>0.3525</v>
+        <v>0.530626621187801</v>
       </c>
       <c r="AD258" s="15" t="inlineStr"/>
       <c r="AE258" s="14" t="n">
-        <v>1942500.0</v>
+        <v>5.8483923E7</v>
       </c>
       <c r="AF258" s="14" t="inlineStr"/>
       <c r="AG258" s="14" t="inlineStr"/>
@@ -15599,14 +15599,14 @@
       <c r="N259" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000185. Pemeliharaan CCTV</t>
+            <t xml:space="preserve">000184. Pemeliharaan Kendaraan Roda 2</t>
           </r>
         </is>
       </c>
       <c r="O259" s="13" t="inlineStr"/>
       <c r="P259" s="13" t="inlineStr"/>
       <c r="Q259" s="14" t="n">
-        <v>6000000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="R259" s="14" t="inlineStr"/>
       <c r="S259" s="14" t="n">
@@ -15616,23 +15616,23 @@
       <c r="U259" s="14" t="inlineStr"/>
       <c r="V259" s="14" t="inlineStr"/>
       <c r="W259" s="14" t="n">
-        <v>981500.0</v>
+        <v>2027000.0</v>
       </c>
       <c r="X259" s="14" t="n">
-        <v>3704525.0</v>
+        <v>150000.0</v>
       </c>
       <c r="Y259" s="14" t="inlineStr"/>
       <c r="Z259" s="14" t="n">
-        <v>4686025.0</v>
+        <v>2177000.0</v>
       </c>
       <c r="AA259" s="14" t="inlineStr"/>
       <c r="AB259" s="14" t="inlineStr"/>
       <c r="AC259" s="15" t="n">
-        <v>0.7810041666666667</v>
+        <v>0.7256666666666667</v>
       </c>
       <c r="AD259" s="15" t="inlineStr"/>
       <c r="AE259" s="14" t="n">
-        <v>1313975.0</v>
+        <v>823000.0</v>
       </c>
       <c r="AF259" s="14" t="inlineStr"/>
       <c r="AG259" s="14" t="inlineStr"/>
@@ -15656,14 +15656,14 @@
       <c r="N260" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000186. Pemeliharaan Genset 250 KVA</t>
+            <t xml:space="preserve">000185. Pemeliharaan CCTV</t>
           </r>
         </is>
       </c>
       <c r="O260" s="13" t="inlineStr"/>
       <c r="P260" s="13" t="inlineStr"/>
       <c r="Q260" s="14" t="n">
-        <v>1010000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="R260" s="14" t="inlineStr"/>
       <c r="S260" s="14" t="n">
@@ -15673,23 +15673,23 @@
       <c r="U260" s="14" t="inlineStr"/>
       <c r="V260" s="14" t="inlineStr"/>
       <c r="W260" s="14" t="n">
-        <v>1000052.0</v>
+        <v>4686025.0</v>
       </c>
       <c r="X260" s="14" t="n">
-        <v>0.0</v>
+        <v>51510.0</v>
       </c>
       <c r="Y260" s="14" t="inlineStr"/>
       <c r="Z260" s="14" t="n">
-        <v>1000052.0</v>
+        <v>4737535.0</v>
       </c>
       <c r="AA260" s="14" t="inlineStr"/>
       <c r="AB260" s="14" t="inlineStr"/>
       <c r="AC260" s="15" t="n">
-        <v>0.9901504950495049</v>
+        <v>0.7895891666666667</v>
       </c>
       <c r="AD260" s="15" t="inlineStr"/>
       <c r="AE260" s="14" t="n">
-        <v>9948.0</v>
+        <v>1262465.0</v>
       </c>
       <c r="AF260" s="14" t="inlineStr"/>
       <c r="AG260" s="14" t="inlineStr"/>
@@ -15713,14 +15713,14 @@
       <c r="N261" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000187. Pemeliharaan Genset 40 KVA</t>
+            <t xml:space="preserve">000186. Pemeliharaan Genset 250 KVA</t>
           </r>
         </is>
       </c>
       <c r="O261" s="13" t="inlineStr"/>
       <c r="P261" s="13" t="inlineStr"/>
       <c r="Q261" s="14" t="n">
-        <v>1050000.0</v>
+        <v>6010000.0</v>
       </c>
       <c r="R261" s="14" t="inlineStr"/>
       <c r="S261" s="14" t="n">
@@ -15730,23 +15730,23 @@
       <c r="U261" s="14" t="inlineStr"/>
       <c r="V261" s="14" t="inlineStr"/>
       <c r="W261" s="14" t="n">
-        <v>1050000.0</v>
+        <v>1000052.0</v>
       </c>
       <c r="X261" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y261" s="14" t="inlineStr"/>
       <c r="Z261" s="14" t="n">
-        <v>1050000.0</v>
+        <v>1000052.0</v>
       </c>
       <c r="AA261" s="14" t="inlineStr"/>
       <c r="AB261" s="14" t="inlineStr"/>
       <c r="AC261" s="15" t="n">
-        <v>1.0</v>
+        <v>0.166398003327787</v>
       </c>
       <c r="AD261" s="15" t="inlineStr"/>
       <c r="AE261" s="14" t="n">
-        <v>0.0</v>
+        <v>5009948.0</v>
       </c>
       <c r="AF261" s="14" t="inlineStr"/>
       <c r="AG261" s="14" t="inlineStr"/>
@@ -15770,14 +15770,14 @@
       <c r="N262" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000190. Pemeliharaan Mesin Potong Rumput</t>
+            <t xml:space="preserve">000187. Pemeliharaan Genset 40 KVA</t>
           </r>
         </is>
       </c>
       <c r="O262" s="13" t="inlineStr"/>
       <c r="P262" s="13" t="inlineStr"/>
       <c r="Q262" s="14" t="n">
-        <v>1.0E7</v>
+        <v>4050000.0</v>
       </c>
       <c r="R262" s="14" t="inlineStr"/>
       <c r="S262" s="14" t="n">
@@ -15787,23 +15787,23 @@
       <c r="U262" s="14" t="inlineStr"/>
       <c r="V262" s="14" t="inlineStr"/>
       <c r="W262" s="14" t="n">
-        <v>1200000.0</v>
+        <v>1050000.0</v>
       </c>
       <c r="X262" s="14" t="n">
-        <v>628000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y262" s="14" t="inlineStr"/>
       <c r="Z262" s="14" t="n">
-        <v>1828000.0</v>
+        <v>1050000.0</v>
       </c>
       <c r="AA262" s="14" t="inlineStr"/>
       <c r="AB262" s="14" t="inlineStr"/>
       <c r="AC262" s="15" t="n">
-        <v>0.1828</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="AD262" s="15" t="inlineStr"/>
       <c r="AE262" s="14" t="n">
-        <v>8172000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="AF262" s="14" t="inlineStr"/>
       <c r="AG262" s="14" t="inlineStr"/>
@@ -15827,14 +15827,14 @@
       <c r="N263" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000191. Pemeliharaan Printer</t>
+            <t xml:space="preserve">000190. Pemeliharaan Mesin Potong Rumput</t>
           </r>
         </is>
       </c>
       <c r="O263" s="13" t="inlineStr"/>
       <c r="P263" s="13" t="inlineStr"/>
       <c r="Q263" s="14" t="n">
-        <v>500000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="R263" s="14" t="inlineStr"/>
       <c r="S263" s="14" t="n">
@@ -15844,23 +15844,23 @@
       <c r="U263" s="14" t="inlineStr"/>
       <c r="V263" s="14" t="inlineStr"/>
       <c r="W263" s="14" t="n">
-        <v>62558.0</v>
+        <v>2597953.0</v>
       </c>
       <c r="X263" s="14" t="n">
-        <v>0.0</v>
+        <v>1109060.0</v>
       </c>
       <c r="Y263" s="14" t="inlineStr"/>
       <c r="Z263" s="14" t="n">
-        <v>62558.0</v>
+        <v>3707013.0</v>
       </c>
       <c r="AA263" s="14" t="inlineStr"/>
       <c r="AB263" s="14" t="inlineStr"/>
       <c r="AC263" s="15" t="n">
-        <v>0.125116</v>
+        <v>0.3707013</v>
       </c>
       <c r="AD263" s="15" t="inlineStr"/>
       <c r="AE263" s="14" t="n">
-        <v>437442.0</v>
+        <v>6292987.0</v>
       </c>
       <c r="AF263" s="14" t="inlineStr"/>
       <c r="AG263" s="14" t="inlineStr"/>
@@ -15884,14 +15884,14 @@
       <c r="N264" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000192. Pemeliharaan Komputer/PC</t>
+            <t xml:space="preserve">000191. Pemeliharaan Printer</t>
           </r>
         </is>
       </c>
       <c r="O264" s="13" t="inlineStr"/>
       <c r="P264" s="13" t="inlineStr"/>
       <c r="Q264" s="14" t="n">
-        <v>5000000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="R264" s="14" t="inlineStr"/>
       <c r="S264" s="14" t="n">
@@ -15901,23 +15901,23 @@
       <c r="U264" s="14" t="inlineStr"/>
       <c r="V264" s="14" t="inlineStr"/>
       <c r="W264" s="14" t="n">
-        <v>26249.0</v>
+        <v>417558.0</v>
       </c>
       <c r="X264" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y264" s="14" t="inlineStr"/>
       <c r="Z264" s="14" t="n">
-        <v>26249.0</v>
+        <v>417558.0</v>
       </c>
       <c r="AA264" s="14" t="inlineStr"/>
       <c r="AB264" s="14" t="inlineStr"/>
       <c r="AC264" s="15" t="n">
-        <v>0.0052498</v>
+        <v>0.835116</v>
       </c>
       <c r="AD264" s="15" t="inlineStr"/>
       <c r="AE264" s="14" t="n">
-        <v>4973751.0</v>
+        <v>82442.0</v>
       </c>
       <c r="AF264" s="14" t="inlineStr"/>
       <c r="AG264" s="14" t="inlineStr"/>
@@ -15941,14 +15941,14 @@
       <c r="N265" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000283. Pemeliharaan Kulkas</t>
+            <t xml:space="preserve">000192. Pemeliharaan Komputer/PC</t>
           </r>
         </is>
       </c>
       <c r="O265" s="13" t="inlineStr"/>
       <c r="P265" s="13" t="inlineStr"/>
       <c r="Q265" s="14" t="n">
-        <v>2000000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="R265" s="14" t="inlineStr"/>
       <c r="S265" s="14" t="n">
@@ -15958,23 +15958,23 @@
       <c r="U265" s="14" t="inlineStr"/>
       <c r="V265" s="14" t="inlineStr"/>
       <c r="W265" s="14" t="n">
-        <v>0.0</v>
+        <v>969974.0</v>
       </c>
       <c r="X265" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y265" s="14" t="inlineStr"/>
       <c r="Z265" s="14" t="n">
-        <v>0.0</v>
+        <v>969974.0</v>
       </c>
       <c r="AA265" s="14" t="inlineStr"/>
       <c r="AB265" s="14" t="inlineStr"/>
       <c r="AC265" s="15" t="n">
-        <v>0.0</v>
+        <v>0.1939948</v>
       </c>
       <c r="AD265" s="15" t="inlineStr"/>
       <c r="AE265" s="14" t="n">
-        <v>2000000.0</v>
+        <v>4030026.0</v>
       </c>
       <c r="AF265" s="14" t="inlineStr"/>
       <c r="AG265" s="14" t="inlineStr"/>
@@ -15989,29 +15989,23 @@
       <c r="E266" s="2" t="inlineStr"/>
       <c r="F266" s="2" t="inlineStr"/>
       <c r="G266" s="2" t="inlineStr"/>
-      <c r="H266" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">523132</t>
-          </r>
-        </is>
-      </c>
-      <c r="I266" s="13" t="inlineStr"/>
-      <c r="J266" s="13" t="inlineStr"/>
-      <c r="K266" s="13" t="inlineStr"/>
-      <c r="L266" s="13" t="inlineStr"/>
-      <c r="M266" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Belanja Pemeliharaan Irigasi</t>
-          </r>
-        </is>
-      </c>
-      <c r="N266" s="13" t="inlineStr"/>
+      <c r="H266" s="2" t="inlineStr"/>
+      <c r="I266" s="2" t="inlineStr"/>
+      <c r="J266" s="2" t="inlineStr"/>
+      <c r="K266" s="2" t="inlineStr"/>
+      <c r="L266" s="2" t="inlineStr"/>
+      <c r="M266" s="2" t="inlineStr"/>
+      <c r="N266" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">000283. Pemeliharaan Kulkas</t>
+          </r>
+        </is>
+      </c>
       <c r="O266" s="13" t="inlineStr"/>
       <c r="P266" s="13" t="inlineStr"/>
       <c r="Q266" s="14" t="n">
-        <v>8.11E7</v>
+        <v>2000000.0</v>
       </c>
       <c r="R266" s="14" t="inlineStr"/>
       <c r="S266" s="14" t="n">
@@ -16021,23 +16015,23 @@
       <c r="U266" s="14" t="inlineStr"/>
       <c r="V266" s="14" t="inlineStr"/>
       <c r="W266" s="14" t="n">
-        <v>3.909E7</v>
+        <v>0.0</v>
       </c>
       <c r="X266" s="14" t="n">
-        <v>0.0</v>
+        <v>270000.0</v>
       </c>
       <c r="Y266" s="14" t="inlineStr"/>
       <c r="Z266" s="14" t="n">
-        <v>3.909E7</v>
+        <v>270000.0</v>
       </c>
       <c r="AA266" s="14" t="inlineStr"/>
       <c r="AB266" s="14" t="inlineStr"/>
       <c r="AC266" s="15" t="n">
-        <v>0.4819975339087546</v>
+        <v>0.135</v>
       </c>
       <c r="AD266" s="15" t="inlineStr"/>
       <c r="AE266" s="14" t="n">
-        <v>4.201E7</v>
+        <v>1730000.0</v>
       </c>
       <c r="AF266" s="14" t="inlineStr"/>
       <c r="AG266" s="14" t="inlineStr"/>
@@ -16052,23 +16046,29 @@
       <c r="E267" s="2" t="inlineStr"/>
       <c r="F267" s="2" t="inlineStr"/>
       <c r="G267" s="2" t="inlineStr"/>
-      <c r="H267" s="2" t="inlineStr"/>
-      <c r="I267" s="2" t="inlineStr"/>
-      <c r="J267" s="2" t="inlineStr"/>
-      <c r="K267" s="2" t="inlineStr"/>
-      <c r="L267" s="2" t="inlineStr"/>
-      <c r="M267" s="2" t="inlineStr"/>
-      <c r="N267" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">000195. Pemeliharaan Talud Cijeruk</t>
-          </r>
-        </is>
-      </c>
+      <c r="H267" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">523132</t>
+          </r>
+        </is>
+      </c>
+      <c r="I267" s="13" t="inlineStr"/>
+      <c r="J267" s="13" t="inlineStr"/>
+      <c r="K267" s="13" t="inlineStr"/>
+      <c r="L267" s="13" t="inlineStr"/>
+      <c r="M267" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Belanja Pemeliharaan Irigasi</t>
+          </r>
+        </is>
+      </c>
+      <c r="N267" s="13" t="inlineStr"/>
       <c r="O267" s="13" t="inlineStr"/>
       <c r="P267" s="13" t="inlineStr"/>
       <c r="Q267" s="14" t="n">
-        <v>3.91E7</v>
+        <v>8.11E7</v>
       </c>
       <c r="R267" s="14" t="inlineStr"/>
       <c r="S267" s="14" t="n">
@@ -16078,23 +16078,23 @@
       <c r="U267" s="14" t="inlineStr"/>
       <c r="V267" s="14" t="inlineStr"/>
       <c r="W267" s="14" t="n">
-        <v>3.909E7</v>
+        <v>5.2605E7</v>
       </c>
       <c r="X267" s="14" t="n">
-        <v>0.0</v>
+        <v>8811000.0</v>
       </c>
       <c r="Y267" s="14" t="inlineStr"/>
       <c r="Z267" s="14" t="n">
-        <v>3.909E7</v>
+        <v>6.1416E7</v>
       </c>
       <c r="AA267" s="14" t="inlineStr"/>
       <c r="AB267" s="14" t="inlineStr"/>
       <c r="AC267" s="15" t="n">
-        <v>0.9997442455242966</v>
+        <v>0.7572872996300863</v>
       </c>
       <c r="AD267" s="15" t="inlineStr"/>
       <c r="AE267" s="14" t="n">
-        <v>10000.0</v>
+        <v>1.9684E7</v>
       </c>
       <c r="AF267" s="14" t="inlineStr"/>
       <c r="AG267" s="14" t="inlineStr"/>
@@ -16118,14 +16118,14 @@
       <c r="N268" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000284. Pemeliharaan Talud Cibalagung</t>
+            <t xml:space="preserve">000195. Pemeliharaan Talud Cijeruk</t>
           </r>
         </is>
       </c>
       <c r="O268" s="13" t="inlineStr"/>
       <c r="P268" s="13" t="inlineStr"/>
       <c r="Q268" s="14" t="n">
-        <v>3.0E7</v>
+        <v>3.91E7</v>
       </c>
       <c r="R268" s="14" t="inlineStr"/>
       <c r="S268" s="14" t="n">
@@ -16135,23 +16135,23 @@
       <c r="U268" s="14" t="inlineStr"/>
       <c r="V268" s="14" t="inlineStr"/>
       <c r="W268" s="14" t="n">
-        <v>0.0</v>
+        <v>3.909E7</v>
       </c>
       <c r="X268" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y268" s="14" t="inlineStr"/>
       <c r="Z268" s="14" t="n">
-        <v>0.0</v>
+        <v>3.909E7</v>
       </c>
       <c r="AA268" s="14" t="inlineStr"/>
       <c r="AB268" s="14" t="inlineStr"/>
       <c r="AC268" s="15" t="n">
-        <v>0.0</v>
+        <v>0.9997442455242966</v>
       </c>
       <c r="AD268" s="15" t="inlineStr"/>
       <c r="AE268" s="14" t="n">
-        <v>3.0E7</v>
+        <v>10000.0</v>
       </c>
       <c r="AF268" s="14" t="inlineStr"/>
       <c r="AG268" s="14" t="inlineStr"/>
@@ -16175,14 +16175,14 @@
       <c r="N269" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000285. Pemeliharaan Saluran Air Cijeruk</t>
+            <t xml:space="preserve">000284. Pemeliharaan Talud Cibalagung</t>
           </r>
         </is>
       </c>
       <c r="O269" s="13" t="inlineStr"/>
       <c r="P269" s="13" t="inlineStr"/>
       <c r="Q269" s="14" t="n">
-        <v>1.2E7</v>
+        <v>3.0E7</v>
       </c>
       <c r="R269" s="14" t="inlineStr"/>
       <c r="S269" s="14" t="n">
@@ -16192,23 +16192,23 @@
       <c r="U269" s="14" t="inlineStr"/>
       <c r="V269" s="14" t="inlineStr"/>
       <c r="W269" s="14" t="n">
-        <v>0.0</v>
+        <v>1.155E7</v>
       </c>
       <c r="X269" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y269" s="14" t="inlineStr"/>
       <c r="Z269" s="14" t="n">
-        <v>0.0</v>
+        <v>1.155E7</v>
       </c>
       <c r="AA269" s="14" t="inlineStr"/>
       <c r="AB269" s="14" t="inlineStr"/>
       <c r="AC269" s="15" t="n">
-        <v>0.0</v>
+        <v>0.385</v>
       </c>
       <c r="AD269" s="15" t="inlineStr"/>
       <c r="AE269" s="14" t="n">
-        <v>1.2E7</v>
+        <v>1.845E7</v>
       </c>
       <c r="AF269" s="14" t="inlineStr"/>
       <c r="AG269" s="14" t="inlineStr"/>
@@ -16221,31 +16221,25 @@
       <c r="C270" s="2" t="inlineStr"/>
       <c r="D270" s="2" t="inlineStr"/>
       <c r="E270" s="2" t="inlineStr"/>
-      <c r="F270" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">002.DD</t>
-          </r>
-        </is>
-      </c>
-      <c r="G270" s="13" t="inlineStr"/>
-      <c r="H270" s="13" t="inlineStr"/>
-      <c r="I270" s="13" t="inlineStr"/>
-      <c r="J270" s="13" t="inlineStr"/>
-      <c r="K270" s="13" t="inlineStr"/>
-      <c r="L270" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Pembayaran Terkait Pelaksanaan Operasional Kantor</t>
-          </r>
-        </is>
-      </c>
-      <c r="M270" s="13" t="inlineStr"/>
-      <c r="N270" s="13" t="inlineStr"/>
+      <c r="F270" s="2" t="inlineStr"/>
+      <c r="G270" s="2" t="inlineStr"/>
+      <c r="H270" s="2" t="inlineStr"/>
+      <c r="I270" s="2" t="inlineStr"/>
+      <c r="J270" s="2" t="inlineStr"/>
+      <c r="K270" s="2" t="inlineStr"/>
+      <c r="L270" s="2" t="inlineStr"/>
+      <c r="M270" s="2" t="inlineStr"/>
+      <c r="N270" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">000285. Pemeliharaan Saluran Air Cijeruk</t>
+          </r>
+        </is>
+      </c>
       <c r="O270" s="13" t="inlineStr"/>
       <c r="P270" s="13" t="inlineStr"/>
       <c r="Q270" s="14" t="n">
-        <v>1.3218E8</v>
+        <v>1.2E7</v>
       </c>
       <c r="R270" s="14" t="inlineStr"/>
       <c r="S270" s="14" t="n">
@@ -16255,23 +16249,23 @@
       <c r="U270" s="14" t="inlineStr"/>
       <c r="V270" s="14" t="inlineStr"/>
       <c r="W270" s="14" t="n">
-        <v>3.867E7</v>
+        <v>1965000.0</v>
       </c>
       <c r="X270" s="14" t="n">
-        <v>1.039E7</v>
+        <v>8811000.0</v>
       </c>
       <c r="Y270" s="14" t="inlineStr"/>
       <c r="Z270" s="14" t="n">
-        <v>4.906E7</v>
+        <v>1.0776E7</v>
       </c>
       <c r="AA270" s="14" t="inlineStr"/>
       <c r="AB270" s="14" t="inlineStr"/>
       <c r="AC270" s="15" t="n">
-        <v>0.37116053865940385</v>
+        <v>0.898</v>
       </c>
       <c r="AD270" s="15" t="inlineStr"/>
       <c r="AE270" s="14" t="n">
-        <v>8.312E7</v>
+        <v>1224000.0</v>
       </c>
       <c r="AF270" s="14" t="inlineStr"/>
       <c r="AG270" s="14" t="inlineStr"/>
@@ -16284,31 +16278,31 @@
       <c r="C271" s="2" t="inlineStr"/>
       <c r="D271" s="2" t="inlineStr"/>
       <c r="E271" s="2" t="inlineStr"/>
-      <c r="F271" s="2" t="inlineStr"/>
-      <c r="G271" s="2" t="inlineStr"/>
-      <c r="H271" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">521115</t>
-          </r>
-        </is>
-      </c>
+      <c r="F271" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">002.DD</t>
+          </r>
+        </is>
+      </c>
+      <c r="G271" s="13" t="inlineStr"/>
+      <c r="H271" s="13" t="inlineStr"/>
       <c r="I271" s="13" t="inlineStr"/>
       <c r="J271" s="13" t="inlineStr"/>
       <c r="K271" s="13" t="inlineStr"/>
-      <c r="L271" s="13" t="inlineStr"/>
-      <c r="M271" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Belanja Honor Operasional Satuan Kerja</t>
-          </r>
-        </is>
-      </c>
+      <c r="L271" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Pembayaran Terkait Pelaksanaan Operasional Kantor</t>
+          </r>
+        </is>
+      </c>
+      <c r="M271" s="13" t="inlineStr"/>
       <c r="N271" s="13" t="inlineStr"/>
       <c r="O271" s="13" t="inlineStr"/>
       <c r="P271" s="13" t="inlineStr"/>
       <c r="Q271" s="14" t="n">
-        <v>1.2468E8</v>
+        <v>1.3218E8</v>
       </c>
       <c r="R271" s="14" t="inlineStr"/>
       <c r="S271" s="14" t="n">
@@ -16318,23 +16312,23 @@
       <c r="U271" s="14" t="inlineStr"/>
       <c r="V271" s="14" t="inlineStr"/>
       <c r="W271" s="14" t="n">
-        <v>3.117E7</v>
+        <v>6.936E7</v>
       </c>
       <c r="X271" s="14" t="n">
-        <v>1.039E7</v>
+        <v>480000.0</v>
       </c>
       <c r="Y271" s="14" t="inlineStr"/>
       <c r="Z271" s="14" t="n">
-        <v>4.156E7</v>
+        <v>6.984E7</v>
       </c>
       <c r="AA271" s="14" t="inlineStr"/>
       <c r="AB271" s="14" t="inlineStr"/>
       <c r="AC271" s="15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5283704039945529</v>
       </c>
       <c r="AD271" s="15" t="inlineStr"/>
       <c r="AE271" s="14" t="n">
-        <v>8.312E7</v>
+        <v>6.234E7</v>
       </c>
       <c r="AF271" s="14" t="inlineStr"/>
       <c r="AG271" s="14" t="inlineStr"/>
@@ -16349,23 +16343,29 @@
       <c r="E272" s="2" t="inlineStr"/>
       <c r="F272" s="2" t="inlineStr"/>
       <c r="G272" s="2" t="inlineStr"/>
-      <c r="H272" s="2" t="inlineStr"/>
-      <c r="I272" s="2" t="inlineStr"/>
-      <c r="J272" s="2" t="inlineStr"/>
-      <c r="K272" s="2" t="inlineStr"/>
-      <c r="L272" s="2" t="inlineStr"/>
-      <c r="M272" s="2" t="inlineStr"/>
-      <c r="N272" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">000197. Honorarium Pejabat Kuasa Pengguna Anggaran</t>
-          </r>
-        </is>
-      </c>
+      <c r="H272" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">521115</t>
+          </r>
+        </is>
+      </c>
+      <c r="I272" s="13" t="inlineStr"/>
+      <c r="J272" s="13" t="inlineStr"/>
+      <c r="K272" s="13" t="inlineStr"/>
+      <c r="L272" s="13" t="inlineStr"/>
+      <c r="M272" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Belanja Honor Operasional Satuan Kerja</t>
+          </r>
+        </is>
+      </c>
+      <c r="N272" s="13" t="inlineStr"/>
       <c r="O272" s="13" t="inlineStr"/>
       <c r="P272" s="13" t="inlineStr"/>
       <c r="Q272" s="14" t="n">
-        <v>3.06E7</v>
+        <v>1.2468E8</v>
       </c>
       <c r="R272" s="14" t="inlineStr"/>
       <c r="S272" s="14" t="n">
@@ -16375,23 +16375,23 @@
       <c r="U272" s="14" t="inlineStr"/>
       <c r="V272" s="14" t="inlineStr"/>
       <c r="W272" s="14" t="n">
-        <v>7650000.0</v>
+        <v>6.186E7</v>
       </c>
       <c r="X272" s="14" t="n">
-        <v>2550000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="Y272" s="14" t="inlineStr"/>
       <c r="Z272" s="14" t="n">
-        <v>1.02E7</v>
+        <v>6.234E7</v>
       </c>
       <c r="AA272" s="14" t="inlineStr"/>
       <c r="AB272" s="14" t="inlineStr"/>
       <c r="AC272" s="15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AD272" s="15" t="inlineStr"/>
       <c r="AE272" s="14" t="n">
-        <v>2.04E7</v>
+        <v>6.234E7</v>
       </c>
       <c r="AF272" s="14" t="inlineStr"/>
       <c r="AG272" s="14" t="inlineStr"/>
@@ -16415,14 +16415,14 @@
       <c r="N273" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000198. Honorarium Pejabat Pembuat Komitmen</t>
+            <t xml:space="preserve">000197. Honorarium Pejabat Kuasa Pengguna Anggaran</t>
           </r>
         </is>
       </c>
       <c r="O273" s="13" t="inlineStr"/>
       <c r="P273" s="13" t="inlineStr"/>
       <c r="Q273" s="14" t="n">
-        <v>2.976E7</v>
+        <v>3.06E7</v>
       </c>
       <c r="R273" s="14" t="inlineStr"/>
       <c r="S273" s="14" t="n">
@@ -16432,30 +16432,30 @@
       <c r="U273" s="14" t="inlineStr"/>
       <c r="V273" s="14" t="inlineStr"/>
       <c r="W273" s="14" t="n">
-        <v>7440000.0</v>
+        <v>1.53E7</v>
       </c>
       <c r="X273" s="14" t="n">
-        <v>2480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y273" s="14" t="inlineStr"/>
       <c r="Z273" s="14" t="n">
-        <v>9920000.0</v>
+        <v>1.53E7</v>
       </c>
       <c r="AA273" s="14" t="inlineStr"/>
       <c r="AB273" s="14" t="inlineStr"/>
       <c r="AC273" s="15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AD273" s="15" t="inlineStr"/>
       <c r="AE273" s="14" t="n">
-        <v>1.984E7</v>
+        <v>1.53E7</v>
       </c>
       <c r="AF273" s="14" t="inlineStr"/>
       <c r="AG273" s="14" t="inlineStr"/>
       <c r="AH273" s="14" t="inlineStr"/>
       <c r="AI273" s="14" t="inlineStr"/>
     </row>
-    <row r="274" customHeight="1" ht="18">
+    <row r="274" customHeight="1" ht="15">
       <c r="A274" s="2" t="inlineStr"/>
       <c r="B274" s="2" t="inlineStr"/>
       <c r="C274" s="2" t="inlineStr"/>
@@ -16472,14 +16472,14 @@
       <c r="N274" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000199. Honorarium Pejabat  Penguji Tagihan   Penandatangan  Spm</t>
+            <t xml:space="preserve">000198. Honorarium Pejabat Pembuat Komitmen</t>
           </r>
         </is>
       </c>
       <c r="O274" s="13" t="inlineStr"/>
       <c r="P274" s="13" t="inlineStr"/>
       <c r="Q274" s="14" t="n">
-        <v>1.476E7</v>
+        <v>2.976E7</v>
       </c>
       <c r="R274" s="14" t="inlineStr"/>
       <c r="S274" s="14" t="n">
@@ -16489,30 +16489,30 @@
       <c r="U274" s="14" t="inlineStr"/>
       <c r="V274" s="14" t="inlineStr"/>
       <c r="W274" s="14" t="n">
-        <v>3690000.0</v>
+        <v>1.488E7</v>
       </c>
       <c r="X274" s="14" t="n">
-        <v>1230000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y274" s="14" t="inlineStr"/>
       <c r="Z274" s="14" t="n">
-        <v>4920000.0</v>
+        <v>1.488E7</v>
       </c>
       <c r="AA274" s="14" t="inlineStr"/>
       <c r="AB274" s="14" t="inlineStr"/>
       <c r="AC274" s="15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AD274" s="15" t="inlineStr"/>
       <c r="AE274" s="14" t="n">
-        <v>9840000.0</v>
+        <v>1.488E7</v>
       </c>
       <c r="AF274" s="14" t="inlineStr"/>
       <c r="AG274" s="14" t="inlineStr"/>
       <c r="AH274" s="14" t="inlineStr"/>
       <c r="AI274" s="14" t="inlineStr"/>
     </row>
-    <row r="275" customHeight="1" ht="15">
+    <row r="275" customHeight="1" ht="18">
       <c r="A275" s="2" t="inlineStr"/>
       <c r="B275" s="2" t="inlineStr"/>
       <c r="C275" s="2" t="inlineStr"/>
@@ -16529,14 +16529,14 @@
       <c r="N275" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000200. Honorarium Bendahara  Pengeluaran</t>
+            <t xml:space="preserve">000199. Honorarium Pejabat  Penguji Tagihan   Penandatangan  Spm</t>
           </r>
         </is>
       </c>
       <c r="O275" s="13" t="inlineStr"/>
       <c r="P275" s="13" t="inlineStr"/>
       <c r="Q275" s="14" t="n">
-        <v>1.284E7</v>
+        <v>1.476E7</v>
       </c>
       <c r="R275" s="14" t="inlineStr"/>
       <c r="S275" s="14" t="n">
@@ -16546,23 +16546,23 @@
       <c r="U275" s="14" t="inlineStr"/>
       <c r="V275" s="14" t="inlineStr"/>
       <c r="W275" s="14" t="n">
-        <v>3210000.0</v>
+        <v>7380000.0</v>
       </c>
       <c r="X275" s="14" t="n">
-        <v>1070000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y275" s="14" t="inlineStr"/>
       <c r="Z275" s="14" t="n">
-        <v>4280000.0</v>
+        <v>7380000.0</v>
       </c>
       <c r="AA275" s="14" t="inlineStr"/>
       <c r="AB275" s="14" t="inlineStr"/>
       <c r="AC275" s="15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AD275" s="15" t="inlineStr"/>
       <c r="AE275" s="14" t="n">
-        <v>8560000.0</v>
+        <v>7380000.0</v>
       </c>
       <c r="AF275" s="14" t="inlineStr"/>
       <c r="AG275" s="14" t="inlineStr"/>
@@ -16586,14 +16586,14 @@
       <c r="N276" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000201. Honorarium Staf  Pengelola</t>
+            <t xml:space="preserve">000200. Honorarium Bendahara  Pengeluaran</t>
           </r>
         </is>
       </c>
       <c r="O276" s="13" t="inlineStr"/>
       <c r="P276" s="13" t="inlineStr"/>
       <c r="Q276" s="14" t="n">
-        <v>2.88E7</v>
+        <v>1.284E7</v>
       </c>
       <c r="R276" s="14" t="inlineStr"/>
       <c r="S276" s="14" t="n">
@@ -16603,23 +16603,23 @@
       <c r="U276" s="14" t="inlineStr"/>
       <c r="V276" s="14" t="inlineStr"/>
       <c r="W276" s="14" t="n">
-        <v>7200000.0</v>
+        <v>6420000.0</v>
       </c>
       <c r="X276" s="14" t="n">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y276" s="14" t="inlineStr"/>
       <c r="Z276" s="14" t="n">
-        <v>9600000.0</v>
+        <v>6420000.0</v>
       </c>
       <c r="AA276" s="14" t="inlineStr"/>
       <c r="AB276" s="14" t="inlineStr"/>
       <c r="AC276" s="15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AD276" s="15" t="inlineStr"/>
       <c r="AE276" s="14" t="n">
-        <v>1.92E7</v>
+        <v>6420000.0</v>
       </c>
       <c r="AF276" s="14" t="inlineStr"/>
       <c r="AG276" s="14" t="inlineStr"/>
@@ -16643,14 +16643,14 @@
       <c r="N277" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000202. Honorarium Anggota/Petugas (UAKPA/Barang)</t>
+            <t xml:space="preserve">000201. Honorarium Staf  Pengelola</t>
           </r>
         </is>
       </c>
       <c r="O277" s="13" t="inlineStr"/>
       <c r="P277" s="13" t="inlineStr"/>
       <c r="Q277" s="14" t="n">
-        <v>3600000.0</v>
+        <v>2.88E7</v>
       </c>
       <c r="R277" s="14" t="inlineStr"/>
       <c r="S277" s="14" t="n">
@@ -16660,30 +16660,30 @@
       <c r="U277" s="14" t="inlineStr"/>
       <c r="V277" s="14" t="inlineStr"/>
       <c r="W277" s="14" t="n">
-        <v>900000.0</v>
+        <v>1.44E7</v>
       </c>
       <c r="X277" s="14" t="n">
-        <v>300000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y277" s="14" t="inlineStr"/>
       <c r="Z277" s="14" t="n">
-        <v>1200000.0</v>
+        <v>1.44E7</v>
       </c>
       <c r="AA277" s="14" t="inlineStr"/>
       <c r="AB277" s="14" t="inlineStr"/>
       <c r="AC277" s="15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AD277" s="15" t="inlineStr"/>
       <c r="AE277" s="14" t="n">
-        <v>2400000.0</v>
+        <v>1.44E7</v>
       </c>
       <c r="AF277" s="14" t="inlineStr"/>
       <c r="AG277" s="14" t="inlineStr"/>
       <c r="AH277" s="14" t="inlineStr"/>
       <c r="AI277" s="14" t="inlineStr"/>
     </row>
-    <row r="278" customHeight="1" ht="18">
+    <row r="278" customHeight="1" ht="15">
       <c r="A278" s="2" t="inlineStr"/>
       <c r="B278" s="2" t="inlineStr"/>
       <c r="C278" s="2" t="inlineStr"/>
@@ -16700,14 +16700,14 @@
       <c r="N278" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000203. Honorarium Pengurus/Penyimpan Bmn Tingkat Kuasa Pengguna Barang</t>
+            <t xml:space="preserve">000202. Honorarium Anggota/Petugas (UAKPA/Barang)</t>
           </r>
         </is>
       </c>
       <c r="O278" s="13" t="inlineStr"/>
       <c r="P278" s="13" t="inlineStr"/>
       <c r="Q278" s="14" t="n">
-        <v>4320000.0</v>
+        <v>3600000.0</v>
       </c>
       <c r="R278" s="14" t="inlineStr"/>
       <c r="S278" s="14" t="n">
@@ -16717,30 +16717,30 @@
       <c r="U278" s="14" t="inlineStr"/>
       <c r="V278" s="14" t="inlineStr"/>
       <c r="W278" s="14" t="n">
-        <v>1080000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="X278" s="14" t="n">
-        <v>360000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="Y278" s="14" t="inlineStr"/>
       <c r="Z278" s="14" t="n">
-        <v>1440000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="AA278" s="14" t="inlineStr"/>
       <c r="AB278" s="14" t="inlineStr"/>
       <c r="AC278" s="15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AD278" s="15" t="inlineStr"/>
       <c r="AE278" s="14" t="n">
-        <v>2880000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="AF278" s="14" t="inlineStr"/>
       <c r="AG278" s="14" t="inlineStr"/>
       <c r="AH278" s="14" t="inlineStr"/>
       <c r="AI278" s="14" t="inlineStr"/>
     </row>
-    <row r="279" customHeight="1" ht="15">
+    <row r="279" customHeight="1" ht="18">
       <c r="A279" s="2" t="inlineStr"/>
       <c r="B279" s="2" t="inlineStr"/>
       <c r="C279" s="2" t="inlineStr"/>
@@ -16748,29 +16748,23 @@
       <c r="E279" s="2" t="inlineStr"/>
       <c r="F279" s="2" t="inlineStr"/>
       <c r="G279" s="2" t="inlineStr"/>
-      <c r="H279" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">521119</t>
-          </r>
-        </is>
-      </c>
-      <c r="I279" s="13" t="inlineStr"/>
-      <c r="J279" s="13" t="inlineStr"/>
-      <c r="K279" s="13" t="inlineStr"/>
-      <c r="L279" s="13" t="inlineStr"/>
-      <c r="M279" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Belanja Barang Operasional Lainnya</t>
-          </r>
-        </is>
-      </c>
-      <c r="N279" s="13" t="inlineStr"/>
+      <c r="H279" s="2" t="inlineStr"/>
+      <c r="I279" s="2" t="inlineStr"/>
+      <c r="J279" s="2" t="inlineStr"/>
+      <c r="K279" s="2" t="inlineStr"/>
+      <c r="L279" s="2" t="inlineStr"/>
+      <c r="M279" s="2" t="inlineStr"/>
+      <c r="N279" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">000203. Honorarium Pengurus/Penyimpan Bmn Tingkat Kuasa Pengguna Barang</t>
+          </r>
+        </is>
+      </c>
       <c r="O279" s="13" t="inlineStr"/>
       <c r="P279" s="13" t="inlineStr"/>
       <c r="Q279" s="14" t="n">
-        <v>7500000.0</v>
+        <v>4320000.0</v>
       </c>
       <c r="R279" s="14" t="inlineStr"/>
       <c r="S279" s="14" t="n">
@@ -16780,23 +16774,23 @@
       <c r="U279" s="14" t="inlineStr"/>
       <c r="V279" s="14" t="inlineStr"/>
       <c r="W279" s="14" t="n">
-        <v>7500000.0</v>
+        <v>1980000.0</v>
       </c>
       <c r="X279" s="14" t="n">
-        <v>0.0</v>
+        <v>180000.0</v>
       </c>
       <c r="Y279" s="14" t="inlineStr"/>
       <c r="Z279" s="14" t="n">
-        <v>7500000.0</v>
+        <v>2160000.0</v>
       </c>
       <c r="AA279" s="14" t="inlineStr"/>
       <c r="AB279" s="14" t="inlineStr"/>
       <c r="AC279" s="15" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="AD279" s="15" t="inlineStr"/>
       <c r="AE279" s="14" t="n">
-        <v>0.0</v>
+        <v>2160000.0</v>
       </c>
       <c r="AF279" s="14" t="inlineStr"/>
       <c r="AG279" s="14" t="inlineStr"/>
@@ -16811,19 +16805,25 @@
       <c r="E280" s="2" t="inlineStr"/>
       <c r="F280" s="2" t="inlineStr"/>
       <c r="G280" s="2" t="inlineStr"/>
-      <c r="H280" s="2" t="inlineStr"/>
-      <c r="I280" s="2" t="inlineStr"/>
-      <c r="J280" s="2" t="inlineStr"/>
-      <c r="K280" s="2" t="inlineStr"/>
-      <c r="L280" s="2" t="inlineStr"/>
-      <c r="M280" s="2" t="inlineStr"/>
-      <c r="N280" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">000243. Pakaian Kerja PJLP</t>
-          </r>
-        </is>
-      </c>
+      <c r="H280" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">521119</t>
+          </r>
+        </is>
+      </c>
+      <c r="I280" s="13" t="inlineStr"/>
+      <c r="J280" s="13" t="inlineStr"/>
+      <c r="K280" s="13" t="inlineStr"/>
+      <c r="L280" s="13" t="inlineStr"/>
+      <c r="M280" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Belanja Barang Operasional Lainnya</t>
+          </r>
+        </is>
+      </c>
+      <c r="N280" s="13" t="inlineStr"/>
       <c r="O280" s="13" t="inlineStr"/>
       <c r="P280" s="13" t="inlineStr"/>
       <c r="Q280" s="14" t="n">
@@ -16863,65 +16863,59 @@
     <row r="281" customHeight="1" ht="15">
       <c r="A281" s="2" t="inlineStr"/>
       <c r="B281" s="2" t="inlineStr"/>
-      <c r="C281" s="16" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">EBD</t>
-          </r>
-        </is>
-      </c>
-      <c r="D281" s="16" t="inlineStr"/>
-      <c r="E281" s="16" t="inlineStr"/>
-      <c r="F281" s="16" t="inlineStr"/>
-      <c r="G281" s="16" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Layanan Manajemen Kinerja Internal</t>
-          </r>
-        </is>
-      </c>
-      <c r="H281" s="16" t="inlineStr"/>
-      <c r="I281" s="16" t="inlineStr"/>
-      <c r="J281" s="16" t="inlineStr"/>
-      <c r="K281" s="16" t="inlineStr"/>
-      <c r="L281" s="16" t="inlineStr"/>
-      <c r="M281" s="16" t="inlineStr"/>
-      <c r="N281" s="16" t="inlineStr"/>
-      <c r="O281" s="16" t="inlineStr"/>
-      <c r="P281" s="16" t="inlineStr"/>
-      <c r="Q281" s="17" t="n">
-        <v>600000.0</v>
-      </c>
-      <c r="R281" s="17" t="inlineStr"/>
-      <c r="S281" s="17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T281" s="17" t="inlineStr"/>
-      <c r="U281" s="17" t="inlineStr"/>
-      <c r="V281" s="17" t="inlineStr"/>
-      <c r="W281" s="17" t="n">
-        <v>600000.0</v>
-      </c>
-      <c r="X281" s="17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y281" s="17" t="inlineStr"/>
-      <c r="Z281" s="17" t="n">
-        <v>600000.0</v>
-      </c>
-      <c r="AA281" s="17" t="inlineStr"/>
-      <c r="AB281" s="17" t="inlineStr"/>
-      <c r="AC281" s="18" t="n">
+      <c r="C281" s="2" t="inlineStr"/>
+      <c r="D281" s="2" t="inlineStr"/>
+      <c r="E281" s="2" t="inlineStr"/>
+      <c r="F281" s="2" t="inlineStr"/>
+      <c r="G281" s="2" t="inlineStr"/>
+      <c r="H281" s="2" t="inlineStr"/>
+      <c r="I281" s="2" t="inlineStr"/>
+      <c r="J281" s="2" t="inlineStr"/>
+      <c r="K281" s="2" t="inlineStr"/>
+      <c r="L281" s="2" t="inlineStr"/>
+      <c r="M281" s="2" t="inlineStr"/>
+      <c r="N281" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">000243. Pakaian Kerja PJLP</t>
+          </r>
+        </is>
+      </c>
+      <c r="O281" s="13" t="inlineStr"/>
+      <c r="P281" s="13" t="inlineStr"/>
+      <c r="Q281" s="14" t="n">
+        <v>7500000.0</v>
+      </c>
+      <c r="R281" s="14" t="inlineStr"/>
+      <c r="S281" s="14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T281" s="14" t="inlineStr"/>
+      <c r="U281" s="14" t="inlineStr"/>
+      <c r="V281" s="14" t="inlineStr"/>
+      <c r="W281" s="14" t="n">
+        <v>7500000.0</v>
+      </c>
+      <c r="X281" s="14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y281" s="14" t="inlineStr"/>
+      <c r="Z281" s="14" t="n">
+        <v>7500000.0</v>
+      </c>
+      <c r="AA281" s="14" t="inlineStr"/>
+      <c r="AB281" s="14" t="inlineStr"/>
+      <c r="AC281" s="15" t="n">
         <v>1.0</v>
       </c>
-      <c r="AD281" s="18" t="inlineStr"/>
-      <c r="AE281" s="17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF281" s="17" t="inlineStr"/>
-      <c r="AG281" s="17" t="inlineStr"/>
-      <c r="AH281" s="17" t="inlineStr"/>
-      <c r="AI281" s="17" t="inlineStr"/>
+      <c r="AD281" s="15" t="inlineStr"/>
+      <c r="AE281" s="14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF281" s="14" t="inlineStr"/>
+      <c r="AG281" s="14" t="inlineStr"/>
+      <c r="AH281" s="14" t="inlineStr"/>
+      <c r="AI281" s="14" t="inlineStr"/>
     </row>
     <row r="282" customHeight="1" ht="12">
       <c r="A282" s="2" t="inlineStr"/>
@@ -16969,191 +16963,191 @@
     <row r="283" customHeight="1" ht="15">
       <c r="A283" s="2" t="inlineStr"/>
       <c r="B283" s="2" t="inlineStr"/>
-      <c r="C283" s="28" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">EBD.955</t>
-          </r>
-        </is>
-      </c>
-      <c r="D283" s="28" t="inlineStr"/>
-      <c r="E283" s="28" t="inlineStr"/>
-      <c r="F283" s="28" t="inlineStr"/>
-      <c r="G283" s="28" t="inlineStr"/>
-      <c r="H283" s="28" t="inlineStr"/>
-      <c r="I283" s="28" t="inlineStr"/>
-      <c r="J283" s="28" t="inlineStr"/>
-      <c r="K283" s="20" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Layanan Manajemen Keuangan</t>
-          </r>
-        </is>
-      </c>
-      <c r="L283" s="20" t="inlineStr"/>
-      <c r="M283" s="20" t="inlineStr"/>
-      <c r="N283" s="20" t="inlineStr"/>
-      <c r="O283" s="20" t="inlineStr"/>
-      <c r="P283" s="20" t="inlineStr"/>
-      <c r="Q283" s="21" t="n">
+      <c r="C283" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">EBD</t>
+          </r>
+        </is>
+      </c>
+      <c r="D283" s="16" t="inlineStr"/>
+      <c r="E283" s="16" t="inlineStr"/>
+      <c r="F283" s="16" t="inlineStr"/>
+      <c r="G283" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Layanan Manajemen Kinerja Internal</t>
+          </r>
+        </is>
+      </c>
+      <c r="H283" s="16" t="inlineStr"/>
+      <c r="I283" s="16" t="inlineStr"/>
+      <c r="J283" s="16" t="inlineStr"/>
+      <c r="K283" s="16" t="inlineStr"/>
+      <c r="L283" s="16" t="inlineStr"/>
+      <c r="M283" s="16" t="inlineStr"/>
+      <c r="N283" s="16" t="inlineStr"/>
+      <c r="O283" s="16" t="inlineStr"/>
+      <c r="P283" s="16" t="inlineStr"/>
+      <c r="Q283" s="17" t="n">
         <v>600000.0</v>
       </c>
-      <c r="R283" s="21" t="inlineStr"/>
-      <c r="S283" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T283" s="21" t="inlineStr"/>
-      <c r="U283" s="21" t="inlineStr"/>
-      <c r="V283" s="21" t="inlineStr"/>
-      <c r="W283" s="22" t="n">
+      <c r="R283" s="17" t="inlineStr"/>
+      <c r="S283" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T283" s="17" t="inlineStr"/>
+      <c r="U283" s="17" t="inlineStr"/>
+      <c r="V283" s="17" t="inlineStr"/>
+      <c r="W283" s="17" t="n">
         <v>600000.0</v>
       </c>
-      <c r="X283" s="22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y283" s="22" t="inlineStr"/>
-      <c r="Z283" s="21" t="n">
+      <c r="X283" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y283" s="17" t="inlineStr"/>
+      <c r="Z283" s="17" t="n">
         <v>600000.0</v>
       </c>
-      <c r="AA283" s="21" t="inlineStr"/>
-      <c r="AB283" s="21" t="inlineStr"/>
-      <c r="AC283" s="23" t="n">
+      <c r="AA283" s="17" t="inlineStr"/>
+      <c r="AB283" s="17" t="inlineStr"/>
+      <c r="AC283" s="18" t="n">
         <v>1.0</v>
       </c>
-      <c r="AD283" s="23" t="inlineStr"/>
-      <c r="AE283" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF283" s="21" t="inlineStr"/>
-      <c r="AG283" s="21" t="inlineStr"/>
-      <c r="AH283" s="21" t="inlineStr"/>
-      <c r="AI283" s="21" t="inlineStr"/>
+      <c r="AD283" s="18" t="inlineStr"/>
+      <c r="AE283" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF283" s="17" t="inlineStr"/>
+      <c r="AG283" s="17" t="inlineStr"/>
+      <c r="AH283" s="17" t="inlineStr"/>
+      <c r="AI283" s="17" t="inlineStr"/>
     </row>
     <row r="284" customHeight="1" ht="15">
       <c r="A284" s="2" t="inlineStr"/>
       <c r="B284" s="2" t="inlineStr"/>
-      <c r="C284" s="2" t="inlineStr"/>
-      <c r="D284" s="2" t="inlineStr"/>
-      <c r="E284" s="24" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">201</t>
-          </r>
-        </is>
-      </c>
-      <c r="F284" s="24" t="inlineStr"/>
-      <c r="G284" s="24" t="inlineStr"/>
-      <c r="H284" s="24" t="inlineStr"/>
-      <c r="I284" s="24" t="inlineStr"/>
-      <c r="J284" s="24" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Pelayanan Keuangan Penyuluhan Kelautan dan Perikanan</t>
-          </r>
-        </is>
-      </c>
-      <c r="K284" s="24" t="inlineStr"/>
-      <c r="L284" s="24" t="inlineStr"/>
-      <c r="M284" s="24" t="inlineStr"/>
-      <c r="N284" s="24" t="inlineStr"/>
-      <c r="O284" s="24" t="inlineStr"/>
-      <c r="P284" s="24" t="inlineStr"/>
-      <c r="Q284" s="25" t="n">
+      <c r="C284" s="28" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">EBD.955</t>
+          </r>
+        </is>
+      </c>
+      <c r="D284" s="28" t="inlineStr"/>
+      <c r="E284" s="28" t="inlineStr"/>
+      <c r="F284" s="28" t="inlineStr"/>
+      <c r="G284" s="28" t="inlineStr"/>
+      <c r="H284" s="28" t="inlineStr"/>
+      <c r="I284" s="28" t="inlineStr"/>
+      <c r="J284" s="28" t="inlineStr"/>
+      <c r="K284" s="20" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Layanan Manajemen Keuangan</t>
+          </r>
+        </is>
+      </c>
+      <c r="L284" s="20" t="inlineStr"/>
+      <c r="M284" s="20" t="inlineStr"/>
+      <c r="N284" s="20" t="inlineStr"/>
+      <c r="O284" s="20" t="inlineStr"/>
+      <c r="P284" s="20" t="inlineStr"/>
+      <c r="Q284" s="21" t="n">
         <v>600000.0</v>
       </c>
-      <c r="R284" s="25" t="inlineStr"/>
-      <c r="S284" s="25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T284" s="25" t="inlineStr"/>
-      <c r="U284" s="25" t="inlineStr"/>
-      <c r="V284" s="25" t="inlineStr"/>
-      <c r="W284" s="25" t="n">
+      <c r="R284" s="21" t="inlineStr"/>
+      <c r="S284" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T284" s="21" t="inlineStr"/>
+      <c r="U284" s="21" t="inlineStr"/>
+      <c r="V284" s="21" t="inlineStr"/>
+      <c r="W284" s="22" t="n">
         <v>600000.0</v>
       </c>
-      <c r="X284" s="25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y284" s="25" t="inlineStr"/>
-      <c r="Z284" s="25" t="n">
+      <c r="X284" s="22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y284" s="22" t="inlineStr"/>
+      <c r="Z284" s="21" t="n">
         <v>600000.0</v>
       </c>
-      <c r="AA284" s="25" t="inlineStr"/>
-      <c r="AB284" s="25" t="inlineStr"/>
-      <c r="AC284" s="26" t="n">
+      <c r="AA284" s="21" t="inlineStr"/>
+      <c r="AB284" s="21" t="inlineStr"/>
+      <c r="AC284" s="23" t="n">
         <v>1.0</v>
       </c>
-      <c r="AD284" s="26" t="inlineStr"/>
-      <c r="AE284" s="25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF284" s="25" t="inlineStr"/>
-      <c r="AG284" s="25" t="inlineStr"/>
-      <c r="AH284" s="25" t="inlineStr"/>
-      <c r="AI284" s="25" t="inlineStr"/>
+      <c r="AD284" s="23" t="inlineStr"/>
+      <c r="AE284" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF284" s="21" t="inlineStr"/>
+      <c r="AG284" s="21" t="inlineStr"/>
+      <c r="AH284" s="21" t="inlineStr"/>
+      <c r="AI284" s="21" t="inlineStr"/>
     </row>
     <row r="285" customHeight="1" ht="15">
       <c r="A285" s="2" t="inlineStr"/>
       <c r="B285" s="2" t="inlineStr"/>
       <c r="C285" s="2" t="inlineStr"/>
       <c r="D285" s="2" t="inlineStr"/>
-      <c r="E285" s="2" t="inlineStr"/>
-      <c r="F285" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">201.DA</t>
-          </r>
-        </is>
-      </c>
-      <c r="G285" s="13" t="inlineStr"/>
-      <c r="H285" s="13" t="inlineStr"/>
-      <c r="I285" s="13" t="inlineStr"/>
-      <c r="J285" s="13" t="inlineStr"/>
-      <c r="K285" s="13" t="inlineStr"/>
-      <c r="L285" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Layanan Keuangan</t>
-          </r>
-        </is>
-      </c>
-      <c r="M285" s="13" t="inlineStr"/>
-      <c r="N285" s="13" t="inlineStr"/>
-      <c r="O285" s="13" t="inlineStr"/>
-      <c r="P285" s="13" t="inlineStr"/>
-      <c r="Q285" s="14" t="n">
+      <c r="E285" s="24" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">201</t>
+          </r>
+        </is>
+      </c>
+      <c r="F285" s="24" t="inlineStr"/>
+      <c r="G285" s="24" t="inlineStr"/>
+      <c r="H285" s="24" t="inlineStr"/>
+      <c r="I285" s="24" t="inlineStr"/>
+      <c r="J285" s="24" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Pelayanan Keuangan Penyuluhan Kelautan dan Perikanan</t>
+          </r>
+        </is>
+      </c>
+      <c r="K285" s="24" t="inlineStr"/>
+      <c r="L285" s="24" t="inlineStr"/>
+      <c r="M285" s="24" t="inlineStr"/>
+      <c r="N285" s="24" t="inlineStr"/>
+      <c r="O285" s="24" t="inlineStr"/>
+      <c r="P285" s="24" t="inlineStr"/>
+      <c r="Q285" s="25" t="n">
         <v>600000.0</v>
       </c>
-      <c r="R285" s="14" t="inlineStr"/>
-      <c r="S285" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T285" s="14" t="inlineStr"/>
-      <c r="U285" s="14" t="inlineStr"/>
-      <c r="V285" s="14" t="inlineStr"/>
-      <c r="W285" s="14" t="n">
+      <c r="R285" s="25" t="inlineStr"/>
+      <c r="S285" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T285" s="25" t="inlineStr"/>
+      <c r="U285" s="25" t="inlineStr"/>
+      <c r="V285" s="25" t="inlineStr"/>
+      <c r="W285" s="25" t="n">
         <v>600000.0</v>
       </c>
-      <c r="X285" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y285" s="14" t="inlineStr"/>
-      <c r="Z285" s="14" t="n">
+      <c r="X285" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y285" s="25" t="inlineStr"/>
+      <c r="Z285" s="25" t="n">
         <v>600000.0</v>
       </c>
-      <c r="AA285" s="14" t="inlineStr"/>
-      <c r="AB285" s="14" t="inlineStr"/>
-      <c r="AC285" s="15" t="n">
+      <c r="AA285" s="25" t="inlineStr"/>
+      <c r="AB285" s="25" t="inlineStr"/>
+      <c r="AC285" s="26" t="n">
         <v>1.0</v>
       </c>
-      <c r="AD285" s="15" t="inlineStr"/>
-      <c r="AE285" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF285" s="14" t="inlineStr"/>
-      <c r="AG285" s="14" t="inlineStr"/>
-      <c r="AH285" s="14" t="inlineStr"/>
-      <c r="AI285" s="14" t="inlineStr"/>
+      <c r="AD285" s="26" t="inlineStr"/>
+      <c r="AE285" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF285" s="25" t="inlineStr"/>
+      <c r="AG285" s="25" t="inlineStr"/>
+      <c r="AH285" s="25" t="inlineStr"/>
+      <c r="AI285" s="25" t="inlineStr"/>
     </row>
     <row r="286" customHeight="1" ht="15">
       <c r="A286" s="2" t="inlineStr"/>
@@ -17161,26 +17155,26 @@
       <c r="C286" s="2" t="inlineStr"/>
       <c r="D286" s="2" t="inlineStr"/>
       <c r="E286" s="2" t="inlineStr"/>
-      <c r="F286" s="2" t="inlineStr"/>
-      <c r="G286" s="2" t="inlineStr"/>
-      <c r="H286" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">524111</t>
-          </r>
-        </is>
-      </c>
+      <c r="F286" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">201.DA</t>
+          </r>
+        </is>
+      </c>
+      <c r="G286" s="13" t="inlineStr"/>
+      <c r="H286" s="13" t="inlineStr"/>
       <c r="I286" s="13" t="inlineStr"/>
       <c r="J286" s="13" t="inlineStr"/>
       <c r="K286" s="13" t="inlineStr"/>
-      <c r="L286" s="13" t="inlineStr"/>
-      <c r="M286" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Belanja Perjalanan Dinas Biasa</t>
-          </r>
-        </is>
-      </c>
+      <c r="L286" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Layanan Keuangan</t>
+          </r>
+        </is>
+      </c>
+      <c r="M286" s="13" t="inlineStr"/>
       <c r="N286" s="13" t="inlineStr"/>
       <c r="O286" s="13" t="inlineStr"/>
       <c r="P286" s="13" t="inlineStr"/>
@@ -17226,19 +17220,25 @@
       <c r="E287" s="2" t="inlineStr"/>
       <c r="F287" s="2" t="inlineStr"/>
       <c r="G287" s="2" t="inlineStr"/>
-      <c r="H287" s="2" t="inlineStr"/>
-      <c r="I287" s="2" t="inlineStr"/>
-      <c r="J287" s="2" t="inlineStr"/>
-      <c r="K287" s="2" t="inlineStr"/>
-      <c r="L287" s="2" t="inlineStr"/>
-      <c r="M287" s="2" t="inlineStr"/>
-      <c r="N287" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">000231. Uang Harian</t>
-          </r>
-        </is>
-      </c>
+      <c r="H287" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">524111</t>
+          </r>
+        </is>
+      </c>
+      <c r="I287" s="13" t="inlineStr"/>
+      <c r="J287" s="13" t="inlineStr"/>
+      <c r="K287" s="13" t="inlineStr"/>
+      <c r="L287" s="13" t="inlineStr"/>
+      <c r="M287" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Belanja Perjalanan Dinas Biasa</t>
+          </r>
+        </is>
+      </c>
+      <c r="N287" s="13" t="inlineStr"/>
       <c r="O287" s="13" t="inlineStr"/>
       <c r="P287" s="13" t="inlineStr"/>
       <c r="Q287" s="14" t="n">
@@ -17275,48 +17275,105 @@
       <c r="AH287" s="14" t="inlineStr"/>
       <c r="AI287" s="14" t="inlineStr"/>
     </row>
-    <row r="288" customHeight="1" ht="12">
+    <row r="288" customHeight="1" ht="15">
       <c r="A288" s="2" t="inlineStr"/>
-      <c r="B288" s="27" t="inlineStr">
+      <c r="B288" s="2" t="inlineStr"/>
+      <c r="C288" s="2" t="inlineStr"/>
+      <c r="D288" s="2" t="inlineStr"/>
+      <c r="E288" s="2" t="inlineStr"/>
+      <c r="F288" s="2" t="inlineStr"/>
+      <c r="G288" s="2" t="inlineStr"/>
+      <c r="H288" s="2" t="inlineStr"/>
+      <c r="I288" s="2" t="inlineStr"/>
+      <c r="J288" s="2" t="inlineStr"/>
+      <c r="K288" s="2" t="inlineStr"/>
+      <c r="L288" s="2" t="inlineStr"/>
+      <c r="M288" s="2" t="inlineStr"/>
+      <c r="N288" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">000231. Uang Harian</t>
+          </r>
+        </is>
+      </c>
+      <c r="O288" s="13" t="inlineStr"/>
+      <c r="P288" s="13" t="inlineStr"/>
+      <c r="Q288" s="14" t="n">
+        <v>600000.0</v>
+      </c>
+      <c r="R288" s="14" t="inlineStr"/>
+      <c r="S288" s="14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T288" s="14" t="inlineStr"/>
+      <c r="U288" s="14" t="inlineStr"/>
+      <c r="V288" s="14" t="inlineStr"/>
+      <c r="W288" s="14" t="n">
+        <v>600000.0</v>
+      </c>
+      <c r="X288" s="14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y288" s="14" t="inlineStr"/>
+      <c r="Z288" s="14" t="n">
+        <v>600000.0</v>
+      </c>
+      <c r="AA288" s="14" t="inlineStr"/>
+      <c r="AB288" s="14" t="inlineStr"/>
+      <c r="AC288" s="15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD288" s="15" t="inlineStr"/>
+      <c r="AE288" s="14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF288" s="14" t="inlineStr"/>
+      <c r="AG288" s="14" t="inlineStr"/>
+      <c r="AH288" s="14" t="inlineStr"/>
+      <c r="AI288" s="14" t="inlineStr"/>
+    </row>
+    <row r="289" customHeight="1" ht="12">
+      <c r="A289" s="2" t="inlineStr"/>
+      <c r="B289" s="27" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">*Lock Pagu adalah jumlah pagu yang sedang dalam proses usulan revisi DIPA atau POK. Lock pagu akan hilang setelah usulan revisi DIPA/POK selesai menjadi DIPA.</t>
           </r>
         </is>
       </c>
-      <c r="C288" s="27" t="inlineStr"/>
-      <c r="D288" s="27" t="inlineStr"/>
-      <c r="E288" s="27" t="inlineStr"/>
-      <c r="F288" s="27" t="inlineStr"/>
-      <c r="G288" s="27" t="inlineStr"/>
-      <c r="H288" s="27" t="inlineStr"/>
-      <c r="I288" s="27" t="inlineStr"/>
-      <c r="J288" s="27" t="inlineStr"/>
-      <c r="K288" s="27" t="inlineStr"/>
-      <c r="L288" s="27" t="inlineStr"/>
-      <c r="M288" s="27" t="inlineStr"/>
-      <c r="N288" s="27" t="inlineStr"/>
-      <c r="O288" s="27" t="inlineStr"/>
-      <c r="P288" s="27" t="inlineStr"/>
-      <c r="Q288" s="27" t="inlineStr"/>
-      <c r="R288" s="27" t="inlineStr"/>
-      <c r="S288" s="27" t="inlineStr"/>
-      <c r="T288" s="27" t="inlineStr"/>
-      <c r="U288" s="27" t="inlineStr"/>
-      <c r="V288" s="27" t="inlineStr"/>
-      <c r="W288" s="27" t="inlineStr"/>
-      <c r="X288" s="27" t="inlineStr"/>
-      <c r="Y288" s="27" t="inlineStr"/>
-      <c r="Z288" s="27" t="inlineStr"/>
-      <c r="AA288" s="27" t="inlineStr"/>
-      <c r="AB288" s="27" t="inlineStr"/>
-      <c r="AC288" s="27" t="inlineStr"/>
-      <c r="AD288" s="27" t="inlineStr"/>
-      <c r="AE288" s="27" t="inlineStr"/>
-      <c r="AF288" s="27" t="inlineStr"/>
-      <c r="AG288" s="2" t="inlineStr"/>
-      <c r="AH288" s="2" t="inlineStr"/>
-      <c r="AI288" s="2" t="inlineStr"/>
+      <c r="C289" s="27" t="inlineStr"/>
+      <c r="D289" s="27" t="inlineStr"/>
+      <c r="E289" s="27" t="inlineStr"/>
+      <c r="F289" s="27" t="inlineStr"/>
+      <c r="G289" s="27" t="inlineStr"/>
+      <c r="H289" s="27" t="inlineStr"/>
+      <c r="I289" s="27" t="inlineStr"/>
+      <c r="J289" s="27" t="inlineStr"/>
+      <c r="K289" s="27" t="inlineStr"/>
+      <c r="L289" s="27" t="inlineStr"/>
+      <c r="M289" s="27" t="inlineStr"/>
+      <c r="N289" s="27" t="inlineStr"/>
+      <c r="O289" s="27" t="inlineStr"/>
+      <c r="P289" s="27" t="inlineStr"/>
+      <c r="Q289" s="27" t="inlineStr"/>
+      <c r="R289" s="27" t="inlineStr"/>
+      <c r="S289" s="27" t="inlineStr"/>
+      <c r="T289" s="27" t="inlineStr"/>
+      <c r="U289" s="27" t="inlineStr"/>
+      <c r="V289" s="27" t="inlineStr"/>
+      <c r="W289" s="27" t="inlineStr"/>
+      <c r="X289" s="27" t="inlineStr"/>
+      <c r="Y289" s="27" t="inlineStr"/>
+      <c r="Z289" s="27" t="inlineStr"/>
+      <c r="AA289" s="27" t="inlineStr"/>
+      <c r="AB289" s="27" t="inlineStr"/>
+      <c r="AC289" s="27" t="inlineStr"/>
+      <c r="AD289" s="27" t="inlineStr"/>
+      <c r="AE289" s="27" t="inlineStr"/>
+      <c r="AF289" s="27" t="inlineStr"/>
+      <c r="AG289" s="2" t="inlineStr"/>
+      <c r="AH289" s="2" t="inlineStr"/>
+      <c r="AI289" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -18958,30 +19015,30 @@
     <mergeCell ref="Z235:AB235"/>
     <mergeCell ref="AC235:AD235"/>
     <mergeCell ref="AE235:AI235"/>
-    <mergeCell ref="H236:L236"/>
-    <mergeCell ref="M236:P236"/>
+    <mergeCell ref="N236:P236"/>
     <mergeCell ref="Q236:R236"/>
     <mergeCell ref="S236:V236"/>
     <mergeCell ref="X236:Y236"/>
     <mergeCell ref="Z236:AB236"/>
     <mergeCell ref="AC236:AD236"/>
     <mergeCell ref="AE236:AI236"/>
-    <mergeCell ref="N237:P237"/>
+    <mergeCell ref="H237:L237"/>
+    <mergeCell ref="M237:P237"/>
     <mergeCell ref="Q237:R237"/>
     <mergeCell ref="S237:V237"/>
     <mergeCell ref="X237:Y237"/>
     <mergeCell ref="Z237:AB237"/>
     <mergeCell ref="AC237:AD237"/>
     <mergeCell ref="AE237:AI237"/>
-    <mergeCell ref="H238:L238"/>
-    <mergeCell ref="M238:P238"/>
+    <mergeCell ref="N238:P238"/>
     <mergeCell ref="Q238:R238"/>
     <mergeCell ref="S238:V238"/>
     <mergeCell ref="X238:Y238"/>
     <mergeCell ref="Z238:AB238"/>
     <mergeCell ref="AC238:AD238"/>
     <mergeCell ref="AE238:AI238"/>
-    <mergeCell ref="N239:P239"/>
+    <mergeCell ref="H239:L239"/>
+    <mergeCell ref="M239:P239"/>
     <mergeCell ref="Q239:R239"/>
     <mergeCell ref="S239:V239"/>
     <mergeCell ref="X239:Y239"/>
@@ -19072,15 +19129,15 @@
     <mergeCell ref="Z251:AB251"/>
     <mergeCell ref="AC251:AD251"/>
     <mergeCell ref="AE251:AI251"/>
-    <mergeCell ref="H252:L252"/>
-    <mergeCell ref="M252:P252"/>
+    <mergeCell ref="N252:P252"/>
     <mergeCell ref="Q252:R252"/>
     <mergeCell ref="S252:V252"/>
     <mergeCell ref="X252:Y252"/>
     <mergeCell ref="Z252:AB252"/>
     <mergeCell ref="AC252:AD252"/>
     <mergeCell ref="AE252:AI252"/>
-    <mergeCell ref="N253:P253"/>
+    <mergeCell ref="H253:L253"/>
+    <mergeCell ref="M253:P253"/>
     <mergeCell ref="Q253:R253"/>
     <mergeCell ref="S253:V253"/>
     <mergeCell ref="X253:Y253"/>
@@ -19165,15 +19222,15 @@
     <mergeCell ref="Z265:AB265"/>
     <mergeCell ref="AC265:AD265"/>
     <mergeCell ref="AE265:AI265"/>
-    <mergeCell ref="H266:L266"/>
-    <mergeCell ref="M266:P266"/>
+    <mergeCell ref="N266:P266"/>
     <mergeCell ref="Q266:R266"/>
     <mergeCell ref="S266:V266"/>
     <mergeCell ref="X266:Y266"/>
     <mergeCell ref="Z266:AB266"/>
     <mergeCell ref="AC266:AD266"/>
     <mergeCell ref="AE266:AI266"/>
-    <mergeCell ref="N267:P267"/>
+    <mergeCell ref="H267:L267"/>
+    <mergeCell ref="M267:P267"/>
     <mergeCell ref="Q267:R267"/>
     <mergeCell ref="S267:V267"/>
     <mergeCell ref="X267:Y267"/>
@@ -19194,23 +19251,23 @@
     <mergeCell ref="Z269:AB269"/>
     <mergeCell ref="AC269:AD269"/>
     <mergeCell ref="AE269:AI269"/>
-    <mergeCell ref="F270:K270"/>
-    <mergeCell ref="L270:P270"/>
+    <mergeCell ref="N270:P270"/>
     <mergeCell ref="Q270:R270"/>
     <mergeCell ref="S270:V270"/>
     <mergeCell ref="X270:Y270"/>
     <mergeCell ref="Z270:AB270"/>
     <mergeCell ref="AC270:AD270"/>
     <mergeCell ref="AE270:AI270"/>
-    <mergeCell ref="H271:L271"/>
-    <mergeCell ref="M271:P271"/>
+    <mergeCell ref="F271:K271"/>
+    <mergeCell ref="L271:P271"/>
     <mergeCell ref="Q271:R271"/>
     <mergeCell ref="S271:V271"/>
     <mergeCell ref="X271:Y271"/>
     <mergeCell ref="Z271:AB271"/>
     <mergeCell ref="AC271:AD271"/>
     <mergeCell ref="AE271:AI271"/>
-    <mergeCell ref="N272:P272"/>
+    <mergeCell ref="H272:L272"/>
+    <mergeCell ref="M272:P272"/>
     <mergeCell ref="Q272:R272"/>
     <mergeCell ref="S272:V272"/>
     <mergeCell ref="X272:Y272"/>
@@ -19259,23 +19316,22 @@
     <mergeCell ref="Z278:AB278"/>
     <mergeCell ref="AC278:AD278"/>
     <mergeCell ref="AE278:AI278"/>
-    <mergeCell ref="H279:L279"/>
-    <mergeCell ref="M279:P279"/>
+    <mergeCell ref="N279:P279"/>
     <mergeCell ref="Q279:R279"/>
     <mergeCell ref="S279:V279"/>
     <mergeCell ref="X279:Y279"/>
     <mergeCell ref="Z279:AB279"/>
     <mergeCell ref="AC279:AD279"/>
     <mergeCell ref="AE279:AI279"/>
-    <mergeCell ref="N280:P280"/>
+    <mergeCell ref="H280:L280"/>
+    <mergeCell ref="M280:P280"/>
     <mergeCell ref="Q280:R280"/>
     <mergeCell ref="S280:V280"/>
     <mergeCell ref="X280:Y280"/>
     <mergeCell ref="Z280:AB280"/>
     <mergeCell ref="AC280:AD280"/>
     <mergeCell ref="AE280:AI280"/>
-    <mergeCell ref="C281:F281"/>
-    <mergeCell ref="G281:P281"/>
+    <mergeCell ref="N281:P281"/>
     <mergeCell ref="Q281:R281"/>
     <mergeCell ref="S281:V281"/>
     <mergeCell ref="X281:Y281"/>
@@ -19283,46 +19339,54 @@
     <mergeCell ref="AC281:AD281"/>
     <mergeCell ref="AE281:AI281"/>
     <mergeCell ref="B282:AF282"/>
-    <mergeCell ref="C283:J283"/>
-    <mergeCell ref="K283:P283"/>
+    <mergeCell ref="C283:F283"/>
+    <mergeCell ref="G283:P283"/>
     <mergeCell ref="Q283:R283"/>
     <mergeCell ref="S283:V283"/>
     <mergeCell ref="X283:Y283"/>
     <mergeCell ref="Z283:AB283"/>
     <mergeCell ref="AC283:AD283"/>
     <mergeCell ref="AE283:AI283"/>
-    <mergeCell ref="E284:I284"/>
-    <mergeCell ref="J284:P284"/>
+    <mergeCell ref="C284:J284"/>
+    <mergeCell ref="K284:P284"/>
     <mergeCell ref="Q284:R284"/>
     <mergeCell ref="S284:V284"/>
     <mergeCell ref="X284:Y284"/>
     <mergeCell ref="Z284:AB284"/>
     <mergeCell ref="AC284:AD284"/>
     <mergeCell ref="AE284:AI284"/>
-    <mergeCell ref="F285:K285"/>
-    <mergeCell ref="L285:P285"/>
+    <mergeCell ref="E285:I285"/>
+    <mergeCell ref="J285:P285"/>
     <mergeCell ref="Q285:R285"/>
     <mergeCell ref="S285:V285"/>
     <mergeCell ref="X285:Y285"/>
     <mergeCell ref="Z285:AB285"/>
     <mergeCell ref="AC285:AD285"/>
     <mergeCell ref="AE285:AI285"/>
-    <mergeCell ref="H286:L286"/>
-    <mergeCell ref="M286:P286"/>
+    <mergeCell ref="F286:K286"/>
+    <mergeCell ref="L286:P286"/>
     <mergeCell ref="Q286:R286"/>
     <mergeCell ref="S286:V286"/>
     <mergeCell ref="X286:Y286"/>
     <mergeCell ref="Z286:AB286"/>
     <mergeCell ref="AC286:AD286"/>
     <mergeCell ref="AE286:AI286"/>
-    <mergeCell ref="N287:P287"/>
+    <mergeCell ref="H287:L287"/>
+    <mergeCell ref="M287:P287"/>
     <mergeCell ref="Q287:R287"/>
     <mergeCell ref="S287:V287"/>
     <mergeCell ref="X287:Y287"/>
     <mergeCell ref="Z287:AB287"/>
     <mergeCell ref="AC287:AD287"/>
     <mergeCell ref="AE287:AI287"/>
-    <mergeCell ref="B288:AF288"/>
+    <mergeCell ref="N288:P288"/>
+    <mergeCell ref="Q288:R288"/>
+    <mergeCell ref="S288:V288"/>
+    <mergeCell ref="X288:Y288"/>
+    <mergeCell ref="Z288:AB288"/>
+    <mergeCell ref="AC288:AD288"/>
+    <mergeCell ref="AE288:AI288"/>
+    <mergeCell ref="B289:AF289"/>
   </mergeCells>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.00" header="0.0" footer="0.0"/>
   <pageSetup orientation="landscape" paperSize="9"/>
